--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="389">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,7 +1127,7 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>3dcard_preview_300x600</t>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_300x600</t>
   </si>
   <si>
     <t>300</t>
@@ -1136,13 +1136,67 @@
     <t>600</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BIOPARC_VALENCIA/2024/1/3dcard/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.bioparcvalencia.es/" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>https://www.bioparcvalencia.es/</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=300x600&amp;tc_alt=120930" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120930.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.sandos.com/es/atrapa-el-calor</t>
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_300x250</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=300x250&amp;tc_alt=120931" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120931.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_320x100</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=320x100&amp;tc_alt=120932" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120932.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_970x250</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=970x250&amp;tc_alt=120934" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120934.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=300x600&amp;tc_alt=120936" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120936.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=300x250&amp;tc_alt=120937" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120937.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=320x100&amp;tc_alt=120938" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120938.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=970x250&amp;tc_alt=120940" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120940.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3546,7 +3600,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3646,9 +3700,156 @@
         <v>370</v>
       </c>
     </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J9" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="398">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,76 +1127,103 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_300x600</t>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_160x600</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120402" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120402.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.tumundo.cl/planes-movil/portabilidad-10/</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x250</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=300x600&amp;tc_alt=120930" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120930.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.sandos.com/es/atrapa-el-calor</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_300x250</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=300x250&amp;tc_alt=120931" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120931.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_320x100</t>
-  </si>
-  <si>
-    <t>320</t>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120403" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x250.jpg" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120403.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120404" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120404.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x100</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=320x100&amp;tc_alt=120932" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120932.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_970x250</t>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120405" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x100.jpg" width="300" height="100"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120405.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_728x90</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120406" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120406.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_970x250</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=970x250&amp;tc_alt=120934" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120934.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=300x600&amp;tc_alt=120936" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120936.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=300x250&amp;tc_alt=120937" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120937.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=320x100&amp;tc_alt=120938" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120938.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=970x250&amp;tc_alt=120940" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120940.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120407" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120407.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_160x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120408" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120408.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.tumundo.cl/planes-movil/portabilidad-gl-200/</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120410" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120410.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_300x100</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120411" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/300x100.jpg" width="300" height="100"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120411.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_728x90</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120412" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120412.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_970x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120413" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120413.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3600,7 +3627,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3705,13 +3732,13 @@
         <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>369</v>
@@ -3722,16 +3749,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
         <v>376</v>
-      </c>
-      <c r="E4" t="s">
-        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>369</v>
@@ -3742,16 +3769,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" t="s">
         <v>378</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>379</v>
-      </c>
-      <c r="D5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E5" t="s">
-        <v>380</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3762,16 +3789,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
         <v>381</v>
       </c>
-      <c r="C6" t="s">
-        <v>366</v>
-      </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>369</v>
@@ -3782,16 +3809,16 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>369</v>
@@ -3802,19 +3829,19 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D8" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="J8" t="s">
         <v>370</v>
@@ -3822,21 +3849,81 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10" t="s">
         <v>372</v>
       </c>
-      <c r="E9" t="s">
-        <v>388</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="D10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J12" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3850,6 +3937,9 @@
     <hyperlink ref="F7" r:id="rId6"/>
     <hyperlink ref="F8" r:id="rId7"/>
     <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="492">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,52 +1127,46 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_160x600</t>
-  </si>
-  <si>
-    <t>160</t>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_300x250</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124241" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124241.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.fundacionvicenteferrer.org/es/</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_300x600</t>
   </si>
   <si>
     <t>600</t>
   </si>
   <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120402" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120402.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.tumundo.cl/planes-movil/portabilidad-10/</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x250</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120403" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x250.jpg" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120403.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120404" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120404.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x100</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124242" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124242.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_320x100</t>
+  </si>
+  <si>
+    <t>320</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120405" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x100.jpg" width="300" height="100"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120405.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_728x90</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124243" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124243.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_728x90</t>
   </si>
   <si>
     <t>728</t>
@@ -1181,49 +1175,337 @@
     <t>90</t>
   </si>
   <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120406" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120406.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_970x250</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124244" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124244.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_980x90</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124245" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124245.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_970x250</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120407" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120407.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120408" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120408.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.tumundo.cl/planes-movil/portabilidad-gl-200/</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120410" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120410.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_300x100</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120411" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/300x100.jpg" width="300" height="100"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120411.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120412" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120412.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_970x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120413" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120413.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124246" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124246.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124247" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124247.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124248" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124248.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124249" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124249.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124250" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124250.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_980x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124251" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124251.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124252" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124252.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x250&amp;tc_alt=124253" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124253.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x600&amp;tc_alt=124254" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124254.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka320x100&amp;tc_alt=124255" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124255.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka728x90&amp;tc_alt=124256" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124256.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_990x90</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka990x90&amp;tc_alt=124257" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124257.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka970x250&amp;tc_alt=124258" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124258.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x250&amp;tc_alt=124259" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124259.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x600&amp;tc_alt=124260" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124260.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka320x100&amp;tc_alt=124261" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124261.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka728x90&amp;tc_alt=124262" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124262.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_990x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka990x90&amp;tc_alt=124263" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124263.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka970x250&amp;tc_alt=124264" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124264.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_ADSTORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/adstory/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=adstory300x600&amp;tc_alt=124265" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124265.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_CARROUSEL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/carousel/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=carrousel300x600&amp;tc_alt=124266" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124266.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_SLIDER_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/slider/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=slider300x600&amp;tc_alt=124267" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124267.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_FICHA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/ficha/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=ficha300x600&amp;tc_alt=124268" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124268.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124269" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124269.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124270" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124270.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124271" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124271.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124272" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124272.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_980x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124273" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124273.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124274" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124274.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124275" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124275.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124276" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124276.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124277" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124277.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124278" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124278.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_980x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124279" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124279.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124280" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124280.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x250&amp;tc_alt=124281" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124281.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x600&amp;tc_alt=124282" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124282.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka320x100&amp;tc_alt=124283" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124283.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka728x90&amp;tc_alt=124284" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124284.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_990x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka990x90&amp;tc_alt=124285" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124285.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka970x250&amp;tc_alt=124286" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124286.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x250&amp;tc_alt=124287" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124287.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x600&amp;tc_alt=124288" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124288.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka320x100&amp;tc_alt=124289" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124289.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka728x90&amp;tc_alt=124290" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124290.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_990x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka990x90&amp;tc_alt=124291" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124291.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka970x250&amp;tc_alt=124292" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124292.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_ADSTORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/premium/adstory/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=adstory300x600&amp;tc_alt=124293" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124293.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_CARROUSEL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/premium/carousel/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=carrousel300x600&amp;tc_alt=124294" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124294.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_SLIDER_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/slider/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=slider300x600&amp;tc_alt=124295" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124295.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_FICHA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/ficha/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=ficha300x600&amp;tc_alt=124296" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124296.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES_dis-p20_prs-1_8M-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes&amp;utm_content=8M-24970x250&amp;tc_alt=124297" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124297.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3627,7 +3909,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3732,13 +4014,13 @@
         <v>371</v>
       </c>
       <c r="C3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
         <v>372</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>373</v>
-      </c>
-      <c r="E3" t="s">
-        <v>374</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>369</v>
@@ -3749,16 +4031,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
-        <v>372</v>
-      </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>369</v>
@@ -3769,16 +4051,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3789,16 +4071,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" t="s">
         <v>380</v>
       </c>
-      <c r="C6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" t="s">
-        <v>382</v>
-      </c>
       <c r="E6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>369</v>
@@ -3809,16 +4091,16 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>369</v>
@@ -3829,7 +4111,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C8" t="s">
         <v>366</v>
@@ -3838,10 +4120,10 @@
         <v>367</v>
       </c>
       <c r="E8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="J8" t="s">
         <v>370</v>
@@ -3852,16 +4134,16 @@
         <v>390</v>
       </c>
       <c r="C9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" t="s">
         <v>372</v>
-      </c>
-      <c r="D9" t="s">
-        <v>367</v>
       </c>
       <c r="E9" t="s">
         <v>391</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="J9" t="s">
         <v>370</v>
@@ -3872,16 +4154,16 @@
         <v>392</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E10" t="s">
         <v>393</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="J10" t="s">
         <v>370</v>
@@ -3892,16 +4174,16 @@
         <v>394</v>
       </c>
       <c r="C11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E11" t="s">
         <v>395</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="J11" t="s">
         <v>370</v>
@@ -3912,18 +4194,938 @@
         <v>396</v>
       </c>
       <c r="C12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E12" t="s">
         <v>397</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="J12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" t="s">
+        <v>376</v>
+      </c>
+      <c r="E16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" t="s">
+        <v>410</v>
+      </c>
+      <c r="D18" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E19" t="s">
+        <v>413</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" t="s">
+        <v>415</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" t="s">
+        <v>417</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" t="s">
+        <v>410</v>
+      </c>
+      <c r="D24" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" t="s">
+        <v>425</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26" t="s">
+        <v>372</v>
+      </c>
+      <c r="E26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" t="s">
+        <v>372</v>
+      </c>
+      <c r="E27" t="s">
+        <v>429</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" t="s">
+        <v>366</v>
+      </c>
+      <c r="D28" t="s">
+        <v>372</v>
+      </c>
+      <c r="E28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" t="s">
+        <v>372</v>
+      </c>
+      <c r="E29" t="s">
+        <v>433</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" t="s">
+        <v>435</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" t="s">
+        <v>372</v>
+      </c>
+      <c r="E31" t="s">
+        <v>437</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>438</v>
+      </c>
+      <c r="C32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D32" t="s">
+        <v>376</v>
+      </c>
+      <c r="E32" t="s">
+        <v>439</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" t="s">
+        <v>380</v>
+      </c>
+      <c r="E33" t="s">
+        <v>441</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D34" t="s">
+        <v>380</v>
+      </c>
+      <c r="E34" t="s">
+        <v>443</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" t="s">
+        <v>445</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" t="s">
+        <v>447</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C37" t="s">
+        <v>366</v>
+      </c>
+      <c r="D37" t="s">
+        <v>372</v>
+      </c>
+      <c r="E37" t="s">
+        <v>449</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>450</v>
+      </c>
+      <c r="C38" t="s">
+        <v>375</v>
+      </c>
+      <c r="D38" t="s">
+        <v>376</v>
+      </c>
+      <c r="E38" t="s">
+        <v>451</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39" t="s">
+        <v>379</v>
+      </c>
+      <c r="D39" t="s">
+        <v>380</v>
+      </c>
+      <c r="E39" t="s">
+        <v>453</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" t="s">
+        <v>380</v>
+      </c>
+      <c r="E40" t="s">
+        <v>455</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>456</v>
+      </c>
+      <c r="C41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" t="s">
+        <v>457</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>458</v>
+      </c>
+      <c r="C42" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" t="s">
+        <v>459</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" t="s">
+        <v>366</v>
+      </c>
+      <c r="D43" t="s">
+        <v>372</v>
+      </c>
+      <c r="E43" t="s">
+        <v>461</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44" t="s">
+        <v>375</v>
+      </c>
+      <c r="D44" t="s">
+        <v>376</v>
+      </c>
+      <c r="E44" t="s">
+        <v>463</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>464</v>
+      </c>
+      <c r="C45" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45" t="s">
+        <v>380</v>
+      </c>
+      <c r="E45" t="s">
+        <v>465</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" t="s">
+        <v>410</v>
+      </c>
+      <c r="D46" t="s">
+        <v>380</v>
+      </c>
+      <c r="E46" t="s">
+        <v>467</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>468</v>
+      </c>
+      <c r="C47" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47" t="s">
+        <v>367</v>
+      </c>
+      <c r="E47" t="s">
+        <v>469</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>470</v>
+      </c>
+      <c r="C48" t="s">
+        <v>366</v>
+      </c>
+      <c r="D48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" t="s">
+        <v>471</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>472</v>
+      </c>
+      <c r="C49" t="s">
+        <v>366</v>
+      </c>
+      <c r="D49" t="s">
+        <v>372</v>
+      </c>
+      <c r="E49" t="s">
+        <v>473</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>474</v>
+      </c>
+      <c r="C50" t="s">
+        <v>375</v>
+      </c>
+      <c r="D50" t="s">
+        <v>376</v>
+      </c>
+      <c r="E50" t="s">
+        <v>475</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>476</v>
+      </c>
+      <c r="C51" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" t="s">
+        <v>380</v>
+      </c>
+      <c r="E51" t="s">
+        <v>477</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>478</v>
+      </c>
+      <c r="C52" t="s">
+        <v>410</v>
+      </c>
+      <c r="D52" t="s">
+        <v>380</v>
+      </c>
+      <c r="E52" t="s">
+        <v>479</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>480</v>
+      </c>
+      <c r="C53" t="s">
+        <v>386</v>
+      </c>
+      <c r="D53" t="s">
+        <v>367</v>
+      </c>
+      <c r="E53" t="s">
+        <v>481</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>482</v>
+      </c>
+      <c r="C54" t="s">
+        <v>366</v>
+      </c>
+      <c r="D54" t="s">
+        <v>372</v>
+      </c>
+      <c r="E54" t="s">
+        <v>483</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>484</v>
+      </c>
+      <c r="C55" t="s">
+        <v>366</v>
+      </c>
+      <c r="D55" t="s">
+        <v>372</v>
+      </c>
+      <c r="E55" t="s">
+        <v>485</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>486</v>
+      </c>
+      <c r="C56" t="s">
+        <v>366</v>
+      </c>
+      <c r="D56" t="s">
+        <v>372</v>
+      </c>
+      <c r="E56" t="s">
+        <v>487</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>488</v>
+      </c>
+      <c r="C57" t="s">
+        <v>366</v>
+      </c>
+      <c r="D57" t="s">
+        <v>372</v>
+      </c>
+      <c r="E57" t="s">
+        <v>489</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>490</v>
+      </c>
+      <c r="C58" t="s">
+        <v>386</v>
+      </c>
+      <c r="D58" t="s">
+        <v>367</v>
+      </c>
+      <c r="E58" t="s">
+        <v>491</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J58" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3940,6 +5142,52 @@
     <hyperlink ref="F10" r:id="rId9"/>
     <hyperlink ref="F11" r:id="rId10"/>
     <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="440">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,7 +1127,34 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_300x250</t>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_120x600</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124670" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/120x600.gif" width="120" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124670.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.civitatis.com/ar/roma/</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_160x600</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124675" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124675.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_300x250</t>
   </si>
   <si>
     <t>300</t>
@@ -1136,37 +1163,28 @@
     <t>250</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124241" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124241.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.fundacionvicenteferrer.org/es/</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_300x600</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124242" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124242.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_320x100</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124243" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124243.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_728x90</t>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124680" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124680.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124685" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124685.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_468x60</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124690" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/468x60.gif" width="468" height="60"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124690.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_728x90</t>
   </si>
   <si>
     <t>728</t>
@@ -1175,337 +1193,163 @@
     <t>90</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124244" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124244.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_980x90</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124245" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124245.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_970x250</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124246" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124246.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124247" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124247.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124248" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124248.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124249" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124249.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124250" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124250.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_980x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124251" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124251.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124252" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124252.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x250&amp;tc_alt=124253" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124253.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x600&amp;tc_alt=124254" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124254.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka320x100&amp;tc_alt=124255" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124255.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka728x90&amp;tc_alt=124256" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124256.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_990x90</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka990x90&amp;tc_alt=124257" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124257.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka970x250&amp;tc_alt=124258" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124258.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x250&amp;tc_alt=124259" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124259.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x600&amp;tc_alt=124260" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124260.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka320x100&amp;tc_alt=124261" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124261.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka728x90&amp;tc_alt=124262" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124262.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_990x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka990x90&amp;tc_alt=124263" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124263.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka970x250&amp;tc_alt=124264" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124264.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_ADSTORY_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/adstory/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=adstory300x600&amp;tc_alt=124265" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124265.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_CARROUSEL_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/carousel/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=carrousel300x600&amp;tc_alt=124266" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124266.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_SLIDER_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/slider/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=slider300x600&amp;tc_alt=124267" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124267.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_FICHA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/ficha/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=ficha300x600&amp;tc_alt=124268" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124268.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124269" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124269.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124270" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124270.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124271" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124271.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124272" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124272.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_980x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124273" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124273.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124274" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124274.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124275" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124275.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124276" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124276.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124277" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124277.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124278" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124278.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_980x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124279" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124279.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124280" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124280.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x250&amp;tc_alt=124281" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124281.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x600&amp;tc_alt=124282" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124282.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka320x100&amp;tc_alt=124283" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124283.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka728x90&amp;tc_alt=124284" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124284.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_990x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka990x90&amp;tc_alt=124285" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124285.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka970x250&amp;tc_alt=124286" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124286.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x250&amp;tc_alt=124287" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124287.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x600&amp;tc_alt=124288" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124288.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka320x100&amp;tc_alt=124289" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124289.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka728x90&amp;tc_alt=124290" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124290.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_990x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka990x90&amp;tc_alt=124291" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124291.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka970x250&amp;tc_alt=124292" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124292.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_ADSTORY_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/premium/adstory/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=adstory300x600&amp;tc_alt=124293" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124293.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_CARROUSEL_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/premium/carousel/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=carrousel300x600&amp;tc_alt=124294" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124294.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_SLIDER_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/slider/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=slider300x600&amp;tc_alt=124295" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124295.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_FICHA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/ficha/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=ficha300x600&amp;tc_alt=124296" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124296.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>v-f-es_v1mp_8M-DEBERES_dis-p20_prs-1_8M-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes&amp;utm_content=8M-24970x250&amp;tc_alt=124297" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124297.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124695" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124695.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_120x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124671" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/120x600.gif" width="120" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124671.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.civitatis.com/ar/paris/</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_160x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124676" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124676.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_300x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124681" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124681.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124686" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124686.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_468x60</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124691" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/468x60.gif" width="468" height="60"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124691.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_728x90</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124696" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124696.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_120x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124672" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/120x600.gif" width="120" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124672.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.civitatis.com/ar/nueva-york/</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_160x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124677" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124677.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_300x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124682" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124682.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124687" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124687.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_468x60</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124692" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/468x60.gif" width="468" height="60"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124692.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_728x90</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124697" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124697.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_120x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124673" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/120x600.gif" width="120" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124673.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.civitatis.com/ar/madrid/</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_160x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124678" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124678.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_300x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124683" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124683.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124688" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124688.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_468x60</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124693" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/468x60.gif" width="468" height="60"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124693.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_728x90</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124698" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124698.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_120x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124674" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/120x600.gif" width="120" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124674.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.civitatis.com/ar/el-cairo/</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_160x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124679" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124679.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_300x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124684" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124684.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124689" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124689.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_468x60</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124694" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/468x60.gif" width="468" height="60"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124694.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_728x90</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124699" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124699.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3909,7 +3753,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4014,10 +3858,10 @@
         <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
         <v>373</v>
@@ -4054,13 +3898,13 @@
         <v>378</v>
       </c>
       <c r="C5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" t="s">
         <v>379</v>
-      </c>
-      <c r="D5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E5" t="s">
-        <v>381</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -4071,16 +3915,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" t="s">
         <v>382</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>383</v>
-      </c>
-      <c r="D6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E6" t="s">
-        <v>384</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>369</v>
@@ -4091,13 +3935,13 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
         <v>385</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>386</v>
-      </c>
-      <c r="D7" t="s">
-        <v>367</v>
       </c>
       <c r="E7" t="s">
         <v>387</v>
@@ -4123,7 +3967,7 @@
         <v>389</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="J8" t="s">
         <v>370</v>
@@ -4131,19 +3975,19 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="C9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" t="s">
-        <v>391</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="J9" t="s">
         <v>370</v>
@@ -4151,7 +3995,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C10" t="s">
         <v>375</v>
@@ -4160,10 +4004,10 @@
         <v>376</v>
       </c>
       <c r="E10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="J10" t="s">
         <v>370</v>
@@ -4171,19 +4015,19 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="J11" t="s">
         <v>370</v>
@@ -4191,19 +4035,19 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="J12" t="s">
         <v>370</v>
@@ -4211,19 +4055,19 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" t="s">
         <v>386</v>
       </c>
-      <c r="D13" t="s">
-        <v>367</v>
-      </c>
       <c r="E13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="J13" t="s">
         <v>370</v>
@@ -4231,7 +4075,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C14" t="s">
         <v>366</v>
@@ -4240,10 +4084,10 @@
         <v>367</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J14" t="s">
         <v>370</v>
@@ -4251,19 +4095,19 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" t="s">
+        <v>372</v>
+      </c>
+      <c r="D15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C15" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" t="s">
-        <v>372</v>
-      </c>
-      <c r="E15" t="s">
-        <v>404</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="J15" t="s">
         <v>370</v>
@@ -4271,7 +4115,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C16" t="s">
         <v>375</v>
@@ -4280,10 +4124,10 @@
         <v>376</v>
       </c>
       <c r="E16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J16" t="s">
         <v>370</v>
@@ -4291,19 +4135,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D17" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J17" t="s">
         <v>370</v>
@@ -4311,19 +4155,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="D18" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E18" t="s">
         <v>411</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J18" t="s">
         <v>370</v>
@@ -4334,16 +4178,16 @@
         <v>412</v>
       </c>
       <c r="C19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" t="s">
         <v>386</v>
-      </c>
-      <c r="D19" t="s">
-        <v>367</v>
       </c>
       <c r="E19" t="s">
         <v>413</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J19" t="s">
         <v>370</v>
@@ -4363,7 +4207,7 @@
         <v>415</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="J20" t="s">
         <v>370</v>
@@ -4371,19 +4215,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C21" t="s">
-        <v>366</v>
-      </c>
-      <c r="D21" t="s">
-        <v>372</v>
-      </c>
-      <c r="E21" t="s">
-        <v>417</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="J21" t="s">
         <v>370</v>
@@ -4391,7 +4235,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C22" t="s">
         <v>375</v>
@@ -4400,10 +4244,10 @@
         <v>376</v>
       </c>
       <c r="E22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="J22" t="s">
         <v>370</v>
@@ -4411,19 +4255,19 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C23" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="J23" t="s">
         <v>370</v>
@@ -4431,19 +4275,19 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C24" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="D24" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="J24" t="s">
         <v>370</v>
@@ -4451,19 +4295,19 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" t="s">
         <v>386</v>
       </c>
-      <c r="D25" t="s">
-        <v>367</v>
-      </c>
       <c r="E25" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="J25" t="s">
         <v>370</v>
@@ -4471,19 +4315,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C26" t="s">
         <v>366</v>
       </c>
       <c r="D26" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="J26" t="s">
         <v>370</v>
@@ -4491,19 +4335,19 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C27" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D27" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E27" t="s">
+        <v>431</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="J27" t="s">
         <v>370</v>
@@ -4511,19 +4355,19 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C28" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D28" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E28" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="J28" t="s">
         <v>370</v>
@@ -4531,19 +4375,19 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C29" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D29" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E29" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="J29" t="s">
         <v>370</v>
@@ -4551,19 +4395,19 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C30" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="E30" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="J30" t="s">
         <v>370</v>
@@ -4571,561 +4415,21 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C31" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="D31" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E31" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="J31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>438</v>
-      </c>
-      <c r="C32" t="s">
-        <v>375</v>
-      </c>
-      <c r="D32" t="s">
-        <v>376</v>
-      </c>
-      <c r="E32" t="s">
-        <v>439</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J32" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>440</v>
-      </c>
-      <c r="C33" t="s">
-        <v>379</v>
-      </c>
-      <c r="D33" t="s">
-        <v>380</v>
-      </c>
-      <c r="E33" t="s">
-        <v>441</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J33" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>442</v>
-      </c>
-      <c r="C34" t="s">
-        <v>383</v>
-      </c>
-      <c r="D34" t="s">
-        <v>380</v>
-      </c>
-      <c r="E34" t="s">
-        <v>443</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J34" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>444</v>
-      </c>
-      <c r="C35" t="s">
-        <v>386</v>
-      </c>
-      <c r="D35" t="s">
-        <v>367</v>
-      </c>
-      <c r="E35" t="s">
-        <v>445</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J35" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>446</v>
-      </c>
-      <c r="C36" t="s">
-        <v>366</v>
-      </c>
-      <c r="D36" t="s">
-        <v>367</v>
-      </c>
-      <c r="E36" t="s">
-        <v>447</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J36" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>448</v>
-      </c>
-      <c r="C37" t="s">
-        <v>366</v>
-      </c>
-      <c r="D37" t="s">
-        <v>372</v>
-      </c>
-      <c r="E37" t="s">
-        <v>449</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J37" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>450</v>
-      </c>
-      <c r="C38" t="s">
-        <v>375</v>
-      </c>
-      <c r="D38" t="s">
-        <v>376</v>
-      </c>
-      <c r="E38" t="s">
-        <v>451</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J38" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>452</v>
-      </c>
-      <c r="C39" t="s">
-        <v>379</v>
-      </c>
-      <c r="D39" t="s">
-        <v>380</v>
-      </c>
-      <c r="E39" t="s">
-        <v>453</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>454</v>
-      </c>
-      <c r="C40" t="s">
-        <v>383</v>
-      </c>
-      <c r="D40" t="s">
-        <v>380</v>
-      </c>
-      <c r="E40" t="s">
-        <v>455</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J40" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>456</v>
-      </c>
-      <c r="C41" t="s">
-        <v>386</v>
-      </c>
-      <c r="D41" t="s">
-        <v>367</v>
-      </c>
-      <c r="E41" t="s">
-        <v>457</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J41" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>458</v>
-      </c>
-      <c r="C42" t="s">
-        <v>366</v>
-      </c>
-      <c r="D42" t="s">
-        <v>367</v>
-      </c>
-      <c r="E42" t="s">
-        <v>459</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J42" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>460</v>
-      </c>
-      <c r="C43" t="s">
-        <v>366</v>
-      </c>
-      <c r="D43" t="s">
-        <v>372</v>
-      </c>
-      <c r="E43" t="s">
-        <v>461</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J43" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>462</v>
-      </c>
-      <c r="C44" t="s">
-        <v>375</v>
-      </c>
-      <c r="D44" t="s">
-        <v>376</v>
-      </c>
-      <c r="E44" t="s">
-        <v>463</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J44" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>464</v>
-      </c>
-      <c r="C45" t="s">
-        <v>379</v>
-      </c>
-      <c r="D45" t="s">
-        <v>380</v>
-      </c>
-      <c r="E45" t="s">
-        <v>465</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J45" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>466</v>
-      </c>
-      <c r="C46" t="s">
-        <v>410</v>
-      </c>
-      <c r="D46" t="s">
-        <v>380</v>
-      </c>
-      <c r="E46" t="s">
-        <v>467</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J46" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>468</v>
-      </c>
-      <c r="C47" t="s">
-        <v>386</v>
-      </c>
-      <c r="D47" t="s">
-        <v>367</v>
-      </c>
-      <c r="E47" t="s">
-        <v>469</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J47" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>470</v>
-      </c>
-      <c r="C48" t="s">
-        <v>366</v>
-      </c>
-      <c r="D48" t="s">
-        <v>367</v>
-      </c>
-      <c r="E48" t="s">
-        <v>471</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>472</v>
-      </c>
-      <c r="C49" t="s">
-        <v>366</v>
-      </c>
-      <c r="D49" t="s">
-        <v>372</v>
-      </c>
-      <c r="E49" t="s">
-        <v>473</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>474</v>
-      </c>
-      <c r="C50" t="s">
-        <v>375</v>
-      </c>
-      <c r="D50" t="s">
-        <v>376</v>
-      </c>
-      <c r="E50" t="s">
-        <v>475</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J50" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>476</v>
-      </c>
-      <c r="C51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D51" t="s">
-        <v>380</v>
-      </c>
-      <c r="E51" t="s">
-        <v>477</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J51" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>478</v>
-      </c>
-      <c r="C52" t="s">
-        <v>410</v>
-      </c>
-      <c r="D52" t="s">
-        <v>380</v>
-      </c>
-      <c r="E52" t="s">
-        <v>479</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J52" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>480</v>
-      </c>
-      <c r="C53" t="s">
-        <v>386</v>
-      </c>
-      <c r="D53" t="s">
-        <v>367</v>
-      </c>
-      <c r="E53" t="s">
-        <v>481</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J53" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>482</v>
-      </c>
-      <c r="C54" t="s">
-        <v>366</v>
-      </c>
-      <c r="D54" t="s">
-        <v>372</v>
-      </c>
-      <c r="E54" t="s">
-        <v>483</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J54" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="s">
-        <v>484</v>
-      </c>
-      <c r="C55" t="s">
-        <v>366</v>
-      </c>
-      <c r="D55" t="s">
-        <v>372</v>
-      </c>
-      <c r="E55" t="s">
-        <v>485</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J55" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>486</v>
-      </c>
-      <c r="C56" t="s">
-        <v>366</v>
-      </c>
-      <c r="D56" t="s">
-        <v>372</v>
-      </c>
-      <c r="E56" t="s">
-        <v>487</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J56" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>488</v>
-      </c>
-      <c r="C57" t="s">
-        <v>366</v>
-      </c>
-      <c r="D57" t="s">
-        <v>372</v>
-      </c>
-      <c r="E57" t="s">
-        <v>489</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J57" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>490</v>
-      </c>
-      <c r="C58" t="s">
-        <v>386</v>
-      </c>
-      <c r="D58" t="s">
-        <v>367</v>
-      </c>
-      <c r="E58" t="s">
-        <v>491</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J58" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5161,33 +4465,6 @@
     <hyperlink ref="F29" r:id="rId28"/>
     <hyperlink ref="F30" r:id="rId29"/>
     <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="401">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,229 +1127,112 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_120x600</t>
-  </si>
-  <si>
-    <t>120</t>
+    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_970x250</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/970x250.gif" width="970" height="250"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_728x90</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_320x50</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/320x50.gif" width="320" height="50"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_300x600</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
   <si>
     <t>600</t>
   </si>
   <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124670" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/120x600.gif" width="120" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124670.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.civitatis.com/ar/roma/</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_160x600</t>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_300x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_160x600</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124675" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124675.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_300x250</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124680" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124680.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124685" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124685.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_468x60</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124690" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/468x60.gif" width="468" height="60"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124690.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-ROMA_728x90</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/roma/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_ROMA_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=ROMA&amp;tc_alt=124695" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/roma/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124695.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_120x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124671" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/120x600.gif" width="120" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124671.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.civitatis.com/ar/paris/</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124676" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124676.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124681" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124681.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124686" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124686.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_468x60</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124691" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/468x60.gif" width="468" height="60"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124691.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-PARIS_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/paris/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_PARIS_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=PARIS&amp;tc_alt=124696" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/paris/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124696.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_120x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124672" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/120x600.gif" width="120" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124672.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.civitatis.com/ar/nueva-york/</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124677" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124677.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124682" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124682.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124687" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124687.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_468x60</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124692" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/468x60.gif" width="468" height="60"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124692.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-NYC_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/nueva-york/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_NYC_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=NYC&amp;tc_alt=124697" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/nyc/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124697.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_120x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124673" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/120x600.gif" width="120" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124673.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.civitatis.com/ar/madrid/</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124678" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124678.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124683" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124683.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124688" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124688.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_468x60</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124693" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/468x60.gif" width="468" height="60"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124693.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-MADRID_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/madrid/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_MADRID_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=MADRID&amp;tc_alt=124698" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/madrid/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124698.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_120x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124674" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/120x600.gif" width="120" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124674.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.civitatis.com/ar/el-cairo/</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124679" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124679.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124684" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124684.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124689" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124689.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_468x60</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124694" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/468x60.gif" width="468" height="60"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124694.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>civitatis-ar_adg_AO_dis_rtg-1_CONVERSION-TOPACTIVIDADES-CAIRO_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.civitatis.com/ar/el-cairo/?aid=108&amp;cmp=es_AR&amp;cmpint=adg_ar_CAIRO_120x600&amp;utm_source=adg&amp;utm_medium=dis-rtg-1&amp;utm_campaign=conversion&amp;utm_term=TopActividades&amp;utm_content=CAIRO&amp;tc_alt=124699" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/CIVITATIS/2024/03/top_actividades/ar/el_cairo/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_civitatis-es_np_124699.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_970x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/970x250.gif" width="970" height="250"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_728x90</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_320x50</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/320x50.gif" width="320" height="50"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_300x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_160x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -3753,7 +3636,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3861,10 +3744,10 @@
         <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>369</v>
@@ -3875,16 +3758,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>369</v>
@@ -3895,16 +3778,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3915,16 +3798,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" t="s">
         <v>380</v>
       </c>
-      <c r="C6" t="s">
-        <v>381</v>
-      </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>369</v>
@@ -3935,13 +3818,13 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E7" t="s">
         <v>387</v>
@@ -3981,7 +3864,7 @@
         <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
         <v>392</v>
@@ -3998,10 +3881,10 @@
         <v>393</v>
       </c>
       <c r="C10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E10" t="s">
         <v>394</v>
@@ -4018,10 +3901,10 @@
         <v>395</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D11" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="E11" t="s">
         <v>396</v>
@@ -4038,10 +3921,10 @@
         <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E12" t="s">
         <v>398</v>
@@ -4058,10 +3941,10 @@
         <v>399</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D13" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E13" t="s">
         <v>400</v>
@@ -4070,366 +3953,6 @@
         <v>390</v>
       </c>
       <c r="J13" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" t="s">
-        <v>367</v>
-      </c>
-      <c r="E14" t="s">
-        <v>402</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C15" t="s">
-        <v>372</v>
-      </c>
-      <c r="D15" t="s">
-        <v>367</v>
-      </c>
-      <c r="E15" t="s">
-        <v>405</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D16" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" t="s">
-        <v>407</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>408</v>
-      </c>
-      <c r="C17" t="s">
-        <v>375</v>
-      </c>
-      <c r="D17" t="s">
-        <v>367</v>
-      </c>
-      <c r="E17" t="s">
-        <v>409</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>410</v>
-      </c>
-      <c r="C18" t="s">
-        <v>381</v>
-      </c>
-      <c r="D18" t="s">
-        <v>382</v>
-      </c>
-      <c r="E18" t="s">
-        <v>411</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J18" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>412</v>
-      </c>
-      <c r="C19" t="s">
-        <v>385</v>
-      </c>
-      <c r="D19" t="s">
-        <v>386</v>
-      </c>
-      <c r="E19" t="s">
-        <v>413</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>414</v>
-      </c>
-      <c r="C20" t="s">
-        <v>366</v>
-      </c>
-      <c r="D20" t="s">
-        <v>367</v>
-      </c>
-      <c r="E20" t="s">
-        <v>415</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J20" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>417</v>
-      </c>
-      <c r="C21" t="s">
-        <v>372</v>
-      </c>
-      <c r="D21" t="s">
-        <v>367</v>
-      </c>
-      <c r="E21" t="s">
-        <v>418</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J21" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>419</v>
-      </c>
-      <c r="C22" t="s">
-        <v>375</v>
-      </c>
-      <c r="D22" t="s">
-        <v>376</v>
-      </c>
-      <c r="E22" t="s">
-        <v>420</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>421</v>
-      </c>
-      <c r="C23" t="s">
-        <v>375</v>
-      </c>
-      <c r="D23" t="s">
-        <v>367</v>
-      </c>
-      <c r="E23" t="s">
-        <v>422</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>423</v>
-      </c>
-      <c r="C24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D24" t="s">
-        <v>382</v>
-      </c>
-      <c r="E24" t="s">
-        <v>424</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>425</v>
-      </c>
-      <c r="C25" t="s">
-        <v>385</v>
-      </c>
-      <c r="D25" t="s">
-        <v>386</v>
-      </c>
-      <c r="E25" t="s">
-        <v>426</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>427</v>
-      </c>
-      <c r="C26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D26" t="s">
-        <v>367</v>
-      </c>
-      <c r="E26" t="s">
-        <v>428</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>430</v>
-      </c>
-      <c r="C27" t="s">
-        <v>372</v>
-      </c>
-      <c r="D27" t="s">
-        <v>367</v>
-      </c>
-      <c r="E27" t="s">
-        <v>431</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>432</v>
-      </c>
-      <c r="C28" t="s">
-        <v>375</v>
-      </c>
-      <c r="D28" t="s">
-        <v>376</v>
-      </c>
-      <c r="E28" t="s">
-        <v>433</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J28" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>434</v>
-      </c>
-      <c r="C29" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" t="s">
-        <v>367</v>
-      </c>
-      <c r="E29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J29" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>436</v>
-      </c>
-      <c r="C30" t="s">
-        <v>381</v>
-      </c>
-      <c r="D30" t="s">
-        <v>382</v>
-      </c>
-      <c r="E30" t="s">
-        <v>437</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>438</v>
-      </c>
-      <c r="C31" t="s">
-        <v>385</v>
-      </c>
-      <c r="D31" t="s">
-        <v>386</v>
-      </c>
-      <c r="E31" t="s">
-        <v>439</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J31" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4447,24 +3970,6 @@
     <hyperlink ref="F11" r:id="rId10"/>
     <hyperlink ref="F12" r:id="rId11"/>
     <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="388">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,7 +1127,7 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_970x250</t>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_970x250</t>
   </si>
   <si>
     <t>970</t>
@@ -1136,16 +1136,55 @@
     <t>250</t>
   </si>
   <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/970x250.gif" width="970" height="250"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect</t>
+    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=970x250&amp;tc_alt=129340" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129340.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.petitceller.com/es/vino/oriol-rossell</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_728x90</t>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_300x600</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=300x600&amp;tc_alt=129341" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129341.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=300x250&amp;tc_alt=129342" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/300x250.jpg" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129342.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_160x600</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=160x600&amp;tc_alt=129343" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129343.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_320x50</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=320x50&amp;tc_alt=129344" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/320x50.jpg" width="320" height="50"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129344.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_728x90</t>
   </si>
   <si>
     <t>728</t>
@@ -1154,85 +1193,7 @@
     <t>90</t>
   </si>
   <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_320x50</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/320x50.gif" width="320" height="50"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_300x600</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_160x600</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_970x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/970x250.gif" width="970" height="250"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_320x50</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/320x50.gif" width="320" height="50"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;</t>
+    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=728x90&amp;tc_alt=129345" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129345.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3636,7 +3597,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3761,13 +3722,13 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
         <v>376</v>
-      </c>
-      <c r="D4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" t="s">
-        <v>378</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>369</v>
@@ -3778,16 +3739,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" t="s">
         <v>379</v>
-      </c>
-      <c r="C5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D5" t="s">
-        <v>381</v>
-      </c>
-      <c r="E5" t="s">
-        <v>382</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3798,16 +3759,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" t="s">
         <v>383</v>
-      </c>
-      <c r="C6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D6" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" t="s">
-        <v>384</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>369</v>
@@ -3818,13 +3779,13 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
         <v>385</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>386</v>
-      </c>
-      <c r="D7" t="s">
-        <v>381</v>
       </c>
       <c r="E7" t="s">
         <v>387</v>
@@ -3833,126 +3794,6 @@
         <v>369</v>
       </c>
       <c r="J7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>397</v>
-      </c>
-      <c r="C12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" t="s">
-        <v>398</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D13" t="s">
-        <v>381</v>
-      </c>
-      <c r="E13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J13" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3964,12 +3805,6 @@
     <hyperlink ref="F5" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="395">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,7 +1127,25 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_970x250</t>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V1_300x600</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/1/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129474" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129474.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.educo.org/landing/becascomedor</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V1_970x250</t>
   </si>
   <si>
     <t>970</t>
@@ -1136,64 +1154,67 @@
     <t>250</t>
   </si>
   <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=970x250&amp;tc_alt=129340" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129340.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.petitceller.com/es/vino/oriol-rossell</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_300x600</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=300x600&amp;tc_alt=129341" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129341.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=300x250&amp;tc_alt=129342" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/300x250.jpg" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129342.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_160x600</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=160x600&amp;tc_alt=129343" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129343.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_320x50</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=320x50&amp;tc_alt=129344" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/320x50.jpg" width="320" height="50"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129344.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_728x90</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>&lt;a href="%%TTD_CLK%%https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=728x90&amp;tc_alt=129345" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129345.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/1/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129484" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129484.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V1_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/1/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129479" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129479.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V1_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/1/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129489" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129489.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V2_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/2/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129494" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129494.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V2_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/2/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129504" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129504.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V2_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/2/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129499" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129499.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V2_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/2/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129509" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129509.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V3_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/3/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129514" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129514.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V3_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/3/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129524" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129524.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V3_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/3/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129519" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129519.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V3_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/3/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129529" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129529.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3597,7 +3618,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3722,7 +3743,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D4" t="s">
         <v>367</v>
@@ -3742,13 +3763,13 @@
         <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
         <v>373</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3759,16 +3780,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" t="s">
         <v>380</v>
-      </c>
-      <c r="C6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E6" t="s">
-        <v>383</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>369</v>
@@ -3779,21 +3800,141 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>369</v>
       </c>
       <c r="J7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3805,6 +3946,12 @@
     <hyperlink ref="F5" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="375">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,7 +1127,25 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V1_300x600</t>
+    <t>srgorsky-es_adg_MARIA-MONTESORI_dis-p20_prs-1_GEN_970x250</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/sr_gorsky/2024/04/maria_montessori/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://karmafilms.es/maria-montessori/?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=maria-montesori&amp;tc_alt=129919" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_adg-sr-gorsky_np_129919.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://karmafilms.es/maria-montessori/</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>srgorsky-es_adg_MARIA-MONTESORI_dis-p20_prs-1_GEN_300x600</t>
   </si>
   <si>
     <t>300</t>
@@ -1136,85 +1154,7 @@
     <t>600</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/1/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129474" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129474.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.educo.org/landing/becascomedor</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V1_970x250</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/1/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129484" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129484.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V1_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/1/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129479" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129479.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V1_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/1/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129489" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129489.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V2_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/2/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129494" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129494.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V2_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/2/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129504" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129504.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V2_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/2/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129499" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129499.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V2_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/2/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129509" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129509.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V3_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/3/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129514" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129514.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V3_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/3/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129524" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129524.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V3_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/3/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129519" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129519.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V3_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/3/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129529" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129529.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/sr_gorsky/2024/04/maria_montessori/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://karmafilms.es/maria-montessori/?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=maria-montesori&amp;tc_alt=129924" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_adg-sr-gorsky_np_129924.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3618,7 +3558,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3738,220 +3678,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D6" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" t="s">
-        <v>386</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D10" t="s">
-        <v>367</v>
-      </c>
-      <c r="E10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>389</v>
-      </c>
-      <c r="C11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" t="s">
-        <v>390</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>391</v>
-      </c>
-      <c r="C12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" t="s">
-        <v>392</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C13" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J13" t="s">
-        <v>370</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="377">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,34 +1127,40 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>srgorsky-es_adg_MARIA-MONTESORI_dis-p20_prs-1_GEN_970x250</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/sr_gorsky/2024/04/maria_montessori/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://karmafilms.es/maria-montessori/?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=maria-montesori&amp;tc_alt=129919" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_adg-sr-gorsky_np_129919.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://karmafilms.es/maria-montessori/</t>
+    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-PUEBLO_300x600</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/indalo/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.besthotels.es/en/destinations-and-hotels/tourist-apartments-best-pueblo-indalo.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130186" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130186.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.besthotels.es/en/destinations-and-hotels/tourist-apartments-best-pueblo-indalo.html</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>srgorsky-es_adg_MARIA-MONTESORI_dis-p20_prs-1_GEN_300x600</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/sr_gorsky/2024/04/maria_montessori/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://karmafilms.es/maria-montessori/?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=maria-montesori&amp;tc_alt=129924" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_adg-sr-gorsky_np_129924.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-BALLENA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/costaballena/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.besthotels.es/en/destinations-and-hotels/best-costa-ballena.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130191" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130191.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.besthotels.es/en/destinations-and-hotels/best-costa-ballena.html</t>
+  </si>
+  <si>
+    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-SABINAL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/sabinal/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.besthotels.es/en/destinations-and-hotels/best-sabinal.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130196" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130196.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.besthotels.es/en/destinations-and-hotels/best-sabinal.html</t>
   </si>
 </sst>
 </file>
@@ -3558,7 +3564,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3663,18 +3669,38 @@
         <v>371</v>
       </c>
       <c r="C3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" t="s">
         <v>372</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
         <v>374</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J4" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3682,6 +3708,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="721">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,7 +1127,7 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-PUEBLO_300x600</t>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
   </si>
   <si>
     <t>300</t>
@@ -1136,31 +1136,1063 @@
     <t>600</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/indalo/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.besthotels.es/en/destinations-and-hotels/tourist-apartments-best-pueblo-indalo.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130186" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130186.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.besthotels.es/en/destinations-and-hotels/tourist-apartments-best-pueblo-indalo.html</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/zoetry/adstory/eu/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130203" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130203.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-BALLENA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/costaballena/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.besthotels.es/en/destinations-and-hotels/best-costa-ballena.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130191" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130191.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.besthotels.es/en/destinations-and-hotels/best-costa-ballena.html</t>
-  </si>
-  <si>
-    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-SABINAL_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/sabinal/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.besthotels.es/en/destinations-and-hotels/best-sabinal.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130196" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130196.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.besthotels.es/en/destinations-and-hotels/best-sabinal.html</t>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/alua/adstory/eu/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130205" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130205.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/dreams/adstory/eu/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130207" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130207.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/secrets/adstory/eu/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130209" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130209.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/zoetry/adstory/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130211" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130211.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/alua/adstory/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130213" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130213.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/dreams/adstory/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130215" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130215.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/secrets/adstory/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130217" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130217.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/zoetry/adstory/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130219" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130219.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/alua/adstory/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130221" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130221.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/dreams/adstory/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130223" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130223.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/secrets/adstory/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130225" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130225.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/zoetry/adstory/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130227" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130227.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/alua/adstory/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130229" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130229.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/dreams/adstory/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130231" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130231.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/secrets/adstory/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130233" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130233.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/alua/adstory/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130235" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130235.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/dreams/adstory/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130237" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130237.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/secrets/adstory/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130239" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130239.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/en/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130240" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130240.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/en/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130241" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130241.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/en/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130242" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130242.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/en/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130243" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130243.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/en/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130244" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130244.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/en/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130245" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130245.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/en/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130246" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130246.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/en/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130247" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130247.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/es/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130248" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130248.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/es/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130249" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130249.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/es/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130250" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130250.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/es/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130251" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130251.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/es/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130252" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130252.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/es/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130253" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130253.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/es/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130254" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130254.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/es/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130255" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130255.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/en/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130256" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130256.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/en/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130257" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130257.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/en/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130258" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130258.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/en/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130259" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130259.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/en/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130260" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130260.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/en/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130261" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130261.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/en/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130262" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130262.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/en/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130263" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130263.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/de/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130264" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130264.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/de/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130265" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130265.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/de/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130266" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130266.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/de/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130267" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130267.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/de/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130268" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130268.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/de/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130269" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130269.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/de/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130270" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130270.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/de/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130271" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130271.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/fr/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130272" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130272.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/fr/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130273" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130273.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/fr/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130274" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130274.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/fr/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130275" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130275.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/fr/970x250.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130276" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130276.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/fr/300x600.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130277" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130277.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130278" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130278.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130279" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130279.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130280" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130280.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130281" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130281.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130282" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130282.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130283" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130283.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130284" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130284.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130285" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130285.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130286" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130286.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130287" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130287.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130288" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130288.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130289" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130289.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130290" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130290.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130291" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130291.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130292" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130292.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130293" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130293.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130294" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130294.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130295" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130295.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130296" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130296.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130297" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130297.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130298" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130298.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130299" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130299.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130300" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130300.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130301" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130301.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130302" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130302.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130303" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130303.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130304" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130304.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130305" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130305.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130306" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130306.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130307" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130307.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130308" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130308.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130309" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130309.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130310" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130310.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130311" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130311.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130312" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130312.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130313" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130313.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130314" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130314.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130315" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130315.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130316" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130316.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130317" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130317.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130318" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130318.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130319" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130319.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130320" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130320.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130321" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130321.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130322" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130322.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130323" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130323.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130324" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130324.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130325" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130325.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130326" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130326.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130327" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130327.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130328" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130328.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130329" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130329.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130330" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130330.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130331" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130331.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130332" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130332.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130333" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130333.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130334" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130334.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130335" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130335.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130336" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130336.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130337" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130337.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130338" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130338.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130339" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130339.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130340" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130340.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130341" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130341.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130342" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130342.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130343" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130343.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130344" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130344.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130345" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130345.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130346" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130346.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130347" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130347.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130348" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130348.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130349" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130349.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130350" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130350.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130351" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130351.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130352" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130352.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130353" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130353.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130354" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130354.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130355" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130355.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130356" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130356.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130357" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130357.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130358" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130358.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130359" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130359.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130360" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130360.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130361" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130361.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130362" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130362.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130363" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130363.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130364" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130364.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130365" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130365.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130366" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130366.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130367" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130367.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130368" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130368.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130369" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130369.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130370" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130370.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130371" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130371.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130372" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130372.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130373" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130373.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130374" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130374.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130375" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130375.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130376" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130376.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130377" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130377.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130378" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130378.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130379" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130379.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130380" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130380.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130381" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130381.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130382" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130382.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130383" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130383.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130384" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130384.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130385" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130385.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130386" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130386.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130387" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130387.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130388" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130388.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130389" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130389.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130390" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130390.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130391" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130391.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3564,7 +4596,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3678,7 +4710,7 @@
         <v>372</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J3" t="s">
         <v>370</v>
@@ -3686,7 +4718,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
         <v>366</v>
@@ -3695,12 +4727,3372 @@
         <v>367</v>
       </c>
       <c r="E4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
         <v>375</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" t="s">
         <v>376</v>
       </c>
-      <c r="J4" t="s">
+      <c r="F5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" t="s">
+        <v>398</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" t="s">
+        <v>400</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" t="s">
+        <v>402</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C21" t="s">
+        <v>411</v>
+      </c>
+      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="s">
+        <v>413</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E23" t="s">
+        <v>417</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" t="s">
+        <v>423</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" t="s">
+        <v>411</v>
+      </c>
+      <c r="D27" t="s">
+        <v>412</v>
+      </c>
+      <c r="E27" t="s">
+        <v>425</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" t="s">
+        <v>366</v>
+      </c>
+      <c r="D28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" t="s">
+        <v>427</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" t="s">
+        <v>411</v>
+      </c>
+      <c r="D29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" t="s">
+        <v>429</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>430</v>
+      </c>
+      <c r="C30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" t="s">
+        <v>431</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>432</v>
+      </c>
+      <c r="C31" t="s">
+        <v>411</v>
+      </c>
+      <c r="D31" t="s">
+        <v>412</v>
+      </c>
+      <c r="E31" t="s">
+        <v>433</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>434</v>
+      </c>
+      <c r="C32" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32" t="s">
+        <v>435</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C33" t="s">
+        <v>411</v>
+      </c>
+      <c r="D33" t="s">
+        <v>412</v>
+      </c>
+      <c r="E33" t="s">
+        <v>437</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>438</v>
+      </c>
+      <c r="C34" t="s">
+        <v>366</v>
+      </c>
+      <c r="D34" t="s">
+        <v>367</v>
+      </c>
+      <c r="E34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>440</v>
+      </c>
+      <c r="C35" t="s">
+        <v>411</v>
+      </c>
+      <c r="D35" t="s">
+        <v>412</v>
+      </c>
+      <c r="E35" t="s">
+        <v>441</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C36" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" t="s">
+        <v>443</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" t="s">
+        <v>412</v>
+      </c>
+      <c r="E37" t="s">
+        <v>445</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>446</v>
+      </c>
+      <c r="C38" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" t="s">
+        <v>447</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" t="s">
+        <v>411</v>
+      </c>
+      <c r="D39" t="s">
+        <v>412</v>
+      </c>
+      <c r="E39" t="s">
+        <v>449</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>450</v>
+      </c>
+      <c r="C40" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" t="s">
+        <v>451</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>452</v>
+      </c>
+      <c r="C41" t="s">
+        <v>411</v>
+      </c>
+      <c r="D41" t="s">
+        <v>412</v>
+      </c>
+      <c r="E41" t="s">
+        <v>453</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>454</v>
+      </c>
+      <c r="C42" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" t="s">
+        <v>455</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>456</v>
+      </c>
+      <c r="C43" t="s">
+        <v>411</v>
+      </c>
+      <c r="D43" t="s">
+        <v>412</v>
+      </c>
+      <c r="E43" t="s">
+        <v>457</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>458</v>
+      </c>
+      <c r="C44" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" t="s">
+        <v>459</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>460</v>
+      </c>
+      <c r="C45" t="s">
+        <v>411</v>
+      </c>
+      <c r="D45" t="s">
+        <v>412</v>
+      </c>
+      <c r="E45" t="s">
+        <v>461</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>462</v>
+      </c>
+      <c r="C46" t="s">
+        <v>366</v>
+      </c>
+      <c r="D46" t="s">
+        <v>367</v>
+      </c>
+      <c r="E46" t="s">
+        <v>463</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>464</v>
+      </c>
+      <c r="C47" t="s">
+        <v>411</v>
+      </c>
+      <c r="D47" t="s">
+        <v>412</v>
+      </c>
+      <c r="E47" t="s">
+        <v>465</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>466</v>
+      </c>
+      <c r="C48" t="s">
+        <v>366</v>
+      </c>
+      <c r="D48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" t="s">
+        <v>467</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>468</v>
+      </c>
+      <c r="C49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D49" t="s">
+        <v>412</v>
+      </c>
+      <c r="E49" t="s">
+        <v>469</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>470</v>
+      </c>
+      <c r="C50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" t="s">
+        <v>471</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>472</v>
+      </c>
+      <c r="C51" t="s">
+        <v>411</v>
+      </c>
+      <c r="D51" t="s">
+        <v>412</v>
+      </c>
+      <c r="E51" t="s">
+        <v>473</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>474</v>
+      </c>
+      <c r="C52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" t="s">
+        <v>475</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>476</v>
+      </c>
+      <c r="C53" t="s">
+        <v>411</v>
+      </c>
+      <c r="D53" t="s">
+        <v>412</v>
+      </c>
+      <c r="E53" t="s">
+        <v>477</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>478</v>
+      </c>
+      <c r="C54" t="s">
+        <v>366</v>
+      </c>
+      <c r="D54" t="s">
+        <v>367</v>
+      </c>
+      <c r="E54" t="s">
+        <v>479</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>480</v>
+      </c>
+      <c r="C55" t="s">
+        <v>411</v>
+      </c>
+      <c r="D55" t="s">
+        <v>412</v>
+      </c>
+      <c r="E55" t="s">
+        <v>481</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>482</v>
+      </c>
+      <c r="C56" t="s">
+        <v>366</v>
+      </c>
+      <c r="D56" t="s">
+        <v>367</v>
+      </c>
+      <c r="E56" t="s">
+        <v>483</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>484</v>
+      </c>
+      <c r="C57" t="s">
+        <v>411</v>
+      </c>
+      <c r="D57" t="s">
+        <v>412</v>
+      </c>
+      <c r="E57" t="s">
+        <v>485</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>486</v>
+      </c>
+      <c r="C58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D58" t="s">
+        <v>367</v>
+      </c>
+      <c r="E58" t="s">
+        <v>487</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J58" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>488</v>
+      </c>
+      <c r="C59" t="s">
+        <v>411</v>
+      </c>
+      <c r="D59" t="s">
+        <v>412</v>
+      </c>
+      <c r="E59" t="s">
+        <v>489</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J59" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>490</v>
+      </c>
+      <c r="C60" t="s">
+        <v>366</v>
+      </c>
+      <c r="D60" t="s">
+        <v>367</v>
+      </c>
+      <c r="E60" t="s">
+        <v>491</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>492</v>
+      </c>
+      <c r="C61" t="s">
+        <v>493</v>
+      </c>
+      <c r="D61" t="s">
+        <v>367</v>
+      </c>
+      <c r="E61" t="s">
+        <v>494</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J61" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>495</v>
+      </c>
+      <c r="C62" t="s">
+        <v>366</v>
+      </c>
+      <c r="D62" t="s">
+        <v>412</v>
+      </c>
+      <c r="E62" t="s">
+        <v>496</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J62" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>497</v>
+      </c>
+      <c r="C63" t="s">
+        <v>498</v>
+      </c>
+      <c r="D63" t="s">
+        <v>499</v>
+      </c>
+      <c r="E63" t="s">
+        <v>500</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>501</v>
+      </c>
+      <c r="C64" t="s">
+        <v>502</v>
+      </c>
+      <c r="D64" t="s">
+        <v>503</v>
+      </c>
+      <c r="E64" t="s">
+        <v>504</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J64" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>505</v>
+      </c>
+      <c r="C65" t="s">
+        <v>411</v>
+      </c>
+      <c r="D65" t="s">
+        <v>412</v>
+      </c>
+      <c r="E65" t="s">
+        <v>506</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>507</v>
+      </c>
+      <c r="C66" t="s">
+        <v>366</v>
+      </c>
+      <c r="D66" t="s">
+        <v>367</v>
+      </c>
+      <c r="E66" t="s">
+        <v>508</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J66" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>509</v>
+      </c>
+      <c r="C67" t="s">
+        <v>493</v>
+      </c>
+      <c r="D67" t="s">
+        <v>367</v>
+      </c>
+      <c r="E67" t="s">
+        <v>510</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>511</v>
+      </c>
+      <c r="C68" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" t="s">
+        <v>412</v>
+      </c>
+      <c r="E68" t="s">
+        <v>512</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J68" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>513</v>
+      </c>
+      <c r="C69" t="s">
+        <v>498</v>
+      </c>
+      <c r="D69" t="s">
+        <v>499</v>
+      </c>
+      <c r="E69" t="s">
+        <v>514</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J69" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>515</v>
+      </c>
+      <c r="C70" t="s">
+        <v>502</v>
+      </c>
+      <c r="D70" t="s">
+        <v>503</v>
+      </c>
+      <c r="E70" t="s">
+        <v>516</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J70" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>517</v>
+      </c>
+      <c r="C71" t="s">
+        <v>411</v>
+      </c>
+      <c r="D71" t="s">
+        <v>412</v>
+      </c>
+      <c r="E71" t="s">
+        <v>518</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>519</v>
+      </c>
+      <c r="C72" t="s">
+        <v>366</v>
+      </c>
+      <c r="D72" t="s">
+        <v>367</v>
+      </c>
+      <c r="E72" t="s">
+        <v>520</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J72" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>521</v>
+      </c>
+      <c r="C73" t="s">
+        <v>493</v>
+      </c>
+      <c r="D73" t="s">
+        <v>367</v>
+      </c>
+      <c r="E73" t="s">
+        <v>522</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J73" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>523</v>
+      </c>
+      <c r="C74" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" t="s">
+        <v>412</v>
+      </c>
+      <c r="E74" t="s">
+        <v>524</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J74" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>525</v>
+      </c>
+      <c r="C75" t="s">
+        <v>498</v>
+      </c>
+      <c r="D75" t="s">
+        <v>499</v>
+      </c>
+      <c r="E75" t="s">
+        <v>526</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J75" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>527</v>
+      </c>
+      <c r="C76" t="s">
+        <v>502</v>
+      </c>
+      <c r="D76" t="s">
+        <v>503</v>
+      </c>
+      <c r="E76" t="s">
+        <v>528</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>529</v>
+      </c>
+      <c r="C77" t="s">
+        <v>411</v>
+      </c>
+      <c r="D77" t="s">
+        <v>412</v>
+      </c>
+      <c r="E77" t="s">
+        <v>530</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J77" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>531</v>
+      </c>
+      <c r="C78" t="s">
+        <v>366</v>
+      </c>
+      <c r="D78" t="s">
+        <v>367</v>
+      </c>
+      <c r="E78" t="s">
+        <v>532</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>533</v>
+      </c>
+      <c r="C79" t="s">
+        <v>493</v>
+      </c>
+      <c r="D79" t="s">
+        <v>367</v>
+      </c>
+      <c r="E79" t="s">
+        <v>534</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J79" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C80" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" t="s">
+        <v>412</v>
+      </c>
+      <c r="E80" t="s">
+        <v>536</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J80" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>537</v>
+      </c>
+      <c r="C81" t="s">
+        <v>498</v>
+      </c>
+      <c r="D81" t="s">
+        <v>499</v>
+      </c>
+      <c r="E81" t="s">
+        <v>538</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>539</v>
+      </c>
+      <c r="C82" t="s">
+        <v>502</v>
+      </c>
+      <c r="D82" t="s">
+        <v>503</v>
+      </c>
+      <c r="E82" t="s">
+        <v>540</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>541</v>
+      </c>
+      <c r="C83" t="s">
+        <v>411</v>
+      </c>
+      <c r="D83" t="s">
+        <v>412</v>
+      </c>
+      <c r="E83" t="s">
+        <v>542</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J83" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>543</v>
+      </c>
+      <c r="C84" t="s">
+        <v>366</v>
+      </c>
+      <c r="D84" t="s">
+        <v>367</v>
+      </c>
+      <c r="E84" t="s">
+        <v>544</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J84" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>545</v>
+      </c>
+      <c r="C85" t="s">
+        <v>493</v>
+      </c>
+      <c r="D85" t="s">
+        <v>367</v>
+      </c>
+      <c r="E85" t="s">
+        <v>546</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>547</v>
+      </c>
+      <c r="C86" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" t="s">
+        <v>412</v>
+      </c>
+      <c r="E86" t="s">
+        <v>548</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J86" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>549</v>
+      </c>
+      <c r="C87" t="s">
+        <v>498</v>
+      </c>
+      <c r="D87" t="s">
+        <v>499</v>
+      </c>
+      <c r="E87" t="s">
+        <v>550</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J87" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>551</v>
+      </c>
+      <c r="C88" t="s">
+        <v>502</v>
+      </c>
+      <c r="D88" t="s">
+        <v>503</v>
+      </c>
+      <c r="E88" t="s">
+        <v>552</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J88" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>553</v>
+      </c>
+      <c r="C89" t="s">
+        <v>411</v>
+      </c>
+      <c r="D89" t="s">
+        <v>412</v>
+      </c>
+      <c r="E89" t="s">
+        <v>554</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J89" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>555</v>
+      </c>
+      <c r="C90" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" t="s">
+        <v>556</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J90" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>557</v>
+      </c>
+      <c r="C91" t="s">
+        <v>493</v>
+      </c>
+      <c r="D91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E91" t="s">
+        <v>558</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J91" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>559</v>
+      </c>
+      <c r="C92" t="s">
+        <v>366</v>
+      </c>
+      <c r="D92" t="s">
+        <v>412</v>
+      </c>
+      <c r="E92" t="s">
+        <v>560</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J92" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>561</v>
+      </c>
+      <c r="C93" t="s">
+        <v>498</v>
+      </c>
+      <c r="D93" t="s">
+        <v>499</v>
+      </c>
+      <c r="E93" t="s">
+        <v>562</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J93" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>563</v>
+      </c>
+      <c r="C94" t="s">
+        <v>502</v>
+      </c>
+      <c r="D94" t="s">
+        <v>503</v>
+      </c>
+      <c r="E94" t="s">
+        <v>564</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J94" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>565</v>
+      </c>
+      <c r="C95" t="s">
+        <v>411</v>
+      </c>
+      <c r="D95" t="s">
+        <v>412</v>
+      </c>
+      <c r="E95" t="s">
+        <v>566</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>567</v>
+      </c>
+      <c r="C96" t="s">
+        <v>366</v>
+      </c>
+      <c r="D96" t="s">
+        <v>367</v>
+      </c>
+      <c r="E96" t="s">
+        <v>568</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>569</v>
+      </c>
+      <c r="C97" t="s">
+        <v>493</v>
+      </c>
+      <c r="D97" t="s">
+        <v>367</v>
+      </c>
+      <c r="E97" t="s">
+        <v>570</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J97" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>571</v>
+      </c>
+      <c r="C98" t="s">
+        <v>366</v>
+      </c>
+      <c r="D98" t="s">
+        <v>412</v>
+      </c>
+      <c r="E98" t="s">
+        <v>572</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J98" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>573</v>
+      </c>
+      <c r="C99" t="s">
+        <v>498</v>
+      </c>
+      <c r="D99" t="s">
+        <v>499</v>
+      </c>
+      <c r="E99" t="s">
+        <v>574</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J99" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>575</v>
+      </c>
+      <c r="C100" t="s">
+        <v>502</v>
+      </c>
+      <c r="D100" t="s">
+        <v>503</v>
+      </c>
+      <c r="E100" t="s">
+        <v>576</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J100" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>577</v>
+      </c>
+      <c r="C101" t="s">
+        <v>411</v>
+      </c>
+      <c r="D101" t="s">
+        <v>412</v>
+      </c>
+      <c r="E101" t="s">
+        <v>578</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J101" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>579</v>
+      </c>
+      <c r="C102" t="s">
+        <v>366</v>
+      </c>
+      <c r="D102" t="s">
+        <v>367</v>
+      </c>
+      <c r="E102" t="s">
+        <v>580</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J102" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>581</v>
+      </c>
+      <c r="C103" t="s">
+        <v>493</v>
+      </c>
+      <c r="D103" t="s">
+        <v>367</v>
+      </c>
+      <c r="E103" t="s">
+        <v>582</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J103" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>583</v>
+      </c>
+      <c r="C104" t="s">
+        <v>366</v>
+      </c>
+      <c r="D104" t="s">
+        <v>412</v>
+      </c>
+      <c r="E104" t="s">
+        <v>584</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J104" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>585</v>
+      </c>
+      <c r="C105" t="s">
+        <v>498</v>
+      </c>
+      <c r="D105" t="s">
+        <v>499</v>
+      </c>
+      <c r="E105" t="s">
+        <v>586</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J105" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>587</v>
+      </c>
+      <c r="C106" t="s">
+        <v>502</v>
+      </c>
+      <c r="D106" t="s">
+        <v>503</v>
+      </c>
+      <c r="E106" t="s">
+        <v>588</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J106" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>589</v>
+      </c>
+      <c r="C107" t="s">
+        <v>411</v>
+      </c>
+      <c r="D107" t="s">
+        <v>412</v>
+      </c>
+      <c r="E107" t="s">
+        <v>590</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J107" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>591</v>
+      </c>
+      <c r="C108" t="s">
+        <v>366</v>
+      </c>
+      <c r="D108" t="s">
+        <v>367</v>
+      </c>
+      <c r="E108" t="s">
+        <v>592</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J108" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>593</v>
+      </c>
+      <c r="C109" t="s">
+        <v>493</v>
+      </c>
+      <c r="D109" t="s">
+        <v>367</v>
+      </c>
+      <c r="E109" t="s">
+        <v>594</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J109" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>595</v>
+      </c>
+      <c r="C110" t="s">
+        <v>366</v>
+      </c>
+      <c r="D110" t="s">
+        <v>412</v>
+      </c>
+      <c r="E110" t="s">
+        <v>596</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J110" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>597</v>
+      </c>
+      <c r="C111" t="s">
+        <v>498</v>
+      </c>
+      <c r="D111" t="s">
+        <v>499</v>
+      </c>
+      <c r="E111" t="s">
+        <v>598</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J111" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>599</v>
+      </c>
+      <c r="C112" t="s">
+        <v>502</v>
+      </c>
+      <c r="D112" t="s">
+        <v>503</v>
+      </c>
+      <c r="E112" t="s">
+        <v>600</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J112" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>601</v>
+      </c>
+      <c r="C113" t="s">
+        <v>411</v>
+      </c>
+      <c r="D113" t="s">
+        <v>412</v>
+      </c>
+      <c r="E113" t="s">
+        <v>602</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J113" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>603</v>
+      </c>
+      <c r="C114" t="s">
+        <v>366</v>
+      </c>
+      <c r="D114" t="s">
+        <v>367</v>
+      </c>
+      <c r="E114" t="s">
+        <v>604</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J114" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>605</v>
+      </c>
+      <c r="C115" t="s">
+        <v>493</v>
+      </c>
+      <c r="D115" t="s">
+        <v>367</v>
+      </c>
+      <c r="E115" t="s">
+        <v>606</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J115" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>607</v>
+      </c>
+      <c r="C116" t="s">
+        <v>366</v>
+      </c>
+      <c r="D116" t="s">
+        <v>412</v>
+      </c>
+      <c r="E116" t="s">
+        <v>608</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J116" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>609</v>
+      </c>
+      <c r="C117" t="s">
+        <v>498</v>
+      </c>
+      <c r="D117" t="s">
+        <v>499</v>
+      </c>
+      <c r="E117" t="s">
+        <v>610</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J117" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>611</v>
+      </c>
+      <c r="C118" t="s">
+        <v>502</v>
+      </c>
+      <c r="D118" t="s">
+        <v>503</v>
+      </c>
+      <c r="E118" t="s">
+        <v>612</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J118" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>613</v>
+      </c>
+      <c r="C119" t="s">
+        <v>411</v>
+      </c>
+      <c r="D119" t="s">
+        <v>412</v>
+      </c>
+      <c r="E119" t="s">
+        <v>614</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J119" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>615</v>
+      </c>
+      <c r="C120" t="s">
+        <v>366</v>
+      </c>
+      <c r="D120" t="s">
+        <v>367</v>
+      </c>
+      <c r="E120" t="s">
+        <v>616</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J120" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>617</v>
+      </c>
+      <c r="C121" t="s">
+        <v>493</v>
+      </c>
+      <c r="D121" t="s">
+        <v>367</v>
+      </c>
+      <c r="E121" t="s">
+        <v>618</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J121" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>619</v>
+      </c>
+      <c r="C122" t="s">
+        <v>366</v>
+      </c>
+      <c r="D122" t="s">
+        <v>412</v>
+      </c>
+      <c r="E122" t="s">
+        <v>620</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J122" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>621</v>
+      </c>
+      <c r="C123" t="s">
+        <v>498</v>
+      </c>
+      <c r="D123" t="s">
+        <v>499</v>
+      </c>
+      <c r="E123" t="s">
+        <v>622</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J123" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>623</v>
+      </c>
+      <c r="C124" t="s">
+        <v>502</v>
+      </c>
+      <c r="D124" t="s">
+        <v>503</v>
+      </c>
+      <c r="E124" t="s">
+        <v>624</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J124" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>625</v>
+      </c>
+      <c r="C125" t="s">
+        <v>411</v>
+      </c>
+      <c r="D125" t="s">
+        <v>412</v>
+      </c>
+      <c r="E125" t="s">
+        <v>626</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J125" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>627</v>
+      </c>
+      <c r="C126" t="s">
+        <v>366</v>
+      </c>
+      <c r="D126" t="s">
+        <v>367</v>
+      </c>
+      <c r="E126" t="s">
+        <v>628</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J126" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>629</v>
+      </c>
+      <c r="C127" t="s">
+        <v>493</v>
+      </c>
+      <c r="D127" t="s">
+        <v>367</v>
+      </c>
+      <c r="E127" t="s">
+        <v>630</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J127" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>631</v>
+      </c>
+      <c r="C128" t="s">
+        <v>366</v>
+      </c>
+      <c r="D128" t="s">
+        <v>412</v>
+      </c>
+      <c r="E128" t="s">
+        <v>632</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J128" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>633</v>
+      </c>
+      <c r="C129" t="s">
+        <v>498</v>
+      </c>
+      <c r="D129" t="s">
+        <v>499</v>
+      </c>
+      <c r="E129" t="s">
+        <v>634</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J129" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>635</v>
+      </c>
+      <c r="C130" t="s">
+        <v>502</v>
+      </c>
+      <c r="D130" t="s">
+        <v>503</v>
+      </c>
+      <c r="E130" t="s">
+        <v>636</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J130" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>637</v>
+      </c>
+      <c r="C131" t="s">
+        <v>411</v>
+      </c>
+      <c r="D131" t="s">
+        <v>412</v>
+      </c>
+      <c r="E131" t="s">
+        <v>638</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J131" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>639</v>
+      </c>
+      <c r="C132" t="s">
+        <v>366</v>
+      </c>
+      <c r="D132" t="s">
+        <v>367</v>
+      </c>
+      <c r="E132" t="s">
+        <v>640</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J132" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>641</v>
+      </c>
+      <c r="C133" t="s">
+        <v>493</v>
+      </c>
+      <c r="D133" t="s">
+        <v>367</v>
+      </c>
+      <c r="E133" t="s">
+        <v>642</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J133" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>643</v>
+      </c>
+      <c r="C134" t="s">
+        <v>366</v>
+      </c>
+      <c r="D134" t="s">
+        <v>412</v>
+      </c>
+      <c r="E134" t="s">
+        <v>644</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J134" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>645</v>
+      </c>
+      <c r="C135" t="s">
+        <v>498</v>
+      </c>
+      <c r="D135" t="s">
+        <v>499</v>
+      </c>
+      <c r="E135" t="s">
+        <v>646</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J135" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>647</v>
+      </c>
+      <c r="C136" t="s">
+        <v>502</v>
+      </c>
+      <c r="D136" t="s">
+        <v>503</v>
+      </c>
+      <c r="E136" t="s">
+        <v>648</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J136" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>649</v>
+      </c>
+      <c r="C137" t="s">
+        <v>411</v>
+      </c>
+      <c r="D137" t="s">
+        <v>412</v>
+      </c>
+      <c r="E137" t="s">
+        <v>650</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J137" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>651</v>
+      </c>
+      <c r="C138" t="s">
+        <v>366</v>
+      </c>
+      <c r="D138" t="s">
+        <v>367</v>
+      </c>
+      <c r="E138" t="s">
+        <v>652</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J138" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>653</v>
+      </c>
+      <c r="C139" t="s">
+        <v>493</v>
+      </c>
+      <c r="D139" t="s">
+        <v>367</v>
+      </c>
+      <c r="E139" t="s">
+        <v>654</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J139" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>655</v>
+      </c>
+      <c r="C140" t="s">
+        <v>366</v>
+      </c>
+      <c r="D140" t="s">
+        <v>412</v>
+      </c>
+      <c r="E140" t="s">
+        <v>656</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J140" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>657</v>
+      </c>
+      <c r="C141" t="s">
+        <v>498</v>
+      </c>
+      <c r="D141" t="s">
+        <v>499</v>
+      </c>
+      <c r="E141" t="s">
+        <v>658</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J141" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>659</v>
+      </c>
+      <c r="C142" t="s">
+        <v>502</v>
+      </c>
+      <c r="D142" t="s">
+        <v>503</v>
+      </c>
+      <c r="E142" t="s">
+        <v>660</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J142" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>661</v>
+      </c>
+      <c r="C143" t="s">
+        <v>411</v>
+      </c>
+      <c r="D143" t="s">
+        <v>412</v>
+      </c>
+      <c r="E143" t="s">
+        <v>662</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J143" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>663</v>
+      </c>
+      <c r="C144" t="s">
+        <v>366</v>
+      </c>
+      <c r="D144" t="s">
+        <v>367</v>
+      </c>
+      <c r="E144" t="s">
+        <v>664</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J144" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>665</v>
+      </c>
+      <c r="C145" t="s">
+        <v>493</v>
+      </c>
+      <c r="D145" t="s">
+        <v>367</v>
+      </c>
+      <c r="E145" t="s">
+        <v>666</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J145" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>667</v>
+      </c>
+      <c r="C146" t="s">
+        <v>366</v>
+      </c>
+      <c r="D146" t="s">
+        <v>412</v>
+      </c>
+      <c r="E146" t="s">
+        <v>668</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J146" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>669</v>
+      </c>
+      <c r="C147" t="s">
+        <v>498</v>
+      </c>
+      <c r="D147" t="s">
+        <v>499</v>
+      </c>
+      <c r="E147" t="s">
+        <v>670</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J147" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>671</v>
+      </c>
+      <c r="C148" t="s">
+        <v>502</v>
+      </c>
+      <c r="D148" t="s">
+        <v>503</v>
+      </c>
+      <c r="E148" t="s">
+        <v>672</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J148" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>673</v>
+      </c>
+      <c r="C149" t="s">
+        <v>411</v>
+      </c>
+      <c r="D149" t="s">
+        <v>412</v>
+      </c>
+      <c r="E149" t="s">
+        <v>674</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J149" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>675</v>
+      </c>
+      <c r="C150" t="s">
+        <v>366</v>
+      </c>
+      <c r="D150" t="s">
+        <v>367</v>
+      </c>
+      <c r="E150" t="s">
+        <v>676</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J150" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>677</v>
+      </c>
+      <c r="C151" t="s">
+        <v>493</v>
+      </c>
+      <c r="D151" t="s">
+        <v>367</v>
+      </c>
+      <c r="E151" t="s">
+        <v>678</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J151" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>679</v>
+      </c>
+      <c r="C152" t="s">
+        <v>366</v>
+      </c>
+      <c r="D152" t="s">
+        <v>412</v>
+      </c>
+      <c r="E152" t="s">
+        <v>680</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J152" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>681</v>
+      </c>
+      <c r="C153" t="s">
+        <v>498</v>
+      </c>
+      <c r="D153" t="s">
+        <v>499</v>
+      </c>
+      <c r="E153" t="s">
+        <v>682</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J153" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>683</v>
+      </c>
+      <c r="C154" t="s">
+        <v>502</v>
+      </c>
+      <c r="D154" t="s">
+        <v>503</v>
+      </c>
+      <c r="E154" t="s">
+        <v>684</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J154" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>685</v>
+      </c>
+      <c r="C155" t="s">
+        <v>411</v>
+      </c>
+      <c r="D155" t="s">
+        <v>412</v>
+      </c>
+      <c r="E155" t="s">
+        <v>686</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J155" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>687</v>
+      </c>
+      <c r="C156" t="s">
+        <v>366</v>
+      </c>
+      <c r="D156" t="s">
+        <v>367</v>
+      </c>
+      <c r="E156" t="s">
+        <v>688</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J156" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>689</v>
+      </c>
+      <c r="C157" t="s">
+        <v>493</v>
+      </c>
+      <c r="D157" t="s">
+        <v>367</v>
+      </c>
+      <c r="E157" t="s">
+        <v>690</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J157" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>691</v>
+      </c>
+      <c r="C158" t="s">
+        <v>366</v>
+      </c>
+      <c r="D158" t="s">
+        <v>412</v>
+      </c>
+      <c r="E158" t="s">
+        <v>692</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J158" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>693</v>
+      </c>
+      <c r="C159" t="s">
+        <v>498</v>
+      </c>
+      <c r="D159" t="s">
+        <v>499</v>
+      </c>
+      <c r="E159" t="s">
+        <v>694</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J159" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>695</v>
+      </c>
+      <c r="C160" t="s">
+        <v>502</v>
+      </c>
+      <c r="D160" t="s">
+        <v>503</v>
+      </c>
+      <c r="E160" t="s">
+        <v>696</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J160" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>697</v>
+      </c>
+      <c r="C161" t="s">
+        <v>411</v>
+      </c>
+      <c r="D161" t="s">
+        <v>412</v>
+      </c>
+      <c r="E161" t="s">
+        <v>698</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J161" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>699</v>
+      </c>
+      <c r="C162" t="s">
+        <v>366</v>
+      </c>
+      <c r="D162" t="s">
+        <v>367</v>
+      </c>
+      <c r="E162" t="s">
+        <v>700</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J162" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>701</v>
+      </c>
+      <c r="C163" t="s">
+        <v>493</v>
+      </c>
+      <c r="D163" t="s">
+        <v>367</v>
+      </c>
+      <c r="E163" t="s">
+        <v>702</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J163" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>703</v>
+      </c>
+      <c r="C164" t="s">
+        <v>366</v>
+      </c>
+      <c r="D164" t="s">
+        <v>412</v>
+      </c>
+      <c r="E164" t="s">
+        <v>704</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J164" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>705</v>
+      </c>
+      <c r="C165" t="s">
+        <v>498</v>
+      </c>
+      <c r="D165" t="s">
+        <v>499</v>
+      </c>
+      <c r="E165" t="s">
+        <v>706</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J165" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
+        <v>707</v>
+      </c>
+      <c r="C166" t="s">
+        <v>502</v>
+      </c>
+      <c r="D166" t="s">
+        <v>503</v>
+      </c>
+      <c r="E166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J166" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>709</v>
+      </c>
+      <c r="C167" t="s">
+        <v>411</v>
+      </c>
+      <c r="D167" t="s">
+        <v>412</v>
+      </c>
+      <c r="E167" t="s">
+        <v>710</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J167" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>711</v>
+      </c>
+      <c r="C168" t="s">
+        <v>366</v>
+      </c>
+      <c r="D168" t="s">
+        <v>367</v>
+      </c>
+      <c r="E168" t="s">
+        <v>712</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J168" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>713</v>
+      </c>
+      <c r="C169" t="s">
+        <v>493</v>
+      </c>
+      <c r="D169" t="s">
+        <v>367</v>
+      </c>
+      <c r="E169" t="s">
+        <v>714</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J169" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>715</v>
+      </c>
+      <c r="C170" t="s">
+        <v>366</v>
+      </c>
+      <c r="D170" t="s">
+        <v>412</v>
+      </c>
+      <c r="E170" t="s">
+        <v>716</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J170" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>717</v>
+      </c>
+      <c r="C171" t="s">
+        <v>498</v>
+      </c>
+      <c r="D171" t="s">
+        <v>499</v>
+      </c>
+      <c r="E171" t="s">
+        <v>718</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J171" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
+        <v>719</v>
+      </c>
+      <c r="C172" t="s">
+        <v>502</v>
+      </c>
+      <c r="D172" t="s">
+        <v>503</v>
+      </c>
+      <c r="E172" t="s">
+        <v>720</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J172" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3709,6 +8101,174 @@
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F61" r:id="rId60"/>
+    <hyperlink ref="F62" r:id="rId61"/>
+    <hyperlink ref="F63" r:id="rId62"/>
+    <hyperlink ref="F64" r:id="rId63"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F66" r:id="rId65"/>
+    <hyperlink ref="F67" r:id="rId66"/>
+    <hyperlink ref="F68" r:id="rId67"/>
+    <hyperlink ref="F69" r:id="rId68"/>
+    <hyperlink ref="F70" r:id="rId69"/>
+    <hyperlink ref="F71" r:id="rId70"/>
+    <hyperlink ref="F72" r:id="rId71"/>
+    <hyperlink ref="F73" r:id="rId72"/>
+    <hyperlink ref="F74" r:id="rId73"/>
+    <hyperlink ref="F75" r:id="rId74"/>
+    <hyperlink ref="F76" r:id="rId75"/>
+    <hyperlink ref="F77" r:id="rId76"/>
+    <hyperlink ref="F78" r:id="rId77"/>
+    <hyperlink ref="F79" r:id="rId78"/>
+    <hyperlink ref="F80" r:id="rId79"/>
+    <hyperlink ref="F81" r:id="rId80"/>
+    <hyperlink ref="F82" r:id="rId81"/>
+    <hyperlink ref="F83" r:id="rId82"/>
+    <hyperlink ref="F84" r:id="rId83"/>
+    <hyperlink ref="F85" r:id="rId84"/>
+    <hyperlink ref="F86" r:id="rId85"/>
+    <hyperlink ref="F87" r:id="rId86"/>
+    <hyperlink ref="F88" r:id="rId87"/>
+    <hyperlink ref="F89" r:id="rId88"/>
+    <hyperlink ref="F90" r:id="rId89"/>
+    <hyperlink ref="F91" r:id="rId90"/>
+    <hyperlink ref="F92" r:id="rId91"/>
+    <hyperlink ref="F93" r:id="rId92"/>
+    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="F95" r:id="rId94"/>
+    <hyperlink ref="F96" r:id="rId95"/>
+    <hyperlink ref="F97" r:id="rId96"/>
+    <hyperlink ref="F98" r:id="rId97"/>
+    <hyperlink ref="F99" r:id="rId98"/>
+    <hyperlink ref="F100" r:id="rId99"/>
+    <hyperlink ref="F101" r:id="rId100"/>
+    <hyperlink ref="F102" r:id="rId101"/>
+    <hyperlink ref="F103" r:id="rId102"/>
+    <hyperlink ref="F104" r:id="rId103"/>
+    <hyperlink ref="F105" r:id="rId104"/>
+    <hyperlink ref="F106" r:id="rId105"/>
+    <hyperlink ref="F107" r:id="rId106"/>
+    <hyperlink ref="F108" r:id="rId107"/>
+    <hyperlink ref="F109" r:id="rId108"/>
+    <hyperlink ref="F110" r:id="rId109"/>
+    <hyperlink ref="F111" r:id="rId110"/>
+    <hyperlink ref="F112" r:id="rId111"/>
+    <hyperlink ref="F113" r:id="rId112"/>
+    <hyperlink ref="F114" r:id="rId113"/>
+    <hyperlink ref="F115" r:id="rId114"/>
+    <hyperlink ref="F116" r:id="rId115"/>
+    <hyperlink ref="F117" r:id="rId116"/>
+    <hyperlink ref="F118" r:id="rId117"/>
+    <hyperlink ref="F119" r:id="rId118"/>
+    <hyperlink ref="F120" r:id="rId119"/>
+    <hyperlink ref="F121" r:id="rId120"/>
+    <hyperlink ref="F122" r:id="rId121"/>
+    <hyperlink ref="F123" r:id="rId122"/>
+    <hyperlink ref="F124" r:id="rId123"/>
+    <hyperlink ref="F125" r:id="rId124"/>
+    <hyperlink ref="F126" r:id="rId125"/>
+    <hyperlink ref="F127" r:id="rId126"/>
+    <hyperlink ref="F128" r:id="rId127"/>
+    <hyperlink ref="F129" r:id="rId128"/>
+    <hyperlink ref="F130" r:id="rId129"/>
+    <hyperlink ref="F131" r:id="rId130"/>
+    <hyperlink ref="F132" r:id="rId131"/>
+    <hyperlink ref="F133" r:id="rId132"/>
+    <hyperlink ref="F134" r:id="rId133"/>
+    <hyperlink ref="F135" r:id="rId134"/>
+    <hyperlink ref="F136" r:id="rId135"/>
+    <hyperlink ref="F137" r:id="rId136"/>
+    <hyperlink ref="F138" r:id="rId137"/>
+    <hyperlink ref="F139" r:id="rId138"/>
+    <hyperlink ref="F140" r:id="rId139"/>
+    <hyperlink ref="F141" r:id="rId140"/>
+    <hyperlink ref="F142" r:id="rId141"/>
+    <hyperlink ref="F143" r:id="rId142"/>
+    <hyperlink ref="F144" r:id="rId143"/>
+    <hyperlink ref="F145" r:id="rId144"/>
+    <hyperlink ref="F146" r:id="rId145"/>
+    <hyperlink ref="F147" r:id="rId146"/>
+    <hyperlink ref="F148" r:id="rId147"/>
+    <hyperlink ref="F149" r:id="rId148"/>
+    <hyperlink ref="F150" r:id="rId149"/>
+    <hyperlink ref="F151" r:id="rId150"/>
+    <hyperlink ref="F152" r:id="rId151"/>
+    <hyperlink ref="F153" r:id="rId152"/>
+    <hyperlink ref="F154" r:id="rId153"/>
+    <hyperlink ref="F155" r:id="rId154"/>
+    <hyperlink ref="F156" r:id="rId155"/>
+    <hyperlink ref="F157" r:id="rId156"/>
+    <hyperlink ref="F158" r:id="rId157"/>
+    <hyperlink ref="F159" r:id="rId158"/>
+    <hyperlink ref="F160" r:id="rId159"/>
+    <hyperlink ref="F161" r:id="rId160"/>
+    <hyperlink ref="F162" r:id="rId161"/>
+    <hyperlink ref="F163" r:id="rId162"/>
+    <hyperlink ref="F164" r:id="rId163"/>
+    <hyperlink ref="F165" r:id="rId164"/>
+    <hyperlink ref="F166" r:id="rId165"/>
+    <hyperlink ref="F167" r:id="rId166"/>
+    <hyperlink ref="F168" r:id="rId167"/>
+    <hyperlink ref="F169" r:id="rId168"/>
+    <hyperlink ref="F170" r:id="rId169"/>
+    <hyperlink ref="F171" r:id="rId170"/>
+    <hyperlink ref="F172" r:id="rId171"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="375">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,7 +1127,7 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_MEXICO_300x600</t>
+    <t>preview_300x600</t>
   </si>
   <si>
     <t>300</t>
@@ -1136,16 +1136,16 @@
     <t>600</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_mexico/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130504" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130504.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.oceanhotels.net/</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/ver_cine/2024/06/green_border/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_MEXICO_970x250</t>
+    <t>preview_970x250</t>
   </si>
   <si>
     <t>970</t>
@@ -1154,67 +1154,7 @@
     <t>250</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_mexico/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130505" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130505.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_RD_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_republicadominicana/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130506" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130506.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_RD_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_republicadominicana/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130507" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130507.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_JAMAICA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_jamaica/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130508" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130508.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_JAMAICA_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_jamaica/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130509" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130509.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_MEXICO_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_mexico/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130510" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130510.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_MEXICO_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_mexico/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130511" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130511.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_RD_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_republicadominicana/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130512" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130512.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_RD_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_republicadominicana/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130513" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130513.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_JAMAICA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_jamaica/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130514" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130514.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_JAMAICA_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_jamaica/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130515" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130515.js?n_o_nu=not&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/ver_cine/2024/06/green_border/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -3618,7 +3558,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3738,220 +3678,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D6" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" t="s">
-        <v>386</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D10" t="s">
-        <v>367</v>
-      </c>
-      <c r="E10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>389</v>
-      </c>
-      <c r="C11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" t="s">
-        <v>390</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>391</v>
-      </c>
-      <c r="C12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" t="s">
-        <v>392</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C13" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J13" t="s">
-        <v>370</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="401">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,34 +1127,112 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>preview_300x600</t>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_300x250</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=300x250&amp;tc_alt=138953" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138953&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://colabora.contraelcancer.es/dona</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_300x600</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/ver_cine/2024/06/green_border/preroll/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>preview_970x250</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=300x600&amp;tc_alt=138954" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138954&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_728x90</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=728x90&amp;tc_alt=138955" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138955&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_970x250</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/ver_cine/2024/06/green_border/preroll/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=970x250&amp;tc_alt=138956" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138956&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_160x600</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=160x600&amp;tc_alt=138957" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138957&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_320x100</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=320x100&amp;tc_alt=138958" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138958&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=970x250&amp;tc_alt=138959" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138959&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://colabora.contraelcancer.es/socios</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=728x90&amp;tc_alt=138960" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138960&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=320x100&amp;tc_alt=138961" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138961&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=300x600&amp;tc_alt=138962" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138962&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=300x250&amp;tc_alt=138963" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138963&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=160x600&amp;tc_alt=138964" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138964&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3558,7 +3636,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3663,18 +3741,218 @@
         <v>371</v>
       </c>
       <c r="C3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
         <v>372</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>373</v>
-      </c>
-      <c r="E3" t="s">
-        <v>374</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>369</v>
       </c>
       <c r="J3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J13" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3682,6 +3960,16 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="381">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,112 +1127,52 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_300x250</t>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-JUAN_300x600</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=300x250&amp;tc_alt=138953" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138953&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://colabora.contraelcancer.es/dona</t>
+    <t>600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-juan/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-JUAN&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://fpmaragall.org/identidad/</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_300x600</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=300x600&amp;tc_alt=138954" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138954&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_728x90</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=728x90&amp;tc_alt=138955" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138955&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_970x250</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=970x250&amp;tc_alt=138956" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138956&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_160x600</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=160x600&amp;tc_alt=138957" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138957&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_320x100</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=320x100&amp;tc_alt=138958" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138958&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=970x250&amp;tc_alt=138959" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138959&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://colabora.contraelcancer.es/socios</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=728x90&amp;tc_alt=138960" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138960&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=320x100&amp;tc_alt=138961" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138961&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=300x600&amp;tc_alt=138962" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138962&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=300x250&amp;tc_alt=138963" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138963&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=160x600&amp;tc_alt=138964" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138964&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-JUAN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/juan/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-JUAN&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-MARTA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-marta/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-MARTA&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-MARTA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/marta/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-MARTA&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-LUIS_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-luis/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-LUIS&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-LUIS_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/luis/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-LUIS&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -3636,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3744,10 +3684,10 @@
         <v>366</v>
       </c>
       <c r="D3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" t="s">
         <v>372</v>
-      </c>
-      <c r="E3" t="s">
-        <v>373</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>369</v>
@@ -3758,16 +3698,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
         <v>374</v>
-      </c>
-      <c r="C4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" t="s">
-        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>369</v>
@@ -3778,16 +3718,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
         <v>367</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3798,16 +3738,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>369</v>
@@ -3818,141 +3758,21 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>369</v>
       </c>
       <c r="J7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D9" t="s">
-        <v>376</v>
-      </c>
-      <c r="E9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C10" t="s">
-        <v>385</v>
-      </c>
-      <c r="D10" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" t="s">
-        <v>366</v>
-      </c>
-      <c r="D11" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>397</v>
-      </c>
-      <c r="C12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" t="s">
-        <v>398</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D13" t="s">
-        <v>372</v>
-      </c>
-      <c r="E13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J13" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3964,12 +3784,6 @@
     <hyperlink ref="F5" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="617">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,7 +1127,7 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-JUAN_300x600</t>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_300x600</t>
   </si>
   <si>
     <t>300</t>
@@ -1136,43 +1136,751 @@
     <t>600</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-juan/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-JUAN&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>https://fpmaragall.org/identidad/</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=300x600&amp;tc_alt=140145" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140145&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-JUAN_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/juan/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-JUAN&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-MARTA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-marta/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-MARTA&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-MARTA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/marta/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-MARTA&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-LUIS_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-luis/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-LUIS&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-LUIS_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/luis/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-LUIS&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_300x250</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=300x250&amp;tc_alt=140146" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140146&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_320x100</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=320x100&amp;tc_alt=140147" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140147&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_970x250</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=970x250&amp;tc_alt=140148" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140148&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_160x600</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=160x600&amp;tc_alt=140149" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140149&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_728x90</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=728x90&amp;tc_alt=140150" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140150&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=300x600&amp;tc_alt=140151" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140151&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=300x250&amp;tc_alt=140152" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140152&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=320x100&amp;tc_alt=140153" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140153&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=970x250&amp;tc_alt=140154" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140154&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=160x600&amp;tc_alt=140155" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140155&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=728x90&amp;tc_alt=140156" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140156&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=300x600&amp;tc_alt=140157" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140157&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=300x250&amp;tc_alt=140158" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140158&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=320x100&amp;tc_alt=140159" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140159&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=970x250&amp;tc_alt=140160" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140160&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=160x600&amp;tc_alt=140161" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140161&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=728x90&amp;tc_alt=140162" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140162&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=300x600&amp;tc_alt=140163" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140163&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=300x250&amp;tc_alt=140164" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140164&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=320x100&amp;tc_alt=140165" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140165&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=970x250&amp;tc_alt=140166" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140166&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=160x600&amp;tc_alt=140167" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140167&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=728x90&amp;tc_alt=140168" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140168&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=300x600&amp;tc_alt=140169" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140169&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=300x250&amp;tc_alt=140170" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140170&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=320x100&amp;tc_alt=140171" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140171&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=970x250&amp;tc_alt=140172" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140172&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=160x600&amp;tc_alt=140173" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140173&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=728x90&amp;tc_alt=140174" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140174&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=300x600&amp;tc_alt=140175" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140175&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=300x250&amp;tc_alt=140176" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140176&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=320x100&amp;tc_alt=140177" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140177&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=970x250&amp;tc_alt=140178" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140178&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=160x600&amp;tc_alt=140179" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140179&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=728x90&amp;tc_alt=140180" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140180&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=300x600&amp;tc_alt=140181" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140181&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=300x250&amp;tc_alt=140182" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140182&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=320x100&amp;tc_alt=140183" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140183&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=970x250&amp;tc_alt=140184" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140184&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=160x600&amp;tc_alt=140185" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140185&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=728x90&amp;tc_alt=140186" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140186&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=300x600&amp;tc_alt=140187" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140187&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=300x250&amp;tc_alt=140188" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140188&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=320x100&amp;tc_alt=140189" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140189&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=970x250&amp;tc_alt=140190" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140190&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=160x600&amp;tc_alt=140191" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140191&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=728x90&amp;tc_alt=140192" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140192&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=300x600&amp;tc_alt=140193" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140193&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=300x250&amp;tc_alt=140194" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140194&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=320x100&amp;tc_alt=140195" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140195&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=970x250&amp;tc_alt=140196" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140196&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=160x600&amp;tc_alt=140197" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140197&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=728x90&amp;tc_alt=140198" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140198&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=300x600&amp;tc_alt=140199" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140199&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=300x250&amp;tc_alt=140200" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140200&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=320x100&amp;tc_alt=140201" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140201&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=970x250&amp;tc_alt=140202" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140202&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=160x600&amp;tc_alt=140203" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140203&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=728x90&amp;tc_alt=140204" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140204&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=300x600&amp;tc_alt=140205" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140205&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=300x250&amp;tc_alt=140206" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140206&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=320x100&amp;tc_alt=140207" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140207&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=970x250&amp;tc_alt=140208" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140208&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=160x600&amp;tc_alt=140209" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140209&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=728x90&amp;tc_alt=140210" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140210&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=300x600&amp;tc_alt=140211" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140211&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=300x250&amp;tc_alt=140212" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140212&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=320x100&amp;tc_alt=140213" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140213&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=970x250&amp;tc_alt=140214" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140214&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=160x600&amp;tc_alt=140215" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140215&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=728x90&amp;tc_alt=140216" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140216&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=300x600&amp;tc_alt=140217" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140217&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=300x250&amp;tc_alt=140218" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140218&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=320x100&amp;tc_alt=140219" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140219&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=970x250&amp;tc_alt=140220" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140220&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=160x600&amp;tc_alt=140221" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140221&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=728x90&amp;tc_alt=140222" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140222&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=300x600&amp;tc_alt=140223" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140223&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=300x250&amp;tc_alt=140224" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140224&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=320x100&amp;tc_alt=140225" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140225&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=970x250&amp;tc_alt=140226" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140226&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=160x600&amp;tc_alt=140227" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140227&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=728x90&amp;tc_alt=140228" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140228&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=300x600&amp;tc_alt=140229" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140229&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=300x250&amp;tc_alt=140230" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140230&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=320x100&amp;tc_alt=140231" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140231&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=970x250&amp;tc_alt=140232" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140232&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=160x600&amp;tc_alt=140233" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140233&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=728x90&amp;tc_alt=140234" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140234&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=300x600&amp;tc_alt=140235" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140235&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=300x250&amp;tc_alt=140236" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140236&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=320x100&amp;tc_alt=140237" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140237&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=970x250&amp;tc_alt=140238" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140238&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=160x600&amp;tc_alt=140239" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140239&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=728x90&amp;tc_alt=140240" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140240&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=300x600&amp;tc_alt=140241" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140241&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=300x250&amp;tc_alt=140242" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140242&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=320x100&amp;tc_alt=140243" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140243&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=970x250&amp;tc_alt=140244" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140244&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=160x600&amp;tc_alt=140245" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140245&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=728x90&amp;tc_alt=140246" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140246&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=300x600&amp;tc_alt=140247" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140247&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=300x250&amp;tc_alt=140248" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140248&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=320x100&amp;tc_alt=140249" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140249&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=970x250&amp;tc_alt=140250" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140250&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=160x600&amp;tc_alt=140251" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140251&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=728x90&amp;tc_alt=140252" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140252&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=300x600&amp;tc_alt=140253" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140253&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=300x250&amp;tc_alt=140254" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140254&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=320x100&amp;tc_alt=140255" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140255&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=970x250&amp;tc_alt=140256" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140256&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=160x600&amp;tc_alt=140257" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140257&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=728x90&amp;tc_alt=140258" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140258&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=300x600&amp;tc_alt=140259" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140259&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=300x250&amp;tc_alt=140260" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140260&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=320x100&amp;tc_alt=140261" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140261&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=970x250&amp;tc_alt=140262" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140262&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=160x600&amp;tc_alt=140263" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140263&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=728x90&amp;tc_alt=140264" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140264&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3576,7 +4284,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3684,10 +4392,10 @@
         <v>366</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>369</v>
@@ -3698,16 +4406,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>369</v>
@@ -3718,16 +4426,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3738,16 +4446,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="D6" t="s">
         <v>367</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>369</v>
@@ -3758,21 +4466,2301 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>369</v>
       </c>
       <c r="J7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" t="s">
+        <v>376</v>
+      </c>
+      <c r="E16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" t="s">
+        <v>412</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E23" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" t="s">
+        <v>372</v>
+      </c>
+      <c r="E27" t="s">
+        <v>428</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" t="s">
+        <v>375</v>
+      </c>
+      <c r="D28" t="s">
+        <v>376</v>
+      </c>
+      <c r="E28" t="s">
+        <v>430</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D29" t="s">
+        <v>372</v>
+      </c>
+      <c r="E29" t="s">
+        <v>432</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>433</v>
+      </c>
+      <c r="C30" t="s">
+        <v>382</v>
+      </c>
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" t="s">
+        <v>434</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" t="s">
+        <v>436</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>437</v>
+      </c>
+      <c r="C32" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32" t="s">
+        <v>438</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>439</v>
+      </c>
+      <c r="C33" t="s">
+        <v>366</v>
+      </c>
+      <c r="D33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" t="s">
+        <v>375</v>
+      </c>
+      <c r="D34" t="s">
+        <v>376</v>
+      </c>
+      <c r="E34" t="s">
+        <v>442</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>443</v>
+      </c>
+      <c r="C35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D35" t="s">
+        <v>372</v>
+      </c>
+      <c r="E35" t="s">
+        <v>444</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>445</v>
+      </c>
+      <c r="C36" t="s">
+        <v>382</v>
+      </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" t="s">
+        <v>446</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37" t="s">
+        <v>385</v>
+      </c>
+      <c r="D37" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" t="s">
+        <v>448</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>449</v>
+      </c>
+      <c r="C38" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" t="s">
+        <v>450</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>451</v>
+      </c>
+      <c r="C39" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" t="s">
+        <v>372</v>
+      </c>
+      <c r="E39" t="s">
+        <v>452</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" t="s">
+        <v>376</v>
+      </c>
+      <c r="E40" t="s">
+        <v>454</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>455</v>
+      </c>
+      <c r="C41" t="s">
+        <v>379</v>
+      </c>
+      <c r="D41" t="s">
+        <v>372</v>
+      </c>
+      <c r="E41" t="s">
+        <v>456</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>457</v>
+      </c>
+      <c r="C42" t="s">
+        <v>382</v>
+      </c>
+      <c r="D42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" t="s">
+        <v>458</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D43" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43" t="s">
+        <v>460</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C44" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" t="s">
+        <v>462</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>463</v>
+      </c>
+      <c r="C45" t="s">
+        <v>366</v>
+      </c>
+      <c r="D45" t="s">
+        <v>372</v>
+      </c>
+      <c r="E45" t="s">
+        <v>464</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>465</v>
+      </c>
+      <c r="C46" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" t="s">
+        <v>376</v>
+      </c>
+      <c r="E46" t="s">
+        <v>466</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>467</v>
+      </c>
+      <c r="C47" t="s">
+        <v>379</v>
+      </c>
+      <c r="D47" t="s">
+        <v>372</v>
+      </c>
+      <c r="E47" t="s">
+        <v>468</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>469</v>
+      </c>
+      <c r="C48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" t="s">
+        <v>470</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" t="s">
+        <v>385</v>
+      </c>
+      <c r="D49" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" t="s">
+        <v>472</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>473</v>
+      </c>
+      <c r="C50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" t="s">
+        <v>474</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>475</v>
+      </c>
+      <c r="C51" t="s">
+        <v>366</v>
+      </c>
+      <c r="D51" t="s">
+        <v>372</v>
+      </c>
+      <c r="E51" t="s">
+        <v>476</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>477</v>
+      </c>
+      <c r="C52" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" t="s">
+        <v>376</v>
+      </c>
+      <c r="E52" t="s">
+        <v>478</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>479</v>
+      </c>
+      <c r="C53" t="s">
+        <v>379</v>
+      </c>
+      <c r="D53" t="s">
+        <v>372</v>
+      </c>
+      <c r="E53" t="s">
+        <v>480</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" t="s">
+        <v>382</v>
+      </c>
+      <c r="D54" t="s">
+        <v>367</v>
+      </c>
+      <c r="E54" t="s">
+        <v>482</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>483</v>
+      </c>
+      <c r="C55" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" t="s">
+        <v>386</v>
+      </c>
+      <c r="E55" t="s">
+        <v>484</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>485</v>
+      </c>
+      <c r="C56" t="s">
+        <v>366</v>
+      </c>
+      <c r="D56" t="s">
+        <v>367</v>
+      </c>
+      <c r="E56" t="s">
+        <v>486</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" t="s">
+        <v>366</v>
+      </c>
+      <c r="D57" t="s">
+        <v>372</v>
+      </c>
+      <c r="E57" t="s">
+        <v>488</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>489</v>
+      </c>
+      <c r="C58" t="s">
+        <v>375</v>
+      </c>
+      <c r="D58" t="s">
+        <v>376</v>
+      </c>
+      <c r="E58" t="s">
+        <v>490</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J58" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>491</v>
+      </c>
+      <c r="C59" t="s">
+        <v>379</v>
+      </c>
+      <c r="D59" t="s">
+        <v>372</v>
+      </c>
+      <c r="E59" t="s">
+        <v>492</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J59" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>493</v>
+      </c>
+      <c r="C60" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60" t="s">
+        <v>367</v>
+      </c>
+      <c r="E60" t="s">
+        <v>494</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>495</v>
+      </c>
+      <c r="C61" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" t="s">
+        <v>386</v>
+      </c>
+      <c r="E61" t="s">
+        <v>496</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J61" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>497</v>
+      </c>
+      <c r="C62" t="s">
+        <v>366</v>
+      </c>
+      <c r="D62" t="s">
+        <v>367</v>
+      </c>
+      <c r="E62" t="s">
+        <v>498</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J62" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>499</v>
+      </c>
+      <c r="C63" t="s">
+        <v>366</v>
+      </c>
+      <c r="D63" t="s">
+        <v>372</v>
+      </c>
+      <c r="E63" t="s">
+        <v>500</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>501</v>
+      </c>
+      <c r="C64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D64" t="s">
+        <v>376</v>
+      </c>
+      <c r="E64" t="s">
+        <v>502</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J64" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>503</v>
+      </c>
+      <c r="C65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E65" t="s">
+        <v>504</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>505</v>
+      </c>
+      <c r="C66" t="s">
+        <v>382</v>
+      </c>
+      <c r="D66" t="s">
+        <v>367</v>
+      </c>
+      <c r="E66" t="s">
+        <v>506</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J66" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>507</v>
+      </c>
+      <c r="C67" t="s">
+        <v>385</v>
+      </c>
+      <c r="D67" t="s">
+        <v>386</v>
+      </c>
+      <c r="E67" t="s">
+        <v>508</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>509</v>
+      </c>
+      <c r="C68" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" t="s">
+        <v>367</v>
+      </c>
+      <c r="E68" t="s">
+        <v>510</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J68" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>511</v>
+      </c>
+      <c r="C69" t="s">
+        <v>366</v>
+      </c>
+      <c r="D69" t="s">
+        <v>372</v>
+      </c>
+      <c r="E69" t="s">
+        <v>512</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J69" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>513</v>
+      </c>
+      <c r="C70" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70" t="s">
+        <v>376</v>
+      </c>
+      <c r="E70" t="s">
+        <v>514</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J70" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>515</v>
+      </c>
+      <c r="C71" t="s">
+        <v>379</v>
+      </c>
+      <c r="D71" t="s">
+        <v>372</v>
+      </c>
+      <c r="E71" t="s">
+        <v>516</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" t="s">
+        <v>382</v>
+      </c>
+      <c r="D72" t="s">
+        <v>367</v>
+      </c>
+      <c r="E72" t="s">
+        <v>518</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J72" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>519</v>
+      </c>
+      <c r="C73" t="s">
+        <v>385</v>
+      </c>
+      <c r="D73" t="s">
+        <v>386</v>
+      </c>
+      <c r="E73" t="s">
+        <v>520</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J73" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>521</v>
+      </c>
+      <c r="C74" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" t="s">
+        <v>522</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J74" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>523</v>
+      </c>
+      <c r="C75" t="s">
+        <v>366</v>
+      </c>
+      <c r="D75" t="s">
+        <v>372</v>
+      </c>
+      <c r="E75" t="s">
+        <v>524</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J75" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>525</v>
+      </c>
+      <c r="C76" t="s">
+        <v>375</v>
+      </c>
+      <c r="D76" t="s">
+        <v>376</v>
+      </c>
+      <c r="E76" t="s">
+        <v>526</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>527</v>
+      </c>
+      <c r="C77" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" t="s">
+        <v>372</v>
+      </c>
+      <c r="E77" t="s">
+        <v>528</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J77" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>529</v>
+      </c>
+      <c r="C78" t="s">
+        <v>382</v>
+      </c>
+      <c r="D78" t="s">
+        <v>367</v>
+      </c>
+      <c r="E78" t="s">
+        <v>530</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>531</v>
+      </c>
+      <c r="C79" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" t="s">
+        <v>532</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J79" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>533</v>
+      </c>
+      <c r="C80" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" t="s">
+        <v>367</v>
+      </c>
+      <c r="E80" t="s">
+        <v>534</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J80" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>535</v>
+      </c>
+      <c r="C81" t="s">
+        <v>366</v>
+      </c>
+      <c r="D81" t="s">
+        <v>372</v>
+      </c>
+      <c r="E81" t="s">
+        <v>536</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>537</v>
+      </c>
+      <c r="C82" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" t="s">
+        <v>376</v>
+      </c>
+      <c r="E82" t="s">
+        <v>538</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>539</v>
+      </c>
+      <c r="C83" t="s">
+        <v>379</v>
+      </c>
+      <c r="D83" t="s">
+        <v>372</v>
+      </c>
+      <c r="E83" t="s">
+        <v>540</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J83" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>541</v>
+      </c>
+      <c r="C84" t="s">
+        <v>382</v>
+      </c>
+      <c r="D84" t="s">
+        <v>367</v>
+      </c>
+      <c r="E84" t="s">
+        <v>542</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J84" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>543</v>
+      </c>
+      <c r="C85" t="s">
+        <v>385</v>
+      </c>
+      <c r="D85" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85" t="s">
+        <v>544</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>545</v>
+      </c>
+      <c r="C86" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" t="s">
+        <v>367</v>
+      </c>
+      <c r="E86" t="s">
+        <v>546</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J86" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>547</v>
+      </c>
+      <c r="C87" t="s">
+        <v>366</v>
+      </c>
+      <c r="D87" t="s">
+        <v>372</v>
+      </c>
+      <c r="E87" t="s">
+        <v>548</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J87" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>549</v>
+      </c>
+      <c r="C88" t="s">
+        <v>375</v>
+      </c>
+      <c r="D88" t="s">
+        <v>376</v>
+      </c>
+      <c r="E88" t="s">
+        <v>550</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J88" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>551</v>
+      </c>
+      <c r="C89" t="s">
+        <v>379</v>
+      </c>
+      <c r="D89" t="s">
+        <v>372</v>
+      </c>
+      <c r="E89" t="s">
+        <v>552</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J89" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>553</v>
+      </c>
+      <c r="C90" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" t="s">
+        <v>554</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J90" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>555</v>
+      </c>
+      <c r="C91" t="s">
+        <v>385</v>
+      </c>
+      <c r="D91" t="s">
+        <v>386</v>
+      </c>
+      <c r="E91" t="s">
+        <v>556</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J91" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>557</v>
+      </c>
+      <c r="C92" t="s">
+        <v>366</v>
+      </c>
+      <c r="D92" t="s">
+        <v>367</v>
+      </c>
+      <c r="E92" t="s">
+        <v>558</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J92" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>559</v>
+      </c>
+      <c r="C93" t="s">
+        <v>366</v>
+      </c>
+      <c r="D93" t="s">
+        <v>372</v>
+      </c>
+      <c r="E93" t="s">
+        <v>560</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J93" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>561</v>
+      </c>
+      <c r="C94" t="s">
+        <v>375</v>
+      </c>
+      <c r="D94" t="s">
+        <v>376</v>
+      </c>
+      <c r="E94" t="s">
+        <v>562</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J94" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>563</v>
+      </c>
+      <c r="C95" t="s">
+        <v>379</v>
+      </c>
+      <c r="D95" t="s">
+        <v>372</v>
+      </c>
+      <c r="E95" t="s">
+        <v>564</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>565</v>
+      </c>
+      <c r="C96" t="s">
+        <v>382</v>
+      </c>
+      <c r="D96" t="s">
+        <v>367</v>
+      </c>
+      <c r="E96" t="s">
+        <v>566</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>567</v>
+      </c>
+      <c r="C97" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" t="s">
+        <v>386</v>
+      </c>
+      <c r="E97" t="s">
+        <v>568</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J97" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>569</v>
+      </c>
+      <c r="C98" t="s">
+        <v>366</v>
+      </c>
+      <c r="D98" t="s">
+        <v>367</v>
+      </c>
+      <c r="E98" t="s">
+        <v>570</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J98" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>571</v>
+      </c>
+      <c r="C99" t="s">
+        <v>366</v>
+      </c>
+      <c r="D99" t="s">
+        <v>372</v>
+      </c>
+      <c r="E99" t="s">
+        <v>572</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J99" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>573</v>
+      </c>
+      <c r="C100" t="s">
+        <v>375</v>
+      </c>
+      <c r="D100" t="s">
+        <v>376</v>
+      </c>
+      <c r="E100" t="s">
+        <v>574</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J100" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>575</v>
+      </c>
+      <c r="C101" t="s">
+        <v>379</v>
+      </c>
+      <c r="D101" t="s">
+        <v>372</v>
+      </c>
+      <c r="E101" t="s">
+        <v>576</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J101" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>577</v>
+      </c>
+      <c r="C102" t="s">
+        <v>382</v>
+      </c>
+      <c r="D102" t="s">
+        <v>367</v>
+      </c>
+      <c r="E102" t="s">
+        <v>578</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J102" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>579</v>
+      </c>
+      <c r="C103" t="s">
+        <v>385</v>
+      </c>
+      <c r="D103" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" t="s">
+        <v>580</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J103" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>581</v>
+      </c>
+      <c r="C104" t="s">
+        <v>366</v>
+      </c>
+      <c r="D104" t="s">
+        <v>367</v>
+      </c>
+      <c r="E104" t="s">
+        <v>582</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J104" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>583</v>
+      </c>
+      <c r="C105" t="s">
+        <v>366</v>
+      </c>
+      <c r="D105" t="s">
+        <v>372</v>
+      </c>
+      <c r="E105" t="s">
+        <v>584</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J105" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>585</v>
+      </c>
+      <c r="C106" t="s">
+        <v>375</v>
+      </c>
+      <c r="D106" t="s">
+        <v>376</v>
+      </c>
+      <c r="E106" t="s">
+        <v>586</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J106" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>587</v>
+      </c>
+      <c r="C107" t="s">
+        <v>379</v>
+      </c>
+      <c r="D107" t="s">
+        <v>372</v>
+      </c>
+      <c r="E107" t="s">
+        <v>588</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J107" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>589</v>
+      </c>
+      <c r="C108" t="s">
+        <v>382</v>
+      </c>
+      <c r="D108" t="s">
+        <v>367</v>
+      </c>
+      <c r="E108" t="s">
+        <v>590</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J108" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>591</v>
+      </c>
+      <c r="C109" t="s">
+        <v>385</v>
+      </c>
+      <c r="D109" t="s">
+        <v>386</v>
+      </c>
+      <c r="E109" t="s">
+        <v>592</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J109" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>593</v>
+      </c>
+      <c r="C110" t="s">
+        <v>366</v>
+      </c>
+      <c r="D110" t="s">
+        <v>367</v>
+      </c>
+      <c r="E110" t="s">
+        <v>594</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J110" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>595</v>
+      </c>
+      <c r="C111" t="s">
+        <v>366</v>
+      </c>
+      <c r="D111" t="s">
+        <v>372</v>
+      </c>
+      <c r="E111" t="s">
+        <v>596</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J111" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>597</v>
+      </c>
+      <c r="C112" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" t="s">
+        <v>376</v>
+      </c>
+      <c r="E112" t="s">
+        <v>598</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J112" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>599</v>
+      </c>
+      <c r="C113" t="s">
+        <v>379</v>
+      </c>
+      <c r="D113" t="s">
+        <v>372</v>
+      </c>
+      <c r="E113" t="s">
+        <v>600</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J113" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>601</v>
+      </c>
+      <c r="C114" t="s">
+        <v>382</v>
+      </c>
+      <c r="D114" t="s">
+        <v>367</v>
+      </c>
+      <c r="E114" t="s">
+        <v>602</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J114" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>603</v>
+      </c>
+      <c r="C115" t="s">
+        <v>385</v>
+      </c>
+      <c r="D115" t="s">
+        <v>386</v>
+      </c>
+      <c r="E115" t="s">
+        <v>604</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J115" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>605</v>
+      </c>
+      <c r="C116" t="s">
+        <v>366</v>
+      </c>
+      <c r="D116" t="s">
+        <v>367</v>
+      </c>
+      <c r="E116" t="s">
+        <v>606</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J116" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>607</v>
+      </c>
+      <c r="C117" t="s">
+        <v>366</v>
+      </c>
+      <c r="D117" t="s">
+        <v>372</v>
+      </c>
+      <c r="E117" t="s">
+        <v>608</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J117" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>609</v>
+      </c>
+      <c r="C118" t="s">
+        <v>375</v>
+      </c>
+      <c r="D118" t="s">
+        <v>376</v>
+      </c>
+      <c r="E118" t="s">
+        <v>610</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J118" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>611</v>
+      </c>
+      <c r="C119" t="s">
+        <v>379</v>
+      </c>
+      <c r="D119" t="s">
+        <v>372</v>
+      </c>
+      <c r="E119" t="s">
+        <v>612</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J119" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>613</v>
+      </c>
+      <c r="C120" t="s">
+        <v>382</v>
+      </c>
+      <c r="D120" t="s">
+        <v>367</v>
+      </c>
+      <c r="E120" t="s">
+        <v>614</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J120" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>615</v>
+      </c>
+      <c r="C121" t="s">
+        <v>385</v>
+      </c>
+      <c r="D121" t="s">
+        <v>386</v>
+      </c>
+      <c r="E121" t="s">
+        <v>616</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J121" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3784,6 +6772,120 @@
     <hyperlink ref="F5" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F61" r:id="rId60"/>
+    <hyperlink ref="F62" r:id="rId61"/>
+    <hyperlink ref="F63" r:id="rId62"/>
+    <hyperlink ref="F64" r:id="rId63"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F66" r:id="rId65"/>
+    <hyperlink ref="F67" r:id="rId66"/>
+    <hyperlink ref="F68" r:id="rId67"/>
+    <hyperlink ref="F69" r:id="rId68"/>
+    <hyperlink ref="F70" r:id="rId69"/>
+    <hyperlink ref="F71" r:id="rId70"/>
+    <hyperlink ref="F72" r:id="rId71"/>
+    <hyperlink ref="F73" r:id="rId72"/>
+    <hyperlink ref="F74" r:id="rId73"/>
+    <hyperlink ref="F75" r:id="rId74"/>
+    <hyperlink ref="F76" r:id="rId75"/>
+    <hyperlink ref="F77" r:id="rId76"/>
+    <hyperlink ref="F78" r:id="rId77"/>
+    <hyperlink ref="F79" r:id="rId78"/>
+    <hyperlink ref="F80" r:id="rId79"/>
+    <hyperlink ref="F81" r:id="rId80"/>
+    <hyperlink ref="F82" r:id="rId81"/>
+    <hyperlink ref="F83" r:id="rId82"/>
+    <hyperlink ref="F84" r:id="rId83"/>
+    <hyperlink ref="F85" r:id="rId84"/>
+    <hyperlink ref="F86" r:id="rId85"/>
+    <hyperlink ref="F87" r:id="rId86"/>
+    <hyperlink ref="F88" r:id="rId87"/>
+    <hyperlink ref="F89" r:id="rId88"/>
+    <hyperlink ref="F90" r:id="rId89"/>
+    <hyperlink ref="F91" r:id="rId90"/>
+    <hyperlink ref="F92" r:id="rId91"/>
+    <hyperlink ref="F93" r:id="rId92"/>
+    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="F95" r:id="rId94"/>
+    <hyperlink ref="F96" r:id="rId95"/>
+    <hyperlink ref="F97" r:id="rId96"/>
+    <hyperlink ref="F98" r:id="rId97"/>
+    <hyperlink ref="F99" r:id="rId98"/>
+    <hyperlink ref="F100" r:id="rId99"/>
+    <hyperlink ref="F101" r:id="rId100"/>
+    <hyperlink ref="F102" r:id="rId101"/>
+    <hyperlink ref="F103" r:id="rId102"/>
+    <hyperlink ref="F104" r:id="rId103"/>
+    <hyperlink ref="F105" r:id="rId104"/>
+    <hyperlink ref="F106" r:id="rId105"/>
+    <hyperlink ref="F107" r:id="rId106"/>
+    <hyperlink ref="F108" r:id="rId107"/>
+    <hyperlink ref="F109" r:id="rId108"/>
+    <hyperlink ref="F110" r:id="rId109"/>
+    <hyperlink ref="F111" r:id="rId110"/>
+    <hyperlink ref="F112" r:id="rId111"/>
+    <hyperlink ref="F113" r:id="rId112"/>
+    <hyperlink ref="F114" r:id="rId113"/>
+    <hyperlink ref="F115" r:id="rId114"/>
+    <hyperlink ref="F116" r:id="rId115"/>
+    <hyperlink ref="F117" r:id="rId116"/>
+    <hyperlink ref="F118" r:id="rId117"/>
+    <hyperlink ref="F119" r:id="rId118"/>
+    <hyperlink ref="F120" r:id="rId119"/>
+    <hyperlink ref="F121" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="424">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,7 +1127,7 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_300x600</t>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_300x600</t>
   </si>
   <si>
     <t>300</t>
@@ -1136,25 +1136,25 @@
     <t>600</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=300x600&amp;tc_alt=140145" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140145&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=300x600&amp;tc_alt=143236" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143236&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://formscloud.iese.edu/landings-mim/</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_300x250</t>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_300x250</t>
   </si>
   <si>
     <t>250</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=300x250&amp;tc_alt=140146" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140146&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_320x100</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=300x250&amp;tc_alt=143237" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143237&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_320x100</t>
   </si>
   <si>
     <t>320</t>
@@ -1163,28 +1163,28 @@
     <t>100</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=320x100&amp;tc_alt=140147" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140147&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_970x250</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=320x100&amp;tc_alt=143238" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143238&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_970x250</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=970x250&amp;tc_alt=140148" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140148&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_160x600</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=970x250&amp;tc_alt=143239" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143239&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_160x600</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=160x600&amp;tc_alt=140149" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140149&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_728x90</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=160x600&amp;tc_alt=143240" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143240&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_728x90</t>
   </si>
   <si>
     <t>728</t>
@@ -1193,694 +1193,115 @@
     <t>90</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=728x90&amp;tc_alt=140150" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140150&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=300x600&amp;tc_alt=140151" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140151&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=300x250&amp;tc_alt=140152" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140152&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=320x100&amp;tc_alt=140153" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140153&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=970x250&amp;tc_alt=140154" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140154&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=160x600&amp;tc_alt=140155" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140155&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=728x90&amp;tc_alt=140156" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140156&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=300x600&amp;tc_alt=140157" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140157&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=300x250&amp;tc_alt=140158" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140158&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=320x100&amp;tc_alt=140159" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140159&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=970x250&amp;tc_alt=140160" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140160&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=160x600&amp;tc_alt=140161" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140161&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=728x90&amp;tc_alt=140162" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140162&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=300x600&amp;tc_alt=140163" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140163&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=300x250&amp;tc_alt=140164" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140164&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=320x100&amp;tc_alt=140165" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140165&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=970x250&amp;tc_alt=140166" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140166&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=160x600&amp;tc_alt=140167" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140167&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=728x90&amp;tc_alt=140168" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140168&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=300x600&amp;tc_alt=140169" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140169&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=300x250&amp;tc_alt=140170" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140170&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=320x100&amp;tc_alt=140171" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140171&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=970x250&amp;tc_alt=140172" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140172&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=160x600&amp;tc_alt=140173" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140173&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=728x90&amp;tc_alt=140174" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140174&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=300x600&amp;tc_alt=140175" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140175&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=300x250&amp;tc_alt=140176" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140176&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=320x100&amp;tc_alt=140177" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140177&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=970x250&amp;tc_alt=140178" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140178&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=160x600&amp;tc_alt=140179" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140179&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=728x90&amp;tc_alt=140180" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140180&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=300x600&amp;tc_alt=140181" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140181&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=300x250&amp;tc_alt=140182" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140182&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=320x100&amp;tc_alt=140183" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140183&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=970x250&amp;tc_alt=140184" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140184&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=160x600&amp;tc_alt=140185" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140185&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=728x90&amp;tc_alt=140186" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140186&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=300x600&amp;tc_alt=140187" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140187&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=300x250&amp;tc_alt=140188" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140188&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=320x100&amp;tc_alt=140189" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140189&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=970x250&amp;tc_alt=140190" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140190&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=160x600&amp;tc_alt=140191" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140191&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=728x90&amp;tc_alt=140192" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140192&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=300x600&amp;tc_alt=140193" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140193&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=300x250&amp;tc_alt=140194" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140194&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=320x100&amp;tc_alt=140195" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140195&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=970x250&amp;tc_alt=140196" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140196&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=160x600&amp;tc_alt=140197" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140197&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=728x90&amp;tc_alt=140198" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140198&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=300x600&amp;tc_alt=140199" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140199&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=300x250&amp;tc_alt=140200" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140200&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=320x100&amp;tc_alt=140201" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140201&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=970x250&amp;tc_alt=140202" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140202&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=160x600&amp;tc_alt=140203" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140203&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=728x90&amp;tc_alt=140204" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140204&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=300x600&amp;tc_alt=140205" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140205&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=300x250&amp;tc_alt=140206" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140206&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=320x100&amp;tc_alt=140207" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140207&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=970x250&amp;tc_alt=140208" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140208&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=160x600&amp;tc_alt=140209" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140209&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=728x90&amp;tc_alt=140210" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140210&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=300x600&amp;tc_alt=140211" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140211&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=300x250&amp;tc_alt=140212" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140212&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=320x100&amp;tc_alt=140213" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140213&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=970x250&amp;tc_alt=140214" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140214&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=160x600&amp;tc_alt=140215" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140215&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=728x90&amp;tc_alt=140216" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140216&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=300x600&amp;tc_alt=140217" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140217&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=300x250&amp;tc_alt=140218" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140218&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=320x100&amp;tc_alt=140219" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140219&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=970x250&amp;tc_alt=140220" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140220&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=160x600&amp;tc_alt=140221" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140221&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=728x90&amp;tc_alt=140222" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140222&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=300x600&amp;tc_alt=140223" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140223&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=300x250&amp;tc_alt=140224" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140224&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=320x100&amp;tc_alt=140225" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140225&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=970x250&amp;tc_alt=140226" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140226&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=160x600&amp;tc_alt=140227" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140227&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=728x90&amp;tc_alt=140228" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140228&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=300x600&amp;tc_alt=140229" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140229&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=300x250&amp;tc_alt=140230" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140230&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=320x100&amp;tc_alt=140231" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140231&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=970x250&amp;tc_alt=140232" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140232&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=160x600&amp;tc_alt=140233" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140233&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=728x90&amp;tc_alt=140234" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140234&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=300x600&amp;tc_alt=140235" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140235&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=300x250&amp;tc_alt=140236" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140236&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=320x100&amp;tc_alt=140237" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140237&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=970x250&amp;tc_alt=140238" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140238&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=160x600&amp;tc_alt=140239" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140239&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=728x90&amp;tc_alt=140240" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140240&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=300x600&amp;tc_alt=140241" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140241&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=300x250&amp;tc_alt=140242" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140242&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=320x100&amp;tc_alt=140243" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140243&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=970x250&amp;tc_alt=140244" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140244&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=160x600&amp;tc_alt=140245" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140245&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=728x90&amp;tc_alt=140246" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140246&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=300x600&amp;tc_alt=140247" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140247&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=300x250&amp;tc_alt=140248" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140248&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=320x100&amp;tc_alt=140249" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140249&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=970x250&amp;tc_alt=140250" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140250&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=160x600&amp;tc_alt=140251" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140251&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=728x90&amp;tc_alt=140252" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140252&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=300x600&amp;tc_alt=140253" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140253&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=300x250&amp;tc_alt=140254" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140254&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=320x100&amp;tc_alt=140255" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140255&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=970x250&amp;tc_alt=140256" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140256&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=160x600&amp;tc_alt=140257" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140257&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=728x90&amp;tc_alt=140258" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140258&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=300x600&amp;tc_alt=140259" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140259&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=300x250&amp;tc_alt=140260" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140260&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=320x100&amp;tc_alt=140261" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140261&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=970x250&amp;tc_alt=140262" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140262&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=160x600&amp;tc_alt=140263" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140263&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=728x90&amp;tc_alt=140264" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140264&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=728x90&amp;tc_alt=143241" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143241&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=300x600&amp;tc_alt=143242" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143242&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=300x250&amp;tc_alt=143243" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143243&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=320x100&amp;tc_alt=143244" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143244&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=970x250&amp;tc_alt=143245" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143245&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=160x600&amp;tc_alt=143246" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143246&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=728x90&amp;tc_alt=143247" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143247&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=300x600&amp;tc_alt=143248" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143248&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=300x250&amp;tc_alt=143249" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143249&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=320x100&amp;tc_alt=143250" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143250&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=970x250&amp;tc_alt=143251" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143251&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=160x600&amp;tc_alt=143252" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143252&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=728x90&amp;tc_alt=143253" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143253&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=300x600&amp;tc_alt=143254" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143254&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=300x250&amp;tc_alt=143255" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143255&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=320x100&amp;tc_alt=143256" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143256&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=970x250&amp;tc_alt=143257" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143257&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=160x600&amp;tc_alt=143258" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143258&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=728x90&amp;tc_alt=143259" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143259&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -4284,7 +3705,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X121"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4498,7 +3919,7 @@
         <v>389</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J8" t="s">
         <v>370</v>
@@ -4506,7 +3927,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
         <v>366</v>
@@ -4515,10 +3936,10 @@
         <v>372</v>
       </c>
       <c r="E9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J9" t="s">
         <v>370</v>
@@ -4526,7 +3947,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
         <v>375</v>
@@ -4535,10 +3956,10 @@
         <v>376</v>
       </c>
       <c r="E10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J10" t="s">
         <v>370</v>
@@ -4546,7 +3967,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C11" t="s">
         <v>379</v>
@@ -4555,10 +3976,10 @@
         <v>372</v>
       </c>
       <c r="E11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J11" t="s">
         <v>370</v>
@@ -4566,7 +3987,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C12" t="s">
         <v>382</v>
@@ -4575,10 +3996,10 @@
         <v>367</v>
       </c>
       <c r="E12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J12" t="s">
         <v>370</v>
@@ -4586,7 +4007,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
         <v>385</v>
@@ -4595,10 +4016,10 @@
         <v>386</v>
       </c>
       <c r="E13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J13" t="s">
         <v>370</v>
@@ -4606,7 +4027,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>366</v>
@@ -4615,7 +4036,7 @@
         <v>367</v>
       </c>
       <c r="E14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>369</v>
@@ -4626,7 +4047,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C15" t="s">
         <v>366</v>
@@ -4635,7 +4056,7 @@
         <v>372</v>
       </c>
       <c r="E15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>369</v>
@@ -4646,7 +4067,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
         <v>375</v>
@@ -4655,7 +4076,7 @@
         <v>376</v>
       </c>
       <c r="E16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>369</v>
@@ -4666,7 +4087,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C17" t="s">
         <v>379</v>
@@ -4675,7 +4096,7 @@
         <v>372</v>
       </c>
       <c r="E17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>369</v>
@@ -4686,7 +4107,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C18" t="s">
         <v>382</v>
@@ -4695,7 +4116,7 @@
         <v>367</v>
       </c>
       <c r="E18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>369</v>
@@ -4706,7 +4127,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C19" t="s">
         <v>385</v>
@@ -4715,7 +4136,7 @@
         <v>386</v>
       </c>
       <c r="E19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>369</v>
@@ -4726,7 +4147,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C20" t="s">
         <v>366</v>
@@ -4735,10 +4156,10 @@
         <v>367</v>
       </c>
       <c r="E20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J20" t="s">
         <v>370</v>
@@ -4746,7 +4167,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C21" t="s">
         <v>366</v>
@@ -4755,10 +4176,10 @@
         <v>372</v>
       </c>
       <c r="E21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J21" t="s">
         <v>370</v>
@@ -4766,7 +4187,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
         <v>375</v>
@@ -4775,10 +4196,10 @@
         <v>376</v>
       </c>
       <c r="E22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J22" t="s">
         <v>370</v>
@@ -4786,7 +4207,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C23" t="s">
         <v>379</v>
@@ -4795,10 +4216,10 @@
         <v>372</v>
       </c>
       <c r="E23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J23" t="s">
         <v>370</v>
@@ -4806,7 +4227,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C24" t="s">
         <v>382</v>
@@ -4815,10 +4236,10 @@
         <v>367</v>
       </c>
       <c r="E24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J24" t="s">
         <v>370</v>
@@ -4826,7 +4247,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C25" t="s">
         <v>385</v>
@@ -4835,1932 +4256,12 @@
         <v>386</v>
       </c>
       <c r="E25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>425</v>
-      </c>
-      <c r="C26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D26" t="s">
-        <v>367</v>
-      </c>
-      <c r="E26" t="s">
-        <v>426</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>427</v>
-      </c>
-      <c r="C27" t="s">
-        <v>366</v>
-      </c>
-      <c r="D27" t="s">
-        <v>372</v>
-      </c>
-      <c r="E27" t="s">
-        <v>428</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>429</v>
-      </c>
-      <c r="C28" t="s">
-        <v>375</v>
-      </c>
-      <c r="D28" t="s">
-        <v>376</v>
-      </c>
-      <c r="E28" t="s">
-        <v>430</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J28" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>431</v>
-      </c>
-      <c r="C29" t="s">
-        <v>379</v>
-      </c>
-      <c r="D29" t="s">
-        <v>372</v>
-      </c>
-      <c r="E29" t="s">
-        <v>432</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J29" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>433</v>
-      </c>
-      <c r="C30" t="s">
-        <v>382</v>
-      </c>
-      <c r="D30" t="s">
-        <v>367</v>
-      </c>
-      <c r="E30" t="s">
-        <v>434</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>435</v>
-      </c>
-      <c r="C31" t="s">
-        <v>385</v>
-      </c>
-      <c r="D31" t="s">
-        <v>386</v>
-      </c>
-      <c r="E31" t="s">
-        <v>436</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>437</v>
-      </c>
-      <c r="C32" t="s">
-        <v>366</v>
-      </c>
-      <c r="D32" t="s">
-        <v>367</v>
-      </c>
-      <c r="E32" t="s">
-        <v>438</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J32" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>439</v>
-      </c>
-      <c r="C33" t="s">
-        <v>366</v>
-      </c>
-      <c r="D33" t="s">
-        <v>372</v>
-      </c>
-      <c r="E33" t="s">
-        <v>440</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J33" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>441</v>
-      </c>
-      <c r="C34" t="s">
-        <v>375</v>
-      </c>
-      <c r="D34" t="s">
-        <v>376</v>
-      </c>
-      <c r="E34" t="s">
-        <v>442</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J34" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>443</v>
-      </c>
-      <c r="C35" t="s">
-        <v>379</v>
-      </c>
-      <c r="D35" t="s">
-        <v>372</v>
-      </c>
-      <c r="E35" t="s">
-        <v>444</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J35" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>445</v>
-      </c>
-      <c r="C36" t="s">
-        <v>382</v>
-      </c>
-      <c r="D36" t="s">
-        <v>367</v>
-      </c>
-      <c r="E36" t="s">
-        <v>446</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J36" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>447</v>
-      </c>
-      <c r="C37" t="s">
-        <v>385</v>
-      </c>
-      <c r="D37" t="s">
-        <v>386</v>
-      </c>
-      <c r="E37" t="s">
-        <v>448</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J37" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>449</v>
-      </c>
-      <c r="C38" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" t="s">
-        <v>367</v>
-      </c>
-      <c r="E38" t="s">
-        <v>450</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J38" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>451</v>
-      </c>
-      <c r="C39" t="s">
-        <v>366</v>
-      </c>
-      <c r="D39" t="s">
-        <v>372</v>
-      </c>
-      <c r="E39" t="s">
-        <v>452</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>453</v>
-      </c>
-      <c r="C40" t="s">
-        <v>375</v>
-      </c>
-      <c r="D40" t="s">
-        <v>376</v>
-      </c>
-      <c r="E40" t="s">
-        <v>454</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J40" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>455</v>
-      </c>
-      <c r="C41" t="s">
-        <v>379</v>
-      </c>
-      <c r="D41" t="s">
-        <v>372</v>
-      </c>
-      <c r="E41" t="s">
-        <v>456</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J41" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>457</v>
-      </c>
-      <c r="C42" t="s">
-        <v>382</v>
-      </c>
-      <c r="D42" t="s">
-        <v>367</v>
-      </c>
-      <c r="E42" t="s">
-        <v>458</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J42" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>459</v>
-      </c>
-      <c r="C43" t="s">
-        <v>385</v>
-      </c>
-      <c r="D43" t="s">
-        <v>386</v>
-      </c>
-      <c r="E43" t="s">
-        <v>460</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J43" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>461</v>
-      </c>
-      <c r="C44" t="s">
-        <v>366</v>
-      </c>
-      <c r="D44" t="s">
-        <v>367</v>
-      </c>
-      <c r="E44" t="s">
-        <v>462</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J44" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>463</v>
-      </c>
-      <c r="C45" t="s">
-        <v>366</v>
-      </c>
-      <c r="D45" t="s">
-        <v>372</v>
-      </c>
-      <c r="E45" t="s">
-        <v>464</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J45" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>465</v>
-      </c>
-      <c r="C46" t="s">
-        <v>375</v>
-      </c>
-      <c r="D46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E46" t="s">
-        <v>466</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J46" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>467</v>
-      </c>
-      <c r="C47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D47" t="s">
-        <v>372</v>
-      </c>
-      <c r="E47" t="s">
-        <v>468</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J47" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>469</v>
-      </c>
-      <c r="C48" t="s">
-        <v>382</v>
-      </c>
-      <c r="D48" t="s">
-        <v>367</v>
-      </c>
-      <c r="E48" t="s">
-        <v>470</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>471</v>
-      </c>
-      <c r="C49" t="s">
-        <v>385</v>
-      </c>
-      <c r="D49" t="s">
-        <v>386</v>
-      </c>
-      <c r="E49" t="s">
-        <v>472</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>473</v>
-      </c>
-      <c r="C50" t="s">
-        <v>366</v>
-      </c>
-      <c r="D50" t="s">
-        <v>367</v>
-      </c>
-      <c r="E50" t="s">
-        <v>474</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J50" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>475</v>
-      </c>
-      <c r="C51" t="s">
-        <v>366</v>
-      </c>
-      <c r="D51" t="s">
-        <v>372</v>
-      </c>
-      <c r="E51" t="s">
-        <v>476</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J51" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>477</v>
-      </c>
-      <c r="C52" t="s">
-        <v>375</v>
-      </c>
-      <c r="D52" t="s">
-        <v>376</v>
-      </c>
-      <c r="E52" t="s">
-        <v>478</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J52" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>479</v>
-      </c>
-      <c r="C53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D53" t="s">
-        <v>372</v>
-      </c>
-      <c r="E53" t="s">
-        <v>480</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J53" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>481</v>
-      </c>
-      <c r="C54" t="s">
-        <v>382</v>
-      </c>
-      <c r="D54" t="s">
-        <v>367</v>
-      </c>
-      <c r="E54" t="s">
-        <v>482</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J54" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="s">
-        <v>483</v>
-      </c>
-      <c r="C55" t="s">
-        <v>385</v>
-      </c>
-      <c r="D55" t="s">
-        <v>386</v>
-      </c>
-      <c r="E55" t="s">
-        <v>484</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J55" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>485</v>
-      </c>
-      <c r="C56" t="s">
-        <v>366</v>
-      </c>
-      <c r="D56" t="s">
-        <v>367</v>
-      </c>
-      <c r="E56" t="s">
-        <v>486</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J56" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>487</v>
-      </c>
-      <c r="C57" t="s">
-        <v>366</v>
-      </c>
-      <c r="D57" t="s">
-        <v>372</v>
-      </c>
-      <c r="E57" t="s">
-        <v>488</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J57" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>489</v>
-      </c>
-      <c r="C58" t="s">
-        <v>375</v>
-      </c>
-      <c r="D58" t="s">
-        <v>376</v>
-      </c>
-      <c r="E58" t="s">
-        <v>490</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J58" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>491</v>
-      </c>
-      <c r="C59" t="s">
-        <v>379</v>
-      </c>
-      <c r="D59" t="s">
-        <v>372</v>
-      </c>
-      <c r="E59" t="s">
-        <v>492</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J59" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>493</v>
-      </c>
-      <c r="C60" t="s">
-        <v>382</v>
-      </c>
-      <c r="D60" t="s">
-        <v>367</v>
-      </c>
-      <c r="E60" t="s">
-        <v>494</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J60" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>495</v>
-      </c>
-      <c r="C61" t="s">
-        <v>385</v>
-      </c>
-      <c r="D61" t="s">
-        <v>386</v>
-      </c>
-      <c r="E61" t="s">
-        <v>496</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J61" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>497</v>
-      </c>
-      <c r="C62" t="s">
-        <v>366</v>
-      </c>
-      <c r="D62" t="s">
-        <v>367</v>
-      </c>
-      <c r="E62" t="s">
-        <v>498</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J62" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>499</v>
-      </c>
-      <c r="C63" t="s">
-        <v>366</v>
-      </c>
-      <c r="D63" t="s">
-        <v>372</v>
-      </c>
-      <c r="E63" t="s">
-        <v>500</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J63" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
-        <v>501</v>
-      </c>
-      <c r="C64" t="s">
-        <v>375</v>
-      </c>
-      <c r="D64" t="s">
-        <v>376</v>
-      </c>
-      <c r="E64" t="s">
-        <v>502</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J64" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
-        <v>503</v>
-      </c>
-      <c r="C65" t="s">
-        <v>379</v>
-      </c>
-      <c r="D65" t="s">
-        <v>372</v>
-      </c>
-      <c r="E65" t="s">
-        <v>504</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J65" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>505</v>
-      </c>
-      <c r="C66" t="s">
-        <v>382</v>
-      </c>
-      <c r="D66" t="s">
-        <v>367</v>
-      </c>
-      <c r="E66" t="s">
-        <v>506</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J66" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>507</v>
-      </c>
-      <c r="C67" t="s">
-        <v>385</v>
-      </c>
-      <c r="D67" t="s">
-        <v>386</v>
-      </c>
-      <c r="E67" t="s">
-        <v>508</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J67" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
-        <v>509</v>
-      </c>
-      <c r="C68" t="s">
-        <v>366</v>
-      </c>
-      <c r="D68" t="s">
-        <v>367</v>
-      </c>
-      <c r="E68" t="s">
-        <v>510</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J68" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>511</v>
-      </c>
-      <c r="C69" t="s">
-        <v>366</v>
-      </c>
-      <c r="D69" t="s">
-        <v>372</v>
-      </c>
-      <c r="E69" t="s">
-        <v>512</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J69" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>513</v>
-      </c>
-      <c r="C70" t="s">
-        <v>375</v>
-      </c>
-      <c r="D70" t="s">
-        <v>376</v>
-      </c>
-      <c r="E70" t="s">
-        <v>514</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J70" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>515</v>
-      </c>
-      <c r="C71" t="s">
-        <v>379</v>
-      </c>
-      <c r="D71" t="s">
-        <v>372</v>
-      </c>
-      <c r="E71" t="s">
-        <v>516</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J71" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="s">
-        <v>517</v>
-      </c>
-      <c r="C72" t="s">
-        <v>382</v>
-      </c>
-      <c r="D72" t="s">
-        <v>367</v>
-      </c>
-      <c r="E72" t="s">
-        <v>518</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J72" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" t="s">
-        <v>519</v>
-      </c>
-      <c r="C73" t="s">
-        <v>385</v>
-      </c>
-      <c r="D73" t="s">
-        <v>386</v>
-      </c>
-      <c r="E73" t="s">
-        <v>520</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J73" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" t="s">
-        <v>521</v>
-      </c>
-      <c r="C74" t="s">
-        <v>366</v>
-      </c>
-      <c r="D74" t="s">
-        <v>367</v>
-      </c>
-      <c r="E74" t="s">
-        <v>522</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J74" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="s">
-        <v>523</v>
-      </c>
-      <c r="C75" t="s">
-        <v>366</v>
-      </c>
-      <c r="D75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E75" t="s">
-        <v>524</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J75" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" t="s">
-        <v>525</v>
-      </c>
-      <c r="C76" t="s">
-        <v>375</v>
-      </c>
-      <c r="D76" t="s">
-        <v>376</v>
-      </c>
-      <c r="E76" t="s">
-        <v>526</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J76" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" t="s">
-        <v>527</v>
-      </c>
-      <c r="C77" t="s">
-        <v>379</v>
-      </c>
-      <c r="D77" t="s">
-        <v>372</v>
-      </c>
-      <c r="E77" t="s">
-        <v>528</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J77" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>529</v>
-      </c>
-      <c r="C78" t="s">
-        <v>382</v>
-      </c>
-      <c r="D78" t="s">
-        <v>367</v>
-      </c>
-      <c r="E78" t="s">
-        <v>530</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>531</v>
-      </c>
-      <c r="C79" t="s">
-        <v>385</v>
-      </c>
-      <c r="D79" t="s">
-        <v>386</v>
-      </c>
-      <c r="E79" t="s">
-        <v>532</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J79" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>533</v>
-      </c>
-      <c r="C80" t="s">
-        <v>366</v>
-      </c>
-      <c r="D80" t="s">
-        <v>367</v>
-      </c>
-      <c r="E80" t="s">
-        <v>534</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J80" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" t="s">
-        <v>535</v>
-      </c>
-      <c r="C81" t="s">
-        <v>366</v>
-      </c>
-      <c r="D81" t="s">
-        <v>372</v>
-      </c>
-      <c r="E81" t="s">
-        <v>536</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J81" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" t="s">
-        <v>537</v>
-      </c>
-      <c r="C82" t="s">
-        <v>375</v>
-      </c>
-      <c r="D82" t="s">
-        <v>376</v>
-      </c>
-      <c r="E82" t="s">
-        <v>538</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J82" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" t="s">
-        <v>539</v>
-      </c>
-      <c r="C83" t="s">
-        <v>379</v>
-      </c>
-      <c r="D83" t="s">
-        <v>372</v>
-      </c>
-      <c r="E83" t="s">
-        <v>540</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J83" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" t="s">
-        <v>541</v>
-      </c>
-      <c r="C84" t="s">
-        <v>382</v>
-      </c>
-      <c r="D84" t="s">
-        <v>367</v>
-      </c>
-      <c r="E84" t="s">
-        <v>542</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J84" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="s">
-        <v>543</v>
-      </c>
-      <c r="C85" t="s">
-        <v>385</v>
-      </c>
-      <c r="D85" t="s">
-        <v>386</v>
-      </c>
-      <c r="E85" t="s">
-        <v>544</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J85" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" t="s">
-        <v>545</v>
-      </c>
-      <c r="C86" t="s">
-        <v>366</v>
-      </c>
-      <c r="D86" t="s">
-        <v>367</v>
-      </c>
-      <c r="E86" t="s">
-        <v>546</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J86" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" t="s">
-        <v>547</v>
-      </c>
-      <c r="C87" t="s">
-        <v>366</v>
-      </c>
-      <c r="D87" t="s">
-        <v>372</v>
-      </c>
-      <c r="E87" t="s">
-        <v>548</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J87" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>549</v>
-      </c>
-      <c r="C88" t="s">
-        <v>375</v>
-      </c>
-      <c r="D88" t="s">
-        <v>376</v>
-      </c>
-      <c r="E88" t="s">
-        <v>550</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J88" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" t="s">
-        <v>551</v>
-      </c>
-      <c r="C89" t="s">
-        <v>379</v>
-      </c>
-      <c r="D89" t="s">
-        <v>372</v>
-      </c>
-      <c r="E89" t="s">
-        <v>552</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J89" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" t="s">
-        <v>553</v>
-      </c>
-      <c r="C90" t="s">
-        <v>382</v>
-      </c>
-      <c r="D90" t="s">
-        <v>367</v>
-      </c>
-      <c r="E90" t="s">
-        <v>554</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J90" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" t="s">
-        <v>555</v>
-      </c>
-      <c r="C91" t="s">
-        <v>385</v>
-      </c>
-      <c r="D91" t="s">
-        <v>386</v>
-      </c>
-      <c r="E91" t="s">
-        <v>556</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J91" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" t="s">
-        <v>557</v>
-      </c>
-      <c r="C92" t="s">
-        <v>366</v>
-      </c>
-      <c r="D92" t="s">
-        <v>367</v>
-      </c>
-      <c r="E92" t="s">
-        <v>558</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J92" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>559</v>
-      </c>
-      <c r="C93" t="s">
-        <v>366</v>
-      </c>
-      <c r="D93" t="s">
-        <v>372</v>
-      </c>
-      <c r="E93" t="s">
-        <v>560</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J93" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" t="s">
-        <v>561</v>
-      </c>
-      <c r="C94" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" t="s">
-        <v>376</v>
-      </c>
-      <c r="E94" t="s">
-        <v>562</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J94" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" t="s">
-        <v>563</v>
-      </c>
-      <c r="C95" t="s">
-        <v>379</v>
-      </c>
-      <c r="D95" t="s">
-        <v>372</v>
-      </c>
-      <c r="E95" t="s">
-        <v>564</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J95" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" t="s">
-        <v>565</v>
-      </c>
-      <c r="C96" t="s">
-        <v>382</v>
-      </c>
-      <c r="D96" t="s">
-        <v>367</v>
-      </c>
-      <c r="E96" t="s">
-        <v>566</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J96" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" t="s">
-        <v>567</v>
-      </c>
-      <c r="C97" t="s">
-        <v>385</v>
-      </c>
-      <c r="D97" t="s">
-        <v>386</v>
-      </c>
-      <c r="E97" t="s">
-        <v>568</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J97" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" t="s">
-        <v>569</v>
-      </c>
-      <c r="C98" t="s">
-        <v>366</v>
-      </c>
-      <c r="D98" t="s">
-        <v>367</v>
-      </c>
-      <c r="E98" t="s">
-        <v>570</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J98" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" t="s">
-        <v>571</v>
-      </c>
-      <c r="C99" t="s">
-        <v>366</v>
-      </c>
-      <c r="D99" t="s">
-        <v>372</v>
-      </c>
-      <c r="E99" t="s">
-        <v>572</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J99" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" t="s">
-        <v>573</v>
-      </c>
-      <c r="C100" t="s">
-        <v>375</v>
-      </c>
-      <c r="D100" t="s">
-        <v>376</v>
-      </c>
-      <c r="E100" t="s">
-        <v>574</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J100" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" t="s">
-        <v>575</v>
-      </c>
-      <c r="C101" t="s">
-        <v>379</v>
-      </c>
-      <c r="D101" t="s">
-        <v>372</v>
-      </c>
-      <c r="E101" t="s">
-        <v>576</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J101" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" t="s">
-        <v>577</v>
-      </c>
-      <c r="C102" t="s">
-        <v>382</v>
-      </c>
-      <c r="D102" t="s">
-        <v>367</v>
-      </c>
-      <c r="E102" t="s">
-        <v>578</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J102" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" t="s">
-        <v>579</v>
-      </c>
-      <c r="C103" t="s">
-        <v>385</v>
-      </c>
-      <c r="D103" t="s">
-        <v>386</v>
-      </c>
-      <c r="E103" t="s">
-        <v>580</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J103" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" t="s">
-        <v>581</v>
-      </c>
-      <c r="C104" t="s">
-        <v>366</v>
-      </c>
-      <c r="D104" t="s">
-        <v>367</v>
-      </c>
-      <c r="E104" t="s">
-        <v>582</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J104" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105" t="s">
-        <v>583</v>
-      </c>
-      <c r="C105" t="s">
-        <v>366</v>
-      </c>
-      <c r="D105" t="s">
-        <v>372</v>
-      </c>
-      <c r="E105" t="s">
-        <v>584</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J105" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" t="s">
-        <v>585</v>
-      </c>
-      <c r="C106" t="s">
-        <v>375</v>
-      </c>
-      <c r="D106" t="s">
-        <v>376</v>
-      </c>
-      <c r="E106" t="s">
-        <v>586</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J106" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" t="s">
-        <v>587</v>
-      </c>
-      <c r="C107" t="s">
-        <v>379</v>
-      </c>
-      <c r="D107" t="s">
-        <v>372</v>
-      </c>
-      <c r="E107" t="s">
-        <v>588</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J107" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" t="s">
-        <v>589</v>
-      </c>
-      <c r="C108" t="s">
-        <v>382</v>
-      </c>
-      <c r="D108" t="s">
-        <v>367</v>
-      </c>
-      <c r="E108" t="s">
-        <v>590</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J108" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" t="s">
-        <v>591</v>
-      </c>
-      <c r="C109" t="s">
-        <v>385</v>
-      </c>
-      <c r="D109" t="s">
-        <v>386</v>
-      </c>
-      <c r="E109" t="s">
-        <v>592</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J109" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" t="s">
-        <v>593</v>
-      </c>
-      <c r="C110" t="s">
-        <v>366</v>
-      </c>
-      <c r="D110" t="s">
-        <v>367</v>
-      </c>
-      <c r="E110" t="s">
-        <v>594</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J110" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" t="s">
-        <v>595</v>
-      </c>
-      <c r="C111" t="s">
-        <v>366</v>
-      </c>
-      <c r="D111" t="s">
-        <v>372</v>
-      </c>
-      <c r="E111" t="s">
-        <v>596</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J111" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>597</v>
-      </c>
-      <c r="C112" t="s">
-        <v>375</v>
-      </c>
-      <c r="D112" t="s">
-        <v>376</v>
-      </c>
-      <c r="E112" t="s">
-        <v>598</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J112" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" t="s">
-        <v>599</v>
-      </c>
-      <c r="C113" t="s">
-        <v>379</v>
-      </c>
-      <c r="D113" t="s">
-        <v>372</v>
-      </c>
-      <c r="E113" t="s">
-        <v>600</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J113" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" t="s">
-        <v>601</v>
-      </c>
-      <c r="C114" t="s">
-        <v>382</v>
-      </c>
-      <c r="D114" t="s">
-        <v>367</v>
-      </c>
-      <c r="E114" t="s">
-        <v>602</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J114" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" t="s">
-        <v>603</v>
-      </c>
-      <c r="C115" t="s">
-        <v>385</v>
-      </c>
-      <c r="D115" t="s">
-        <v>386</v>
-      </c>
-      <c r="E115" t="s">
-        <v>604</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J115" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" t="s">
-        <v>605</v>
-      </c>
-      <c r="C116" t="s">
-        <v>366</v>
-      </c>
-      <c r="D116" t="s">
-        <v>367</v>
-      </c>
-      <c r="E116" t="s">
-        <v>606</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J116" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" t="s">
-        <v>607</v>
-      </c>
-      <c r="C117" t="s">
-        <v>366</v>
-      </c>
-      <c r="D117" t="s">
-        <v>372</v>
-      </c>
-      <c r="E117" t="s">
-        <v>608</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J117" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="A118" t="s">
-        <v>609</v>
-      </c>
-      <c r="C118" t="s">
-        <v>375</v>
-      </c>
-      <c r="D118" t="s">
-        <v>376</v>
-      </c>
-      <c r="E118" t="s">
-        <v>610</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J118" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119" t="s">
-        <v>611</v>
-      </c>
-      <c r="C119" t="s">
-        <v>379</v>
-      </c>
-      <c r="D119" t="s">
-        <v>372</v>
-      </c>
-      <c r="E119" t="s">
-        <v>612</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J119" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" t="s">
-        <v>613</v>
-      </c>
-      <c r="C120" t="s">
-        <v>382</v>
-      </c>
-      <c r="D120" t="s">
-        <v>367</v>
-      </c>
-      <c r="E120" t="s">
-        <v>614</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J120" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" t="s">
-        <v>615</v>
-      </c>
-      <c r="C121" t="s">
-        <v>385</v>
-      </c>
-      <c r="D121" t="s">
-        <v>386</v>
-      </c>
-      <c r="E121" t="s">
-        <v>616</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J121" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6790,102 +4291,6 @@
     <hyperlink ref="F23" r:id="rId22"/>
     <hyperlink ref="F24" r:id="rId23"/>
     <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
-    <hyperlink ref="F59" r:id="rId58"/>
-    <hyperlink ref="F60" r:id="rId59"/>
-    <hyperlink ref="F61" r:id="rId60"/>
-    <hyperlink ref="F62" r:id="rId61"/>
-    <hyperlink ref="F63" r:id="rId62"/>
-    <hyperlink ref="F64" r:id="rId63"/>
-    <hyperlink ref="F65" r:id="rId64"/>
-    <hyperlink ref="F66" r:id="rId65"/>
-    <hyperlink ref="F67" r:id="rId66"/>
-    <hyperlink ref="F68" r:id="rId67"/>
-    <hyperlink ref="F69" r:id="rId68"/>
-    <hyperlink ref="F70" r:id="rId69"/>
-    <hyperlink ref="F71" r:id="rId70"/>
-    <hyperlink ref="F72" r:id="rId71"/>
-    <hyperlink ref="F73" r:id="rId72"/>
-    <hyperlink ref="F74" r:id="rId73"/>
-    <hyperlink ref="F75" r:id="rId74"/>
-    <hyperlink ref="F76" r:id="rId75"/>
-    <hyperlink ref="F77" r:id="rId76"/>
-    <hyperlink ref="F78" r:id="rId77"/>
-    <hyperlink ref="F79" r:id="rId78"/>
-    <hyperlink ref="F80" r:id="rId79"/>
-    <hyperlink ref="F81" r:id="rId80"/>
-    <hyperlink ref="F82" r:id="rId81"/>
-    <hyperlink ref="F83" r:id="rId82"/>
-    <hyperlink ref="F84" r:id="rId83"/>
-    <hyperlink ref="F85" r:id="rId84"/>
-    <hyperlink ref="F86" r:id="rId85"/>
-    <hyperlink ref="F87" r:id="rId86"/>
-    <hyperlink ref="F88" r:id="rId87"/>
-    <hyperlink ref="F89" r:id="rId88"/>
-    <hyperlink ref="F90" r:id="rId89"/>
-    <hyperlink ref="F91" r:id="rId90"/>
-    <hyperlink ref="F92" r:id="rId91"/>
-    <hyperlink ref="F93" r:id="rId92"/>
-    <hyperlink ref="F94" r:id="rId93"/>
-    <hyperlink ref="F95" r:id="rId94"/>
-    <hyperlink ref="F96" r:id="rId95"/>
-    <hyperlink ref="F97" r:id="rId96"/>
-    <hyperlink ref="F98" r:id="rId97"/>
-    <hyperlink ref="F99" r:id="rId98"/>
-    <hyperlink ref="F100" r:id="rId99"/>
-    <hyperlink ref="F101" r:id="rId100"/>
-    <hyperlink ref="F102" r:id="rId101"/>
-    <hyperlink ref="F103" r:id="rId102"/>
-    <hyperlink ref="F104" r:id="rId103"/>
-    <hyperlink ref="F105" r:id="rId104"/>
-    <hyperlink ref="F106" r:id="rId105"/>
-    <hyperlink ref="F107" r:id="rId106"/>
-    <hyperlink ref="F108" r:id="rId107"/>
-    <hyperlink ref="F109" r:id="rId108"/>
-    <hyperlink ref="F110" r:id="rId109"/>
-    <hyperlink ref="F111" r:id="rId110"/>
-    <hyperlink ref="F112" r:id="rId111"/>
-    <hyperlink ref="F113" r:id="rId112"/>
-    <hyperlink ref="F114" r:id="rId113"/>
-    <hyperlink ref="F115" r:id="rId114"/>
-    <hyperlink ref="F116" r:id="rId115"/>
-    <hyperlink ref="F117" r:id="rId116"/>
-    <hyperlink ref="F118" r:id="rId117"/>
-    <hyperlink ref="F119" r:id="rId118"/>
-    <hyperlink ref="F120" r:id="rId119"/>
-    <hyperlink ref="F121" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="388">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,34 +1127,64 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_300x600</t>
+    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_160x600</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://wonders.com/ES/es/newsletter</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_300x250</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=300x600&amp;tc_alt=143236" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143236&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://formscloud.iese.edu/landings-mim/</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_300x250</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=300x250&amp;tc_alt=143237" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143237&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_320x100</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_970x250</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_728x90</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_320x100</t>
   </si>
   <si>
     <t>320</t>
@@ -1163,145 +1193,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=320x100&amp;tc_alt=143238" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143238&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_970x250</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=970x250&amp;tc_alt=143239" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143239&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_160x600</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=160x600&amp;tc_alt=143240" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143240&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V1_728x90</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version1&amp;utm_content=728x90&amp;tc_alt=143241" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143241&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=300x600&amp;tc_alt=143242" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143242&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=300x250&amp;tc_alt=143243" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143243&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=320x100&amp;tc_alt=143244" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143244&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=970x250&amp;tc_alt=143245" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143245&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=160x600&amp;tc_alt=143246" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143246&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V1_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version1&amp;utm_content=728x90&amp;tc_alt=143247" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143247&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=300x600&amp;tc_alt=143248" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143248&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=300x250&amp;tc_alt=143249" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143249&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=320x100&amp;tc_alt=143250" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143250&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=970x250&amp;tc_alt=143251" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143251&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=160x600&amp;tc_alt=143252" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143252&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_prs-1_DB-V2_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=prs-db-version2&amp;utm_content=728x90&amp;tc_alt=143253" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143253&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=300x600&amp;tc_alt=143254" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143254&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=300x250&amp;tc_alt=143255" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143255&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=320x100&amp;tc_alt=143256" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143256&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=970x250&amp;tc_alt=143257" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143257&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=160x600&amp;tc_alt=143258" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143258&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>iese-eu_v1mp_DEG-MIM-DEMAND-GEN-DISPLAY-GOOGLE-ONLINE-PAID-24-25-EN_dis_rtg-1_DB-V2_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/09/degree_online/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://formscloud.iese.edu/landings-mim/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=701Qu00000D9OyE&amp;utm_term=rtg-db-version2&amp;utm_content=728x90&amp;tc_alt=143259" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=143259&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -3705,7 +3597,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3810,13 +3702,13 @@
         <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>369</v>
@@ -3827,16 +3719,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
         <v>376</v>
-      </c>
-      <c r="E4" t="s">
-        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>369</v>
@@ -3847,16 +3739,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
         <v>378</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" t="s">
         <v>379</v>
-      </c>
-      <c r="D5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E5" t="s">
-        <v>380</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3867,13 +3759,13 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
         <v>381</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>382</v>
-      </c>
-      <c r="D6" t="s">
-        <v>367</v>
       </c>
       <c r="E6" t="s">
         <v>383</v>
@@ -3902,366 +3794,6 @@
         <v>369</v>
       </c>
       <c r="J7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" t="s">
-        <v>391</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C10" t="s">
-        <v>375</v>
-      </c>
-      <c r="D10" t="s">
-        <v>376</v>
-      </c>
-      <c r="E10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D11" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" t="s">
-        <v>395</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>396</v>
-      </c>
-      <c r="C12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" t="s">
-        <v>397</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>398</v>
-      </c>
-      <c r="C13" t="s">
-        <v>385</v>
-      </c>
-      <c r="D13" t="s">
-        <v>386</v>
-      </c>
-      <c r="E13" t="s">
-        <v>399</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J13" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" t="s">
-        <v>367</v>
-      </c>
-      <c r="E14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C15" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" t="s">
-        <v>372</v>
-      </c>
-      <c r="E15" t="s">
-        <v>403</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" t="s">
-        <v>404</v>
-      </c>
-      <c r="C16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D16" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" t="s">
-        <v>405</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>406</v>
-      </c>
-      <c r="C17" t="s">
-        <v>379</v>
-      </c>
-      <c r="D17" t="s">
-        <v>372</v>
-      </c>
-      <c r="E17" t="s">
-        <v>407</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>408</v>
-      </c>
-      <c r="C18" t="s">
-        <v>382</v>
-      </c>
-      <c r="D18" t="s">
-        <v>367</v>
-      </c>
-      <c r="E18" t="s">
-        <v>409</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J18" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>410</v>
-      </c>
-      <c r="C19" t="s">
-        <v>385</v>
-      </c>
-      <c r="D19" t="s">
-        <v>386</v>
-      </c>
-      <c r="E19" t="s">
-        <v>411</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C20" t="s">
-        <v>366</v>
-      </c>
-      <c r="D20" t="s">
-        <v>367</v>
-      </c>
-      <c r="E20" t="s">
-        <v>413</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J20" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>414</v>
-      </c>
-      <c r="C21" t="s">
-        <v>366</v>
-      </c>
-      <c r="D21" t="s">
-        <v>372</v>
-      </c>
-      <c r="E21" t="s">
-        <v>415</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J21" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>416</v>
-      </c>
-      <c r="C22" t="s">
-        <v>375</v>
-      </c>
-      <c r="D22" t="s">
-        <v>376</v>
-      </c>
-      <c r="E22" t="s">
-        <v>417</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C23" t="s">
-        <v>379</v>
-      </c>
-      <c r="D23" t="s">
-        <v>372</v>
-      </c>
-      <c r="E23" t="s">
-        <v>419</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>420</v>
-      </c>
-      <c r="C24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D24" t="s">
-        <v>367</v>
-      </c>
-      <c r="E24" t="s">
-        <v>421</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>422</v>
-      </c>
-      <c r="C25" t="s">
-        <v>385</v>
-      </c>
-      <c r="D25" t="s">
-        <v>386</v>
-      </c>
-      <c r="E25" t="s">
-        <v>423</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J25" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4273,24 +3805,6 @@
     <hyperlink ref="F5" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="395">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,7 +1127,7 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_160x600</t>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_160x600</t>
   </si>
   <si>
     <t>160</t>
@@ -1136,16 +1136,16 @@
     <t>600</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>https://wonders.com/ES/es/newsletter</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152092" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152092&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.serenadepuntacana.com/black-friday.html</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_300x250</t>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_300x250</t>
   </si>
   <si>
     <t>300</t>
@@ -1154,46 +1154,67 @@
     <t>250</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_970x250</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152093" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152093&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152094" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152094&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_320x100</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152095" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152095&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_970x250</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_728x90</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_320x100</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152096" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152096&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152097" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152097&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.serenadeallsuites.com/black-friday.html</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152098" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152098&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152099" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152099&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152100" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152100&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152101" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152101&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3597,7 +3618,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3745,10 +3766,10 @@
         <v>378</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3759,13 +3780,13 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E6" t="s">
         <v>383</v>
@@ -3782,18 +3803,98 @@
         <v>384</v>
       </c>
       <c r="C7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" t="s">
         <v>385</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
         <v>387</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="C8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J11" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3805,6 +3906,10 @@
     <hyperlink ref="F5" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -1127,43 +1127,34 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_160x600</t>
-  </si>
-  <si>
-    <t>160</t>
+    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_300x250</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x250&amp;tc_alt=152103" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152103&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.mibodega.cl/</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_300x600</t>
   </si>
   <si>
     <t>600</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152092" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152092&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.serenadepuntacana.com/black-friday.html</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_300x250</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152093" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152093&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152094" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152094&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_320x100</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x600&amp;tc_alt=152104" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152104&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_320x100</t>
   </si>
   <si>
     <t>320</t>
@@ -1172,49 +1163,58 @@
     <t>100</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152095" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152095&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_970x250</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=320x100&amp;tc_alt=152105" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152105&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_728x90</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=728x90&amp;tc_alt=152106" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152106&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_970x250</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152096" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152096&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152097" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152097&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.serenadeallsuites.com/black-friday.html</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152098" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152098&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152099" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152099&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152100" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152100&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152101" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152101&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=970x250&amp;tc_alt=152107" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152107&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x250&amp;tc_alt=152109" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152109&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x600&amp;tc_alt=152110" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152110&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=320x100&amp;tc_alt=152111" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152111&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=728x90&amp;tc_alt=152112" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152112&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=970x250&amp;tc_alt=152113" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152113&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3723,13 +3723,13 @@
         <v>371</v>
       </c>
       <c r="C3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
         <v>372</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>373</v>
-      </c>
-      <c r="E3" t="s">
-        <v>374</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>369</v>
@@ -3740,16 +3740,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
-        <v>372</v>
-      </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>369</v>
@@ -3760,16 +3760,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>369</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s">
         <v>366</v>
@@ -3809,10 +3809,10 @@
         <v>367</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="J7" t="s">
         <v>370</v>
@@ -3823,16 +3823,16 @@
         <v>387</v>
       </c>
       <c r="C8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" t="s">
         <v>372</v>
-      </c>
-      <c r="D8" t="s">
-        <v>373</v>
       </c>
       <c r="E8" t="s">
         <v>388</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="J8" t="s">
         <v>370</v>
@@ -3843,16 +3843,16 @@
         <v>389</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E9" t="s">
         <v>390</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="J9" t="s">
         <v>370</v>
@@ -3863,16 +3863,16 @@
         <v>391</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E10" t="s">
         <v>392</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="J10" t="s">
         <v>370</v>
@@ -3883,16 +3883,16 @@
         <v>393</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E11" t="s">
         <v>394</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="J11" t="s">
         <v>370</v>

--- a/BULKAPP/app/TTD_file.xlsx
+++ b/BULKAPP/app/TTD_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="908">
   <si>
     <t>Name (required)</t>
   </si>
@@ -1127,34 +1127,52 @@
     <t>Weborama</t>
   </si>
   <si>
-    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_300x250</t>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153073" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153073&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/en-uk/cyber-week</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x600</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x250&amp;tc_alt=152103" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152103&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.mibodega.cl/</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_300x600</t>
-  </si>
-  <si>
     <t>600</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x600&amp;tc_alt=152104" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152104&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_320x100</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153074" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153074&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153075" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153075&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153076" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153076&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_320x100</t>
   </si>
   <si>
     <t>320</t>
@@ -1163,10 +1181,10 @@
     <t>100</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=320x100&amp;tc_alt=152105" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152105&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_728x90</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153077" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153077&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_728x90</t>
   </si>
   <si>
     <t>728</t>
@@ -1175,46 +1193,1567 @@
     <t>90</t>
   </si>
   <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=728x90&amp;tc_alt=152106" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152106&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_970x250</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=970x250&amp;tc_alt=152107" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152107&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x250&amp;tc_alt=152109" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152109&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x600&amp;tc_alt=152110" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152110&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=320x100&amp;tc_alt=152111" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152111&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=728x90&amp;tc_alt=152112" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152112&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=970x250&amp;tc_alt=152113" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152113&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153078" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153078&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153079" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153079&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153080" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153080&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153081" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153081&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153082" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153082&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153083" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153083&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153084" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153084&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153085" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153085&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153086" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153086&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153087" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153087&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153088" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153088&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153089" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153089&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153090" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153090&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153091" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153091&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153092" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153092&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153093" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153093&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153094" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153094&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153095" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153095&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153096" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153096&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153097" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153097&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/es-es/cyber-week</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153098" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153098&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153099" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153099&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153100" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153100&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153101" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153101&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153102" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153102&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153103" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153103&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153104" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153104&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153105" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153105&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153106" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153106&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153107" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153107&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153108" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153108&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153109" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153109&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153110" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153110&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153111" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153111&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153112" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153112&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153113" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153113&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153114" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153114&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153115" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153115&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153116" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153116&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153117" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153117&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153118" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153118&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153119" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153119&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153120" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153120&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153121" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153121&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153122" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153122&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153123" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153123&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153124" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153124&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153125" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153125&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153126" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153126&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153127" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153127&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153128" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153128&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153129" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153129&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153130" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153130&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153131" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153131&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153132" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153132&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153133" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153133&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153134" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153134&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153135" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153135&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153136" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153136&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153137" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153137&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153138" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153138&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153139" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153139&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153140" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153140&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153141" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153141&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153142" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153142&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153143" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153143&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153144" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153144&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153145" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153145&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/de-de/cyber-week</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153146" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153146&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153147" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153147&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153148" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153148&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153149" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153149&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153150" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153150&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153151" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153151&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153152" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153152&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153153" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153153&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153154" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153154&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153155" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153155&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153156" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153156&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153157" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153157&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153158" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153158&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153159" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153159&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153160" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153160&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153161" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153161&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153162" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153162&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153163" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153163&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153164" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153164&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153165" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153165&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153166" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153166&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153167" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153167&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153168" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153168&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153169" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153169&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153170" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153170&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153171" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153171&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153172" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153172&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153173" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153173&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153174" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153174&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153175" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153175&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153176" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153176&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153177" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153177&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153178" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153178&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153179" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153179&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153180" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153180&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153181" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153181&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153182" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153182&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153183" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153183&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153184" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153184&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153185" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153185&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153186" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153186&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153187" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153187&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153188" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153188&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153189" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153189&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153190" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153190&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153191" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153191&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153192" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153192&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153193" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153193&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153194" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153194&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153195" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153195&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153196" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153196&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153197" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153197&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153198" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153198&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153199" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153199&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153200" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153200&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153201" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153201&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153202" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153202&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153203" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153203&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153204" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153204&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153205" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153205&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153206" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153206&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153207" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153207&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153208" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153208&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153209" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153209&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153210" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153210&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153211" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153211&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153212" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153212&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153213" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153213&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153214" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153214&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153215" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153215&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153216" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153216&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153217" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153217&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153218" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153218&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153219" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153219&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153220" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153220&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153221" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153221&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153222" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153222&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153223" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153223&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153224" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153224&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153225" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153225&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153226" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153226&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153227" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153227&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153228" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153228&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153229" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153229&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153230" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153230&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153231" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153231&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153232" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153232&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153233" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153233&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153234" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153234&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153235" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153235&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153236" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153236&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153237" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153237&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153238" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153238&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153239" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153239&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153240" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153240&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153241" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153241&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153242" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153242&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153243" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153243&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153244" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153244&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153245" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153245&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153246" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153246&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153247" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153247&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153248" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153248&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153249" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153249&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153250" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153250&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153251" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153251&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153252" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153252&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153253" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153253&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153254" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153254&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153255" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153255&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153256" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153256&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153257" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153257&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153258" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153258&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153259" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153259&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153260" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153260&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153261" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153261&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153262" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153262&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153263" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153263&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153264" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153264&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153265" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153265&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153266" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153266&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153267" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153267&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153268" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153268&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153269" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153269&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153270" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153270&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153271" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153271&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153272" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153272&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153273" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153273&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153274" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153274&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153275" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153275&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153276" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153276&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153277" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153277&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153278" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153278&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153279" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153279&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153280" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153280&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153281" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153281&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153282" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153282&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153283" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153283&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153284" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153284&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153285" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153285&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153286" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153286&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153287" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153287&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153288" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153288&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153289" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153289&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153290" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153290&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153291" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153291&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153292" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153292&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153293" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153293&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153294" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153294&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153295" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153295&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153296" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153296&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153297" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153297&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153298" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153298&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153299" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153299&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153300" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153300&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153301" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153301&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153302" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153302&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153303" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153303&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153304" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153304&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153305" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153305&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153306" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153306&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153307" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153307&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153308" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153308&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153309" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153309&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153310" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153310&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153311" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153311&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153312" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153312&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153313" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153313&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153314" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153314&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153315" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153315&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153316" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153316&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153317" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153317&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153318" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153318&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153319" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153319&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/en-uk/cyber-week-pt</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153320" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153320&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153321" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153321&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153322" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153322&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153323" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153323&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153324" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153324&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153325" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153325&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153326" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153326&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153327" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153327&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153328" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153328&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153329" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153329&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153330" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153330&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/300x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153331" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153331&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/160x600/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153332" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153332&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/300x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153333" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153333&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/970x250/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153334" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153334&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/320x100/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153335" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153335&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/728x90/index.html?n_o_ct=%%TTD_CLK%%&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153336" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153336&amp;n_o_ord=%%TTD_CACHEBUSTER%%"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -3618,7 +5157,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X265"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3723,13 +5262,13 @@
         <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>369</v>
@@ -3740,13 +5279,13 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
         <v>377</v>
@@ -3763,13 +5302,13 @@
         <v>378</v>
       </c>
       <c r="C5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" t="s">
         <v>379</v>
-      </c>
-      <c r="D5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E5" t="s">
-        <v>381</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>369</v>
@@ -3780,16 +5319,16 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" t="s">
         <v>382</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>383</v>
-      </c>
-      <c r="D6" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" t="s">
-        <v>384</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>369</v>
@@ -3800,16 +5339,16 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
         <v>385</v>
       </c>
-      <c r="C7" t="s">
-        <v>366</v>
-      </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>369</v>
@@ -3820,16 +5359,16 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C8" t="s">
         <v>366</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>369</v>
@@ -3840,16 +5379,16 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>369</v>
@@ -3860,16 +5399,16 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>369</v>
@@ -3880,21 +5419,5101 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C11" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
         <v>367</v>
       </c>
       <c r="E11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>369</v>
       </c>
       <c r="J11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" t="s">
+        <v>372</v>
+      </c>
+      <c r="D15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E15" t="s">
+        <v>403</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" t="s">
+        <v>382</v>
+      </c>
+      <c r="E18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E23" t="s">
+        <v>419</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E24" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" t="s">
+        <v>423</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" t="s">
+        <v>425</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" t="s">
+        <v>373</v>
+      </c>
+      <c r="E27" t="s">
+        <v>428</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" t="s">
+        <v>373</v>
+      </c>
+      <c r="E28" t="s">
+        <v>430</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" t="s">
+        <v>432</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>433</v>
+      </c>
+      <c r="C30" t="s">
+        <v>381</v>
+      </c>
+      <c r="D30" t="s">
+        <v>382</v>
+      </c>
+      <c r="E30" t="s">
+        <v>434</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" t="s">
+        <v>436</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>437</v>
+      </c>
+      <c r="C32" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32" t="s">
+        <v>438</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>439</v>
+      </c>
+      <c r="C33" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33" t="s">
+        <v>373</v>
+      </c>
+      <c r="E33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" t="s">
+        <v>376</v>
+      </c>
+      <c r="D34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E34" t="s">
+        <v>442</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>443</v>
+      </c>
+      <c r="C35" t="s">
+        <v>372</v>
+      </c>
+      <c r="D35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" t="s">
+        <v>444</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>445</v>
+      </c>
+      <c r="C36" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" t="s">
+        <v>382</v>
+      </c>
+      <c r="E36" t="s">
+        <v>446</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37" t="s">
+        <v>385</v>
+      </c>
+      <c r="D37" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" t="s">
+        <v>448</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>449</v>
+      </c>
+      <c r="C38" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" t="s">
+        <v>450</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>451</v>
+      </c>
+      <c r="C39" t="s">
+        <v>372</v>
+      </c>
+      <c r="D39" t="s">
+        <v>373</v>
+      </c>
+      <c r="E39" t="s">
+        <v>452</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>376</v>
+      </c>
+      <c r="D40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E40" t="s">
+        <v>454</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>455</v>
+      </c>
+      <c r="C41" t="s">
+        <v>372</v>
+      </c>
+      <c r="D41" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" t="s">
+        <v>456</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>457</v>
+      </c>
+      <c r="C42" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42" t="s">
+        <v>382</v>
+      </c>
+      <c r="E42" t="s">
+        <v>458</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D43" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43" t="s">
+        <v>460</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C44" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" t="s">
+        <v>462</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>463</v>
+      </c>
+      <c r="C45" t="s">
+        <v>372</v>
+      </c>
+      <c r="D45" t="s">
+        <v>373</v>
+      </c>
+      <c r="E45" t="s">
+        <v>464</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>465</v>
+      </c>
+      <c r="C46" t="s">
+        <v>376</v>
+      </c>
+      <c r="D46" t="s">
+        <v>373</v>
+      </c>
+      <c r="E46" t="s">
+        <v>466</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>467</v>
+      </c>
+      <c r="C47" t="s">
+        <v>372</v>
+      </c>
+      <c r="D47" t="s">
+        <v>367</v>
+      </c>
+      <c r="E47" t="s">
+        <v>468</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>469</v>
+      </c>
+      <c r="C48" t="s">
+        <v>381</v>
+      </c>
+      <c r="D48" t="s">
+        <v>382</v>
+      </c>
+      <c r="E48" t="s">
+        <v>470</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" t="s">
+        <v>385</v>
+      </c>
+      <c r="D49" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" t="s">
+        <v>472</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>473</v>
+      </c>
+      <c r="C50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" t="s">
+        <v>474</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>475</v>
+      </c>
+      <c r="C51" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" t="s">
+        <v>373</v>
+      </c>
+      <c r="E51" t="s">
+        <v>476</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>477</v>
+      </c>
+      <c r="C52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" t="s">
+        <v>373</v>
+      </c>
+      <c r="E52" t="s">
+        <v>478</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>479</v>
+      </c>
+      <c r="C53" t="s">
+        <v>372</v>
+      </c>
+      <c r="D53" t="s">
+        <v>367</v>
+      </c>
+      <c r="E53" t="s">
+        <v>480</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" t="s">
+        <v>381</v>
+      </c>
+      <c r="D54" t="s">
+        <v>382</v>
+      </c>
+      <c r="E54" t="s">
+        <v>482</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>483</v>
+      </c>
+      <c r="C55" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" t="s">
+        <v>386</v>
+      </c>
+      <c r="E55" t="s">
+        <v>484</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>485</v>
+      </c>
+      <c r="C56" t="s">
+        <v>366</v>
+      </c>
+      <c r="D56" t="s">
+        <v>367</v>
+      </c>
+      <c r="E56" t="s">
+        <v>486</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" t="s">
+        <v>372</v>
+      </c>
+      <c r="D57" t="s">
+        <v>373</v>
+      </c>
+      <c r="E57" t="s">
+        <v>488</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>489</v>
+      </c>
+      <c r="C58" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" t="s">
+        <v>373</v>
+      </c>
+      <c r="E58" t="s">
+        <v>490</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J58" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>491</v>
+      </c>
+      <c r="C59" t="s">
+        <v>372</v>
+      </c>
+      <c r="D59" t="s">
+        <v>367</v>
+      </c>
+      <c r="E59" t="s">
+        <v>492</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J59" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>493</v>
+      </c>
+      <c r="C60" t="s">
+        <v>381</v>
+      </c>
+      <c r="D60" t="s">
+        <v>382</v>
+      </c>
+      <c r="E60" t="s">
+        <v>494</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>495</v>
+      </c>
+      <c r="C61" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" t="s">
+        <v>386</v>
+      </c>
+      <c r="E61" t="s">
+        <v>496</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J61" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>497</v>
+      </c>
+      <c r="C62" t="s">
+        <v>366</v>
+      </c>
+      <c r="D62" t="s">
+        <v>367</v>
+      </c>
+      <c r="E62" t="s">
+        <v>498</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J62" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>499</v>
+      </c>
+      <c r="C63" t="s">
+        <v>372</v>
+      </c>
+      <c r="D63" t="s">
+        <v>373</v>
+      </c>
+      <c r="E63" t="s">
+        <v>500</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>501</v>
+      </c>
+      <c r="C64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D64" t="s">
+        <v>373</v>
+      </c>
+      <c r="E64" t="s">
+        <v>502</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J64" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>503</v>
+      </c>
+      <c r="C65" t="s">
+        <v>372</v>
+      </c>
+      <c r="D65" t="s">
+        <v>367</v>
+      </c>
+      <c r="E65" t="s">
+        <v>504</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>505</v>
+      </c>
+      <c r="C66" t="s">
+        <v>381</v>
+      </c>
+      <c r="D66" t="s">
+        <v>382</v>
+      </c>
+      <c r="E66" t="s">
+        <v>506</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J66" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>507</v>
+      </c>
+      <c r="C67" t="s">
+        <v>385</v>
+      </c>
+      <c r="D67" t="s">
+        <v>386</v>
+      </c>
+      <c r="E67" t="s">
+        <v>508</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>509</v>
+      </c>
+      <c r="C68" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" t="s">
+        <v>367</v>
+      </c>
+      <c r="E68" t="s">
+        <v>510</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J68" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>511</v>
+      </c>
+      <c r="C69" t="s">
+        <v>372</v>
+      </c>
+      <c r="D69" t="s">
+        <v>373</v>
+      </c>
+      <c r="E69" t="s">
+        <v>512</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J69" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>513</v>
+      </c>
+      <c r="C70" t="s">
+        <v>376</v>
+      </c>
+      <c r="D70" t="s">
+        <v>373</v>
+      </c>
+      <c r="E70" t="s">
+        <v>514</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J70" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>515</v>
+      </c>
+      <c r="C71" t="s">
+        <v>372</v>
+      </c>
+      <c r="D71" t="s">
+        <v>367</v>
+      </c>
+      <c r="E71" t="s">
+        <v>516</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" t="s">
+        <v>381</v>
+      </c>
+      <c r="D72" t="s">
+        <v>382</v>
+      </c>
+      <c r="E72" t="s">
+        <v>518</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J72" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>519</v>
+      </c>
+      <c r="C73" t="s">
+        <v>385</v>
+      </c>
+      <c r="D73" t="s">
+        <v>386</v>
+      </c>
+      <c r="E73" t="s">
+        <v>520</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J73" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>521</v>
+      </c>
+      <c r="C74" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" t="s">
+        <v>522</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J74" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>524</v>
+      </c>
+      <c r="C75" t="s">
+        <v>372</v>
+      </c>
+      <c r="D75" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" t="s">
+        <v>525</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J75" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>526</v>
+      </c>
+      <c r="C76" t="s">
+        <v>376</v>
+      </c>
+      <c r="D76" t="s">
+        <v>373</v>
+      </c>
+      <c r="E76" t="s">
+        <v>527</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>528</v>
+      </c>
+      <c r="C77" t="s">
+        <v>372</v>
+      </c>
+      <c r="D77" t="s">
+        <v>367</v>
+      </c>
+      <c r="E77" t="s">
+        <v>529</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J77" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>530</v>
+      </c>
+      <c r="C78" t="s">
+        <v>381</v>
+      </c>
+      <c r="D78" t="s">
+        <v>382</v>
+      </c>
+      <c r="E78" t="s">
+        <v>531</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>532</v>
+      </c>
+      <c r="C79" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" t="s">
+        <v>533</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J79" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>534</v>
+      </c>
+      <c r="C80" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" t="s">
+        <v>367</v>
+      </c>
+      <c r="E80" t="s">
+        <v>535</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J80" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>536</v>
+      </c>
+      <c r="C81" t="s">
+        <v>372</v>
+      </c>
+      <c r="D81" t="s">
+        <v>373</v>
+      </c>
+      <c r="E81" t="s">
+        <v>537</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>538</v>
+      </c>
+      <c r="C82" t="s">
+        <v>376</v>
+      </c>
+      <c r="D82" t="s">
+        <v>373</v>
+      </c>
+      <c r="E82" t="s">
+        <v>539</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>540</v>
+      </c>
+      <c r="C83" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" t="s">
+        <v>367</v>
+      </c>
+      <c r="E83" t="s">
+        <v>541</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J83" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>542</v>
+      </c>
+      <c r="C84" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84" t="s">
+        <v>382</v>
+      </c>
+      <c r="E84" t="s">
+        <v>543</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J84" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>544</v>
+      </c>
+      <c r="C85" t="s">
+        <v>385</v>
+      </c>
+      <c r="D85" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85" t="s">
+        <v>545</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>546</v>
+      </c>
+      <c r="C86" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" t="s">
+        <v>367</v>
+      </c>
+      <c r="E86" t="s">
+        <v>547</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J86" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C87" t="s">
+        <v>372</v>
+      </c>
+      <c r="D87" t="s">
+        <v>373</v>
+      </c>
+      <c r="E87" t="s">
+        <v>549</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J87" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>550</v>
+      </c>
+      <c r="C88" t="s">
+        <v>376</v>
+      </c>
+      <c r="D88" t="s">
+        <v>373</v>
+      </c>
+      <c r="E88" t="s">
+        <v>551</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J88" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>552</v>
+      </c>
+      <c r="C89" t="s">
+        <v>372</v>
+      </c>
+      <c r="D89" t="s">
+        <v>367</v>
+      </c>
+      <c r="E89" t="s">
+        <v>553</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J89" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>554</v>
+      </c>
+      <c r="C90" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" t="s">
+        <v>382</v>
+      </c>
+      <c r="E90" t="s">
+        <v>555</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J90" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>556</v>
+      </c>
+      <c r="C91" t="s">
+        <v>385</v>
+      </c>
+      <c r="D91" t="s">
+        <v>386</v>
+      </c>
+      <c r="E91" t="s">
+        <v>557</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J91" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>558</v>
+      </c>
+      <c r="C92" t="s">
+        <v>366</v>
+      </c>
+      <c r="D92" t="s">
+        <v>367</v>
+      </c>
+      <c r="E92" t="s">
+        <v>559</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J92" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>560</v>
+      </c>
+      <c r="C93" t="s">
+        <v>372</v>
+      </c>
+      <c r="D93" t="s">
+        <v>373</v>
+      </c>
+      <c r="E93" t="s">
+        <v>561</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J93" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>562</v>
+      </c>
+      <c r="C94" t="s">
+        <v>376</v>
+      </c>
+      <c r="D94" t="s">
+        <v>373</v>
+      </c>
+      <c r="E94" t="s">
+        <v>563</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J94" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>564</v>
+      </c>
+      <c r="C95" t="s">
+        <v>372</v>
+      </c>
+      <c r="D95" t="s">
+        <v>367</v>
+      </c>
+      <c r="E95" t="s">
+        <v>565</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>566</v>
+      </c>
+      <c r="C96" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" t="s">
+        <v>382</v>
+      </c>
+      <c r="E96" t="s">
+        <v>567</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>568</v>
+      </c>
+      <c r="C97" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" t="s">
+        <v>386</v>
+      </c>
+      <c r="E97" t="s">
+        <v>569</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J97" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>570</v>
+      </c>
+      <c r="C98" t="s">
+        <v>366</v>
+      </c>
+      <c r="D98" t="s">
+        <v>367</v>
+      </c>
+      <c r="E98" t="s">
+        <v>571</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J98" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>573</v>
+      </c>
+      <c r="C99" t="s">
+        <v>372</v>
+      </c>
+      <c r="D99" t="s">
+        <v>373</v>
+      </c>
+      <c r="E99" t="s">
+        <v>574</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J99" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>575</v>
+      </c>
+      <c r="C100" t="s">
+        <v>376</v>
+      </c>
+      <c r="D100" t="s">
+        <v>373</v>
+      </c>
+      <c r="E100" t="s">
+        <v>576</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J100" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>577</v>
+      </c>
+      <c r="C101" t="s">
+        <v>372</v>
+      </c>
+      <c r="D101" t="s">
+        <v>367</v>
+      </c>
+      <c r="E101" t="s">
+        <v>578</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J101" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>579</v>
+      </c>
+      <c r="C102" t="s">
+        <v>381</v>
+      </c>
+      <c r="D102" t="s">
+        <v>382</v>
+      </c>
+      <c r="E102" t="s">
+        <v>580</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J102" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>581</v>
+      </c>
+      <c r="C103" t="s">
+        <v>385</v>
+      </c>
+      <c r="D103" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" t="s">
+        <v>582</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J103" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>583</v>
+      </c>
+      <c r="C104" t="s">
+        <v>366</v>
+      </c>
+      <c r="D104" t="s">
+        <v>367</v>
+      </c>
+      <c r="E104" t="s">
+        <v>584</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J104" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>585</v>
+      </c>
+      <c r="C105" t="s">
+        <v>372</v>
+      </c>
+      <c r="D105" t="s">
+        <v>373</v>
+      </c>
+      <c r="E105" t="s">
+        <v>586</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J105" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>587</v>
+      </c>
+      <c r="C106" t="s">
+        <v>376</v>
+      </c>
+      <c r="D106" t="s">
+        <v>373</v>
+      </c>
+      <c r="E106" t="s">
+        <v>588</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J106" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>589</v>
+      </c>
+      <c r="C107" t="s">
+        <v>372</v>
+      </c>
+      <c r="D107" t="s">
+        <v>367</v>
+      </c>
+      <c r="E107" t="s">
+        <v>590</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J107" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>591</v>
+      </c>
+      <c r="C108" t="s">
+        <v>381</v>
+      </c>
+      <c r="D108" t="s">
+        <v>382</v>
+      </c>
+      <c r="E108" t="s">
+        <v>592</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J108" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>593</v>
+      </c>
+      <c r="C109" t="s">
+        <v>385</v>
+      </c>
+      <c r="D109" t="s">
+        <v>386</v>
+      </c>
+      <c r="E109" t="s">
+        <v>594</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J109" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>595</v>
+      </c>
+      <c r="C110" t="s">
+        <v>366</v>
+      </c>
+      <c r="D110" t="s">
+        <v>367</v>
+      </c>
+      <c r="E110" t="s">
+        <v>596</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J110" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>597</v>
+      </c>
+      <c r="C111" t="s">
+        <v>372</v>
+      </c>
+      <c r="D111" t="s">
+        <v>373</v>
+      </c>
+      <c r="E111" t="s">
+        <v>598</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J111" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>599</v>
+      </c>
+      <c r="C112" t="s">
+        <v>376</v>
+      </c>
+      <c r="D112" t="s">
+        <v>373</v>
+      </c>
+      <c r="E112" t="s">
+        <v>600</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J112" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>601</v>
+      </c>
+      <c r="C113" t="s">
+        <v>372</v>
+      </c>
+      <c r="D113" t="s">
+        <v>367</v>
+      </c>
+      <c r="E113" t="s">
+        <v>602</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J113" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>603</v>
+      </c>
+      <c r="C114" t="s">
+        <v>381</v>
+      </c>
+      <c r="D114" t="s">
+        <v>382</v>
+      </c>
+      <c r="E114" t="s">
+        <v>604</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J114" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>605</v>
+      </c>
+      <c r="C115" t="s">
+        <v>385</v>
+      </c>
+      <c r="D115" t="s">
+        <v>386</v>
+      </c>
+      <c r="E115" t="s">
+        <v>606</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J115" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>607</v>
+      </c>
+      <c r="C116" t="s">
+        <v>366</v>
+      </c>
+      <c r="D116" t="s">
+        <v>367</v>
+      </c>
+      <c r="E116" t="s">
+        <v>608</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J116" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>609</v>
+      </c>
+      <c r="C117" t="s">
+        <v>372</v>
+      </c>
+      <c r="D117" t="s">
+        <v>373</v>
+      </c>
+      <c r="E117" t="s">
+        <v>610</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J117" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>611</v>
+      </c>
+      <c r="C118" t="s">
+        <v>376</v>
+      </c>
+      <c r="D118" t="s">
+        <v>373</v>
+      </c>
+      <c r="E118" t="s">
+        <v>612</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J118" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>613</v>
+      </c>
+      <c r="C119" t="s">
+        <v>372</v>
+      </c>
+      <c r="D119" t="s">
+        <v>367</v>
+      </c>
+      <c r="E119" t="s">
+        <v>614</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J119" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>615</v>
+      </c>
+      <c r="C120" t="s">
+        <v>381</v>
+      </c>
+      <c r="D120" t="s">
+        <v>382</v>
+      </c>
+      <c r="E120" t="s">
+        <v>616</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J120" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>617</v>
+      </c>
+      <c r="C121" t="s">
+        <v>385</v>
+      </c>
+      <c r="D121" t="s">
+        <v>386</v>
+      </c>
+      <c r="E121" t="s">
+        <v>618</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J121" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>619</v>
+      </c>
+      <c r="C122" t="s">
+        <v>366</v>
+      </c>
+      <c r="D122" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" t="s">
+        <v>620</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J122" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>621</v>
+      </c>
+      <c r="C123" t="s">
+        <v>372</v>
+      </c>
+      <c r="D123" t="s">
+        <v>373</v>
+      </c>
+      <c r="E123" t="s">
+        <v>622</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J123" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>623</v>
+      </c>
+      <c r="C124" t="s">
+        <v>376</v>
+      </c>
+      <c r="D124" t="s">
+        <v>373</v>
+      </c>
+      <c r="E124" t="s">
+        <v>624</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J124" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>625</v>
+      </c>
+      <c r="C125" t="s">
+        <v>372</v>
+      </c>
+      <c r="D125" t="s">
+        <v>367</v>
+      </c>
+      <c r="E125" t="s">
+        <v>626</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J125" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>627</v>
+      </c>
+      <c r="C126" t="s">
+        <v>381</v>
+      </c>
+      <c r="D126" t="s">
+        <v>382</v>
+      </c>
+      <c r="E126" t="s">
+        <v>628</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J126" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>629</v>
+      </c>
+      <c r="C127" t="s">
+        <v>385</v>
+      </c>
+      <c r="D127" t="s">
+        <v>386</v>
+      </c>
+      <c r="E127" t="s">
+        <v>630</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J127" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>631</v>
+      </c>
+      <c r="C128" t="s">
+        <v>366</v>
+      </c>
+      <c r="D128" t="s">
+        <v>367</v>
+      </c>
+      <c r="E128" t="s">
+        <v>632</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J128" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>633</v>
+      </c>
+      <c r="C129" t="s">
+        <v>372</v>
+      </c>
+      <c r="D129" t="s">
+        <v>373</v>
+      </c>
+      <c r="E129" t="s">
+        <v>634</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J129" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>635</v>
+      </c>
+      <c r="C130" t="s">
+        <v>376</v>
+      </c>
+      <c r="D130" t="s">
+        <v>373</v>
+      </c>
+      <c r="E130" t="s">
+        <v>636</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J130" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>637</v>
+      </c>
+      <c r="C131" t="s">
+        <v>372</v>
+      </c>
+      <c r="D131" t="s">
+        <v>367</v>
+      </c>
+      <c r="E131" t="s">
+        <v>638</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J131" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>639</v>
+      </c>
+      <c r="C132" t="s">
+        <v>381</v>
+      </c>
+      <c r="D132" t="s">
+        <v>382</v>
+      </c>
+      <c r="E132" t="s">
+        <v>640</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J132" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>641</v>
+      </c>
+      <c r="C133" t="s">
+        <v>385</v>
+      </c>
+      <c r="D133" t="s">
+        <v>386</v>
+      </c>
+      <c r="E133" t="s">
+        <v>642</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J133" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>643</v>
+      </c>
+      <c r="C134" t="s">
+        <v>366</v>
+      </c>
+      <c r="D134" t="s">
+        <v>367</v>
+      </c>
+      <c r="E134" t="s">
+        <v>644</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J134" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>645</v>
+      </c>
+      <c r="C135" t="s">
+        <v>372</v>
+      </c>
+      <c r="D135" t="s">
+        <v>373</v>
+      </c>
+      <c r="E135" t="s">
+        <v>646</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J135" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>647</v>
+      </c>
+      <c r="C136" t="s">
+        <v>376</v>
+      </c>
+      <c r="D136" t="s">
+        <v>373</v>
+      </c>
+      <c r="E136" t="s">
+        <v>648</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J136" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>649</v>
+      </c>
+      <c r="C137" t="s">
+        <v>372</v>
+      </c>
+      <c r="D137" t="s">
+        <v>367</v>
+      </c>
+      <c r="E137" t="s">
+        <v>650</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J137" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>651</v>
+      </c>
+      <c r="C138" t="s">
+        <v>381</v>
+      </c>
+      <c r="D138" t="s">
+        <v>382</v>
+      </c>
+      <c r="E138" t="s">
+        <v>652</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J138" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>653</v>
+      </c>
+      <c r="C139" t="s">
+        <v>385</v>
+      </c>
+      <c r="D139" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139" t="s">
+        <v>654</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J139" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>655</v>
+      </c>
+      <c r="C140" t="s">
+        <v>366</v>
+      </c>
+      <c r="D140" t="s">
+        <v>367</v>
+      </c>
+      <c r="E140" t="s">
+        <v>656</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J140" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>657</v>
+      </c>
+      <c r="C141" t="s">
+        <v>372</v>
+      </c>
+      <c r="D141" t="s">
+        <v>373</v>
+      </c>
+      <c r="E141" t="s">
+        <v>658</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J141" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>659</v>
+      </c>
+      <c r="C142" t="s">
+        <v>376</v>
+      </c>
+      <c r="D142" t="s">
+        <v>373</v>
+      </c>
+      <c r="E142" t="s">
+        <v>660</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J142" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>661</v>
+      </c>
+      <c r="C143" t="s">
+        <v>372</v>
+      </c>
+      <c r="D143" t="s">
+        <v>367</v>
+      </c>
+      <c r="E143" t="s">
+        <v>662</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J143" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>663</v>
+      </c>
+      <c r="C144" t="s">
+        <v>381</v>
+      </c>
+      <c r="D144" t="s">
+        <v>382</v>
+      </c>
+      <c r="E144" t="s">
+        <v>664</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J144" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>665</v>
+      </c>
+      <c r="C145" t="s">
+        <v>385</v>
+      </c>
+      <c r="D145" t="s">
+        <v>386</v>
+      </c>
+      <c r="E145" t="s">
+        <v>666</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J145" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>667</v>
+      </c>
+      <c r="C146" t="s">
+        <v>366</v>
+      </c>
+      <c r="D146" t="s">
+        <v>367</v>
+      </c>
+      <c r="E146" t="s">
+        <v>668</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J146" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>669</v>
+      </c>
+      <c r="C147" t="s">
+        <v>372</v>
+      </c>
+      <c r="D147" t="s">
+        <v>373</v>
+      </c>
+      <c r="E147" t="s">
+        <v>670</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J147" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>671</v>
+      </c>
+      <c r="C148" t="s">
+        <v>376</v>
+      </c>
+      <c r="D148" t="s">
+        <v>373</v>
+      </c>
+      <c r="E148" t="s">
+        <v>672</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J148" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>673</v>
+      </c>
+      <c r="C149" t="s">
+        <v>372</v>
+      </c>
+      <c r="D149" t="s">
+        <v>367</v>
+      </c>
+      <c r="E149" t="s">
+        <v>674</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J149" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>675</v>
+      </c>
+      <c r="C150" t="s">
+        <v>381</v>
+      </c>
+      <c r="D150" t="s">
+        <v>382</v>
+      </c>
+      <c r="E150" t="s">
+        <v>676</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J150" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>677</v>
+      </c>
+      <c r="C151" t="s">
+        <v>385</v>
+      </c>
+      <c r="D151" t="s">
+        <v>386</v>
+      </c>
+      <c r="E151" t="s">
+        <v>678</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J151" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>679</v>
+      </c>
+      <c r="C152" t="s">
+        <v>366</v>
+      </c>
+      <c r="D152" t="s">
+        <v>367</v>
+      </c>
+      <c r="E152" t="s">
+        <v>680</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J152" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>681</v>
+      </c>
+      <c r="C153" t="s">
+        <v>372</v>
+      </c>
+      <c r="D153" t="s">
+        <v>373</v>
+      </c>
+      <c r="E153" t="s">
+        <v>682</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J153" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>683</v>
+      </c>
+      <c r="C154" t="s">
+        <v>376</v>
+      </c>
+      <c r="D154" t="s">
+        <v>373</v>
+      </c>
+      <c r="E154" t="s">
+        <v>684</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J154" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>685</v>
+      </c>
+      <c r="C155" t="s">
+        <v>372</v>
+      </c>
+      <c r="D155" t="s">
+        <v>367</v>
+      </c>
+      <c r="E155" t="s">
+        <v>686</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J155" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>687</v>
+      </c>
+      <c r="C156" t="s">
+        <v>381</v>
+      </c>
+      <c r="D156" t="s">
+        <v>382</v>
+      </c>
+      <c r="E156" t="s">
+        <v>688</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J156" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>689</v>
+      </c>
+      <c r="C157" t="s">
+        <v>385</v>
+      </c>
+      <c r="D157" t="s">
+        <v>386</v>
+      </c>
+      <c r="E157" t="s">
+        <v>690</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J157" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>691</v>
+      </c>
+      <c r="C158" t="s">
+        <v>366</v>
+      </c>
+      <c r="D158" t="s">
+        <v>367</v>
+      </c>
+      <c r="E158" t="s">
+        <v>692</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J158" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>693</v>
+      </c>
+      <c r="C159" t="s">
+        <v>372</v>
+      </c>
+      <c r="D159" t="s">
+        <v>373</v>
+      </c>
+      <c r="E159" t="s">
+        <v>694</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J159" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>695</v>
+      </c>
+      <c r="C160" t="s">
+        <v>376</v>
+      </c>
+      <c r="D160" t="s">
+        <v>373</v>
+      </c>
+      <c r="E160" t="s">
+        <v>696</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J160" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>697</v>
+      </c>
+      <c r="C161" t="s">
+        <v>372</v>
+      </c>
+      <c r="D161" t="s">
+        <v>367</v>
+      </c>
+      <c r="E161" t="s">
+        <v>698</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J161" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>699</v>
+      </c>
+      <c r="C162" t="s">
+        <v>381</v>
+      </c>
+      <c r="D162" t="s">
+        <v>382</v>
+      </c>
+      <c r="E162" t="s">
+        <v>700</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J162" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>701</v>
+      </c>
+      <c r="C163" t="s">
+        <v>385</v>
+      </c>
+      <c r="D163" t="s">
+        <v>386</v>
+      </c>
+      <c r="E163" t="s">
+        <v>702</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J163" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>703</v>
+      </c>
+      <c r="C164" t="s">
+        <v>366</v>
+      </c>
+      <c r="D164" t="s">
+        <v>367</v>
+      </c>
+      <c r="E164" t="s">
+        <v>704</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J164" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>705</v>
+      </c>
+      <c r="C165" t="s">
+        <v>372</v>
+      </c>
+      <c r="D165" t="s">
+        <v>373</v>
+      </c>
+      <c r="E165" t="s">
+        <v>706</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J165" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
+        <v>707</v>
+      </c>
+      <c r="C166" t="s">
+        <v>376</v>
+      </c>
+      <c r="D166" t="s">
+        <v>373</v>
+      </c>
+      <c r="E166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J166" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>709</v>
+      </c>
+      <c r="C167" t="s">
+        <v>372</v>
+      </c>
+      <c r="D167" t="s">
+        <v>367</v>
+      </c>
+      <c r="E167" t="s">
+        <v>710</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J167" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>711</v>
+      </c>
+      <c r="C168" t="s">
+        <v>381</v>
+      </c>
+      <c r="D168" t="s">
+        <v>382</v>
+      </c>
+      <c r="E168" t="s">
+        <v>712</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J168" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>713</v>
+      </c>
+      <c r="C169" t="s">
+        <v>385</v>
+      </c>
+      <c r="D169" t="s">
+        <v>386</v>
+      </c>
+      <c r="E169" t="s">
+        <v>714</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J169" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>715</v>
+      </c>
+      <c r="C170" t="s">
+        <v>366</v>
+      </c>
+      <c r="D170" t="s">
+        <v>367</v>
+      </c>
+      <c r="E170" t="s">
+        <v>716</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J170" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>717</v>
+      </c>
+      <c r="C171" t="s">
+        <v>372</v>
+      </c>
+      <c r="D171" t="s">
+        <v>373</v>
+      </c>
+      <c r="E171" t="s">
+        <v>718</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J171" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
+        <v>719</v>
+      </c>
+      <c r="C172" t="s">
+        <v>376</v>
+      </c>
+      <c r="D172" t="s">
+        <v>373</v>
+      </c>
+      <c r="E172" t="s">
+        <v>720</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J172" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
+        <v>721</v>
+      </c>
+      <c r="C173" t="s">
+        <v>372</v>
+      </c>
+      <c r="D173" t="s">
+        <v>367</v>
+      </c>
+      <c r="E173" t="s">
+        <v>722</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J173" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
+        <v>723</v>
+      </c>
+      <c r="C174" t="s">
+        <v>381</v>
+      </c>
+      <c r="D174" t="s">
+        <v>382</v>
+      </c>
+      <c r="E174" t="s">
+        <v>724</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J174" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>725</v>
+      </c>
+      <c r="C175" t="s">
+        <v>385</v>
+      </c>
+      <c r="D175" t="s">
+        <v>386</v>
+      </c>
+      <c r="E175" t="s">
+        <v>726</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J175" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
+        <v>727</v>
+      </c>
+      <c r="C176" t="s">
+        <v>366</v>
+      </c>
+      <c r="D176" t="s">
+        <v>367</v>
+      </c>
+      <c r="E176" t="s">
+        <v>728</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J176" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>729</v>
+      </c>
+      <c r="C177" t="s">
+        <v>372</v>
+      </c>
+      <c r="D177" t="s">
+        <v>373</v>
+      </c>
+      <c r="E177" t="s">
+        <v>730</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J177" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>731</v>
+      </c>
+      <c r="C178" t="s">
+        <v>376</v>
+      </c>
+      <c r="D178" t="s">
+        <v>373</v>
+      </c>
+      <c r="E178" t="s">
+        <v>732</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J178" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
+        <v>733</v>
+      </c>
+      <c r="C179" t="s">
+        <v>372</v>
+      </c>
+      <c r="D179" t="s">
+        <v>367</v>
+      </c>
+      <c r="E179" t="s">
+        <v>734</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J179" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
+        <v>735</v>
+      </c>
+      <c r="C180" t="s">
+        <v>381</v>
+      </c>
+      <c r="D180" t="s">
+        <v>382</v>
+      </c>
+      <c r="E180" t="s">
+        <v>736</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J180" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
+        <v>737</v>
+      </c>
+      <c r="C181" t="s">
+        <v>385</v>
+      </c>
+      <c r="D181" t="s">
+        <v>386</v>
+      </c>
+      <c r="E181" t="s">
+        <v>738</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J181" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
+        <v>739</v>
+      </c>
+      <c r="C182" t="s">
+        <v>366</v>
+      </c>
+      <c r="D182" t="s">
+        <v>367</v>
+      </c>
+      <c r="E182" t="s">
+        <v>740</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J182" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
+        <v>741</v>
+      </c>
+      <c r="C183" t="s">
+        <v>372</v>
+      </c>
+      <c r="D183" t="s">
+        <v>373</v>
+      </c>
+      <c r="E183" t="s">
+        <v>742</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J183" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
+        <v>743</v>
+      </c>
+      <c r="C184" t="s">
+        <v>376</v>
+      </c>
+      <c r="D184" t="s">
+        <v>373</v>
+      </c>
+      <c r="E184" t="s">
+        <v>744</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J184" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
+        <v>745</v>
+      </c>
+      <c r="C185" t="s">
+        <v>372</v>
+      </c>
+      <c r="D185" t="s">
+        <v>367</v>
+      </c>
+      <c r="E185" t="s">
+        <v>746</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J185" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
+        <v>747</v>
+      </c>
+      <c r="C186" t="s">
+        <v>381</v>
+      </c>
+      <c r="D186" t="s">
+        <v>382</v>
+      </c>
+      <c r="E186" t="s">
+        <v>748</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J186" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
+        <v>749</v>
+      </c>
+      <c r="C187" t="s">
+        <v>385</v>
+      </c>
+      <c r="D187" t="s">
+        <v>386</v>
+      </c>
+      <c r="E187" t="s">
+        <v>750</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J187" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
+        <v>751</v>
+      </c>
+      <c r="C188" t="s">
+        <v>366</v>
+      </c>
+      <c r="D188" t="s">
+        <v>367</v>
+      </c>
+      <c r="E188" t="s">
+        <v>752</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J188" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
+        <v>753</v>
+      </c>
+      <c r="C189" t="s">
+        <v>372</v>
+      </c>
+      <c r="D189" t="s">
+        <v>373</v>
+      </c>
+      <c r="E189" t="s">
+        <v>754</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J189" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
+        <v>755</v>
+      </c>
+      <c r="C190" t="s">
+        <v>376</v>
+      </c>
+      <c r="D190" t="s">
+        <v>373</v>
+      </c>
+      <c r="E190" t="s">
+        <v>756</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J190" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" t="s">
+        <v>757</v>
+      </c>
+      <c r="C191" t="s">
+        <v>372</v>
+      </c>
+      <c r="D191" t="s">
+        <v>367</v>
+      </c>
+      <c r="E191" t="s">
+        <v>758</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J191" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" t="s">
+        <v>759</v>
+      </c>
+      <c r="C192" t="s">
+        <v>381</v>
+      </c>
+      <c r="D192" t="s">
+        <v>382</v>
+      </c>
+      <c r="E192" t="s">
+        <v>760</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J192" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
+        <v>761</v>
+      </c>
+      <c r="C193" t="s">
+        <v>385</v>
+      </c>
+      <c r="D193" t="s">
+        <v>386</v>
+      </c>
+      <c r="E193" t="s">
+        <v>762</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J193" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
+        <v>763</v>
+      </c>
+      <c r="C194" t="s">
+        <v>366</v>
+      </c>
+      <c r="D194" t="s">
+        <v>367</v>
+      </c>
+      <c r="E194" t="s">
+        <v>764</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J194" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
+        <v>765</v>
+      </c>
+      <c r="C195" t="s">
+        <v>372</v>
+      </c>
+      <c r="D195" t="s">
+        <v>373</v>
+      </c>
+      <c r="E195" t="s">
+        <v>766</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J195" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" t="s">
+        <v>767</v>
+      </c>
+      <c r="C196" t="s">
+        <v>376</v>
+      </c>
+      <c r="D196" t="s">
+        <v>373</v>
+      </c>
+      <c r="E196" t="s">
+        <v>768</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J196" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" t="s">
+        <v>769</v>
+      </c>
+      <c r="C197" t="s">
+        <v>372</v>
+      </c>
+      <c r="D197" t="s">
+        <v>367</v>
+      </c>
+      <c r="E197" t="s">
+        <v>770</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J197" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" t="s">
+        <v>771</v>
+      </c>
+      <c r="C198" t="s">
+        <v>381</v>
+      </c>
+      <c r="D198" t="s">
+        <v>382</v>
+      </c>
+      <c r="E198" t="s">
+        <v>772</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J198" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
+        <v>773</v>
+      </c>
+      <c r="C199" t="s">
+        <v>385</v>
+      </c>
+      <c r="D199" t="s">
+        <v>386</v>
+      </c>
+      <c r="E199" t="s">
+        <v>774</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J199" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" t="s">
+        <v>775</v>
+      </c>
+      <c r="C200" t="s">
+        <v>366</v>
+      </c>
+      <c r="D200" t="s">
+        <v>367</v>
+      </c>
+      <c r="E200" t="s">
+        <v>776</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J200" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" t="s">
+        <v>777</v>
+      </c>
+      <c r="C201" t="s">
+        <v>372</v>
+      </c>
+      <c r="D201" t="s">
+        <v>373</v>
+      </c>
+      <c r="E201" t="s">
+        <v>778</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J201" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" t="s">
+        <v>779</v>
+      </c>
+      <c r="C202" t="s">
+        <v>376</v>
+      </c>
+      <c r="D202" t="s">
+        <v>373</v>
+      </c>
+      <c r="E202" t="s">
+        <v>780</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J202" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" t="s">
+        <v>781</v>
+      </c>
+      <c r="C203" t="s">
+        <v>372</v>
+      </c>
+      <c r="D203" t="s">
+        <v>367</v>
+      </c>
+      <c r="E203" t="s">
+        <v>782</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J203" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
+        <v>783</v>
+      </c>
+      <c r="C204" t="s">
+        <v>381</v>
+      </c>
+      <c r="D204" t="s">
+        <v>382</v>
+      </c>
+      <c r="E204" t="s">
+        <v>784</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J204" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" t="s">
+        <v>785</v>
+      </c>
+      <c r="C205" t="s">
+        <v>385</v>
+      </c>
+      <c r="D205" t="s">
+        <v>386</v>
+      </c>
+      <c r="E205" t="s">
+        <v>786</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J205" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" t="s">
+        <v>787</v>
+      </c>
+      <c r="C206" t="s">
+        <v>366</v>
+      </c>
+      <c r="D206" t="s">
+        <v>367</v>
+      </c>
+      <c r="E206" t="s">
+        <v>788</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J206" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" t="s">
+        <v>789</v>
+      </c>
+      <c r="C207" t="s">
+        <v>372</v>
+      </c>
+      <c r="D207" t="s">
+        <v>373</v>
+      </c>
+      <c r="E207" t="s">
+        <v>790</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J207" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" t="s">
+        <v>791</v>
+      </c>
+      <c r="C208" t="s">
+        <v>376</v>
+      </c>
+      <c r="D208" t="s">
+        <v>373</v>
+      </c>
+      <c r="E208" t="s">
+        <v>792</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J208" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" t="s">
+        <v>793</v>
+      </c>
+      <c r="C209" t="s">
+        <v>372</v>
+      </c>
+      <c r="D209" t="s">
+        <v>367</v>
+      </c>
+      <c r="E209" t="s">
+        <v>794</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J209" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" t="s">
+        <v>795</v>
+      </c>
+      <c r="C210" t="s">
+        <v>381</v>
+      </c>
+      <c r="D210" t="s">
+        <v>382</v>
+      </c>
+      <c r="E210" t="s">
+        <v>796</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J210" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" t="s">
+        <v>797</v>
+      </c>
+      <c r="C211" t="s">
+        <v>385</v>
+      </c>
+      <c r="D211" t="s">
+        <v>386</v>
+      </c>
+      <c r="E211" t="s">
+        <v>798</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J211" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" t="s">
+        <v>799</v>
+      </c>
+      <c r="C212" t="s">
+        <v>366</v>
+      </c>
+      <c r="D212" t="s">
+        <v>367</v>
+      </c>
+      <c r="E212" t="s">
+        <v>800</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J212" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" t="s">
+        <v>801</v>
+      </c>
+      <c r="C213" t="s">
+        <v>372</v>
+      </c>
+      <c r="D213" t="s">
+        <v>373</v>
+      </c>
+      <c r="E213" t="s">
+        <v>802</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J213" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" t="s">
+        <v>803</v>
+      </c>
+      <c r="C214" t="s">
+        <v>376</v>
+      </c>
+      <c r="D214" t="s">
+        <v>373</v>
+      </c>
+      <c r="E214" t="s">
+        <v>804</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J214" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" t="s">
+        <v>805</v>
+      </c>
+      <c r="C215" t="s">
+        <v>372</v>
+      </c>
+      <c r="D215" t="s">
+        <v>367</v>
+      </c>
+      <c r="E215" t="s">
+        <v>806</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J215" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" t="s">
+        <v>807</v>
+      </c>
+      <c r="C216" t="s">
+        <v>381</v>
+      </c>
+      <c r="D216" t="s">
+        <v>382</v>
+      </c>
+      <c r="E216" t="s">
+        <v>808</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J216" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" t="s">
+        <v>809</v>
+      </c>
+      <c r="C217" t="s">
+        <v>385</v>
+      </c>
+      <c r="D217" t="s">
+        <v>386</v>
+      </c>
+      <c r="E217" t="s">
+        <v>810</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J217" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" t="s">
+        <v>811</v>
+      </c>
+      <c r="C218" t="s">
+        <v>366</v>
+      </c>
+      <c r="D218" t="s">
+        <v>367</v>
+      </c>
+      <c r="E218" t="s">
+        <v>812</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J218" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" t="s">
+        <v>813</v>
+      </c>
+      <c r="C219" t="s">
+        <v>372</v>
+      </c>
+      <c r="D219" t="s">
+        <v>373</v>
+      </c>
+      <c r="E219" t="s">
+        <v>814</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J219" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" t="s">
+        <v>815</v>
+      </c>
+      <c r="C220" t="s">
+        <v>376</v>
+      </c>
+      <c r="D220" t="s">
+        <v>373</v>
+      </c>
+      <c r="E220" t="s">
+        <v>816</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J220" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" t="s">
+        <v>817</v>
+      </c>
+      <c r="C221" t="s">
+        <v>372</v>
+      </c>
+      <c r="D221" t="s">
+        <v>367</v>
+      </c>
+      <c r="E221" t="s">
+        <v>818</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J221" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" t="s">
+        <v>819</v>
+      </c>
+      <c r="C222" t="s">
+        <v>381</v>
+      </c>
+      <c r="D222" t="s">
+        <v>382</v>
+      </c>
+      <c r="E222" t="s">
+        <v>820</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J222" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" t="s">
+        <v>821</v>
+      </c>
+      <c r="C223" t="s">
+        <v>385</v>
+      </c>
+      <c r="D223" t="s">
+        <v>386</v>
+      </c>
+      <c r="E223" t="s">
+        <v>822</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J223" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" t="s">
+        <v>823</v>
+      </c>
+      <c r="C224" t="s">
+        <v>366</v>
+      </c>
+      <c r="D224" t="s">
+        <v>367</v>
+      </c>
+      <c r="E224" t="s">
+        <v>824</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J224" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225" t="s">
+        <v>825</v>
+      </c>
+      <c r="C225" t="s">
+        <v>372</v>
+      </c>
+      <c r="D225" t="s">
+        <v>373</v>
+      </c>
+      <c r="E225" t="s">
+        <v>826</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J225" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" t="s">
+        <v>827</v>
+      </c>
+      <c r="C226" t="s">
+        <v>376</v>
+      </c>
+      <c r="D226" t="s">
+        <v>373</v>
+      </c>
+      <c r="E226" t="s">
+        <v>828</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J226" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" t="s">
+        <v>829</v>
+      </c>
+      <c r="C227" t="s">
+        <v>372</v>
+      </c>
+      <c r="D227" t="s">
+        <v>367</v>
+      </c>
+      <c r="E227" t="s">
+        <v>830</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J227" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" t="s">
+        <v>831</v>
+      </c>
+      <c r="C228" t="s">
+        <v>381</v>
+      </c>
+      <c r="D228" t="s">
+        <v>382</v>
+      </c>
+      <c r="E228" t="s">
+        <v>832</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J228" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" t="s">
+        <v>833</v>
+      </c>
+      <c r="C229" t="s">
+        <v>385</v>
+      </c>
+      <c r="D229" t="s">
+        <v>386</v>
+      </c>
+      <c r="E229" t="s">
+        <v>834</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J229" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230" t="s">
+        <v>835</v>
+      </c>
+      <c r="C230" t="s">
+        <v>372</v>
+      </c>
+      <c r="D230" t="s">
+        <v>373</v>
+      </c>
+      <c r="E230" t="s">
+        <v>836</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J230" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" t="s">
+        <v>837</v>
+      </c>
+      <c r="C231" t="s">
+        <v>376</v>
+      </c>
+      <c r="D231" t="s">
+        <v>373</v>
+      </c>
+      <c r="E231" t="s">
+        <v>838</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J231" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232" t="s">
+        <v>839</v>
+      </c>
+      <c r="C232" t="s">
+        <v>372</v>
+      </c>
+      <c r="D232" t="s">
+        <v>367</v>
+      </c>
+      <c r="E232" t="s">
+        <v>840</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J232" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233" t="s">
+        <v>841</v>
+      </c>
+      <c r="C233" t="s">
+        <v>366</v>
+      </c>
+      <c r="D233" t="s">
+        <v>367</v>
+      </c>
+      <c r="E233" t="s">
+        <v>842</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J233" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234" t="s">
+        <v>843</v>
+      </c>
+      <c r="C234" t="s">
+        <v>381</v>
+      </c>
+      <c r="D234" t="s">
+        <v>382</v>
+      </c>
+      <c r="E234" t="s">
+        <v>844</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J234" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235" t="s">
+        <v>845</v>
+      </c>
+      <c r="C235" t="s">
+        <v>385</v>
+      </c>
+      <c r="D235" t="s">
+        <v>386</v>
+      </c>
+      <c r="E235" t="s">
+        <v>846</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J235" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236" t="s">
+        <v>847</v>
+      </c>
+      <c r="C236" t="s">
+        <v>372</v>
+      </c>
+      <c r="D236" t="s">
+        <v>373</v>
+      </c>
+      <c r="E236" t="s">
+        <v>848</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J236" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237" t="s">
+        <v>849</v>
+      </c>
+      <c r="C237" t="s">
+        <v>376</v>
+      </c>
+      <c r="D237" t="s">
+        <v>373</v>
+      </c>
+      <c r="E237" t="s">
+        <v>850</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J237" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238" t="s">
+        <v>851</v>
+      </c>
+      <c r="C238" t="s">
+        <v>372</v>
+      </c>
+      <c r="D238" t="s">
+        <v>367</v>
+      </c>
+      <c r="E238" t="s">
+        <v>852</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J238" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239" t="s">
+        <v>853</v>
+      </c>
+      <c r="C239" t="s">
+        <v>366</v>
+      </c>
+      <c r="D239" t="s">
+        <v>367</v>
+      </c>
+      <c r="E239" t="s">
+        <v>854</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J239" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240" t="s">
+        <v>855</v>
+      </c>
+      <c r="C240" t="s">
+        <v>381</v>
+      </c>
+      <c r="D240" t="s">
+        <v>382</v>
+      </c>
+      <c r="E240" t="s">
+        <v>856</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J240" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" t="s">
+        <v>857</v>
+      </c>
+      <c r="C241" t="s">
+        <v>385</v>
+      </c>
+      <c r="D241" t="s">
+        <v>386</v>
+      </c>
+      <c r="E241" t="s">
+        <v>858</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J241" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242" t="s">
+        <v>859</v>
+      </c>
+      <c r="C242" t="s">
+        <v>372</v>
+      </c>
+      <c r="D242" t="s">
+        <v>373</v>
+      </c>
+      <c r="E242" t="s">
+        <v>860</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J242" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243" t="s">
+        <v>861</v>
+      </c>
+      <c r="C243" t="s">
+        <v>376</v>
+      </c>
+      <c r="D243" t="s">
+        <v>373</v>
+      </c>
+      <c r="E243" t="s">
+        <v>862</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J243" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244" t="s">
+        <v>863</v>
+      </c>
+      <c r="C244" t="s">
+        <v>372</v>
+      </c>
+      <c r="D244" t="s">
+        <v>367</v>
+      </c>
+      <c r="E244" t="s">
+        <v>864</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J244" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245" t="s">
+        <v>865</v>
+      </c>
+      <c r="C245" t="s">
+        <v>366</v>
+      </c>
+      <c r="D245" t="s">
+        <v>367</v>
+      </c>
+      <c r="E245" t="s">
+        <v>866</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J245" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246" t="s">
+        <v>867</v>
+      </c>
+      <c r="C246" t="s">
+        <v>381</v>
+      </c>
+      <c r="D246" t="s">
+        <v>382</v>
+      </c>
+      <c r="E246" t="s">
+        <v>868</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J246" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247" t="s">
+        <v>869</v>
+      </c>
+      <c r="C247" t="s">
+        <v>385</v>
+      </c>
+      <c r="D247" t="s">
+        <v>386</v>
+      </c>
+      <c r="E247" t="s">
+        <v>870</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J247" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="A248" t="s">
+        <v>871</v>
+      </c>
+      <c r="C248" t="s">
+        <v>372</v>
+      </c>
+      <c r="D248" t="s">
+        <v>373</v>
+      </c>
+      <c r="E248" t="s">
+        <v>872</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="J248" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="A249" t="s">
+        <v>874</v>
+      </c>
+      <c r="C249" t="s">
+        <v>376</v>
+      </c>
+      <c r="D249" t="s">
+        <v>373</v>
+      </c>
+      <c r="E249" t="s">
+        <v>875</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="J249" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250" t="s">
+        <v>876</v>
+      </c>
+      <c r="C250" t="s">
+        <v>372</v>
+      </c>
+      <c r="D250" t="s">
+        <v>367</v>
+      </c>
+      <c r="E250" t="s">
+        <v>877</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="J250" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251" t="s">
+        <v>878</v>
+      </c>
+      <c r="C251" t="s">
+        <v>366</v>
+      </c>
+      <c r="D251" t="s">
+        <v>367</v>
+      </c>
+      <c r="E251" t="s">
+        <v>879</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="J251" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252" t="s">
+        <v>880</v>
+      </c>
+      <c r="C252" t="s">
+        <v>381</v>
+      </c>
+      <c r="D252" t="s">
+        <v>382</v>
+      </c>
+      <c r="E252" t="s">
+        <v>881</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="J252" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253" t="s">
+        <v>882</v>
+      </c>
+      <c r="C253" t="s">
+        <v>385</v>
+      </c>
+      <c r="D253" t="s">
+        <v>386</v>
+      </c>
+      <c r="E253" t="s">
+        <v>883</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="J253" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254" t="s">
+        <v>884</v>
+      </c>
+      <c r="C254" t="s">
+        <v>372</v>
+      </c>
+      <c r="D254" t="s">
+        <v>373</v>
+      </c>
+      <c r="E254" t="s">
+        <v>885</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J254" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="A255" t="s">
+        <v>886</v>
+      </c>
+      <c r="C255" t="s">
+        <v>376</v>
+      </c>
+      <c r="D255" t="s">
+        <v>373</v>
+      </c>
+      <c r="E255" t="s">
+        <v>887</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J255" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256" t="s">
+        <v>888</v>
+      </c>
+      <c r="C256" t="s">
+        <v>372</v>
+      </c>
+      <c r="D256" t="s">
+        <v>367</v>
+      </c>
+      <c r="E256" t="s">
+        <v>889</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J256" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257" t="s">
+        <v>890</v>
+      </c>
+      <c r="C257" t="s">
+        <v>366</v>
+      </c>
+      <c r="D257" t="s">
+        <v>367</v>
+      </c>
+      <c r="E257" t="s">
+        <v>891</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J257" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258" t="s">
+        <v>892</v>
+      </c>
+      <c r="C258" t="s">
+        <v>381</v>
+      </c>
+      <c r="D258" t="s">
+        <v>382</v>
+      </c>
+      <c r="E258" t="s">
+        <v>893</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J258" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
+      <c r="A259" t="s">
+        <v>894</v>
+      </c>
+      <c r="C259" t="s">
+        <v>385</v>
+      </c>
+      <c r="D259" t="s">
+        <v>386</v>
+      </c>
+      <c r="E259" t="s">
+        <v>895</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J259" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260" t="s">
+        <v>896</v>
+      </c>
+      <c r="C260" t="s">
+        <v>372</v>
+      </c>
+      <c r="D260" t="s">
+        <v>373</v>
+      </c>
+      <c r="E260" t="s">
+        <v>897</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J260" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="A261" t="s">
+        <v>898</v>
+      </c>
+      <c r="C261" t="s">
+        <v>376</v>
+      </c>
+      <c r="D261" t="s">
+        <v>373</v>
+      </c>
+      <c r="E261" t="s">
+        <v>899</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J261" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262" t="s">
+        <v>900</v>
+      </c>
+      <c r="C262" t="s">
+        <v>372</v>
+      </c>
+      <c r="D262" t="s">
+        <v>367</v>
+      </c>
+      <c r="E262" t="s">
+        <v>901</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J262" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="A263" t="s">
+        <v>902</v>
+      </c>
+      <c r="C263" t="s">
+        <v>366</v>
+      </c>
+      <c r="D263" t="s">
+        <v>367</v>
+      </c>
+      <c r="E263" t="s">
+        <v>903</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J263" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264" t="s">
+        <v>904</v>
+      </c>
+      <c r="C264" t="s">
+        <v>381</v>
+      </c>
+      <c r="D264" t="s">
+        <v>382</v>
+      </c>
+      <c r="E264" t="s">
+        <v>905</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J264" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265" t="s">
+        <v>906</v>
+      </c>
+      <c r="C265" t="s">
+        <v>385</v>
+      </c>
+      <c r="D265" t="s">
+        <v>386</v>
+      </c>
+      <c r="E265" t="s">
+        <v>907</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J265" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3910,6 +10529,260 @@
     <hyperlink ref="F9" r:id="rId8"/>
     <hyperlink ref="F10" r:id="rId9"/>
     <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F61" r:id="rId60"/>
+    <hyperlink ref="F62" r:id="rId61"/>
+    <hyperlink ref="F63" r:id="rId62"/>
+    <hyperlink ref="F64" r:id="rId63"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F66" r:id="rId65"/>
+    <hyperlink ref="F67" r:id="rId66"/>
+    <hyperlink ref="F68" r:id="rId67"/>
+    <hyperlink ref="F69" r:id="rId68"/>
+    <hyperlink ref="F70" r:id="rId69"/>
+    <hyperlink ref="F71" r:id="rId70"/>
+    <hyperlink ref="F72" r:id="rId71"/>
+    <hyperlink ref="F73" r:id="rId72"/>
+    <hyperlink ref="F74" r:id="rId73"/>
+    <hyperlink ref="F75" r:id="rId74"/>
+    <hyperlink ref="F76" r:id="rId75"/>
+    <hyperlink ref="F77" r:id="rId76"/>
+    <hyperlink ref="F78" r:id="rId77"/>
+    <hyperlink ref="F79" r:id="rId78"/>
+    <hyperlink ref="F80" r:id="rId79"/>
+    <hyperlink ref="F81" r:id="rId80"/>
+    <hyperlink ref="F82" r:id="rId81"/>
+    <hyperlink ref="F83" r:id="rId82"/>
+    <hyperlink ref="F84" r:id="rId83"/>
+    <hyperlink ref="F85" r:id="rId84"/>
+    <hyperlink ref="F86" r:id="rId85"/>
+    <hyperlink ref="F87" r:id="rId86"/>
+    <hyperlink ref="F88" r:id="rId87"/>
+    <hyperlink ref="F89" r:id="rId88"/>
+    <hyperlink ref="F90" r:id="rId89"/>
+    <hyperlink ref="F91" r:id="rId90"/>
+    <hyperlink ref="F92" r:id="rId91"/>
+    <hyperlink ref="F93" r:id="rId92"/>
+    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="F95" r:id="rId94"/>
+    <hyperlink ref="F96" r:id="rId95"/>
+    <hyperlink ref="F97" r:id="rId96"/>
+    <hyperlink ref="F98" r:id="rId97"/>
+    <hyperlink ref="F99" r:id="rId98"/>
+    <hyperlink ref="F100" r:id="rId99"/>
+    <hyperlink ref="F101" r:id="rId100"/>
+    <hyperlink ref="F102" r:id="rId101"/>
+    <hyperlink ref="F103" r:id="rId102"/>
+    <hyperlink ref="F104" r:id="rId103"/>
+    <hyperlink ref="F105" r:id="rId104"/>
+    <hyperlink ref="F106" r:id="rId105"/>
+    <hyperlink ref="F107" r:id="rId106"/>
+    <hyperlink ref="F108" r:id="rId107"/>
+    <hyperlink ref="F109" r:id="rId108"/>
+    <hyperlink ref="F110" r:id="rId109"/>
+    <hyperlink ref="F111" r:id="rId110"/>
+    <hyperlink ref="F112" r:id="rId111"/>
+    <hyperlink ref="F113" r:id="rId112"/>
+    <hyperlink ref="F114" r:id="rId113"/>
+    <hyperlink ref="F115" r:id="rId114"/>
+    <hyperlink ref="F116" r:id="rId115"/>
+    <hyperlink ref="F117" r:id="rId116"/>
+    <hyperlink ref="F118" r:id="rId117"/>
+    <hyperlink ref="F119" r:id="rId118"/>
+    <hyperlink ref="F120" r:id="rId119"/>
+    <hyperlink ref="F121" r:id="rId120"/>
+    <hyperlink ref="F122" r:id="rId121"/>
+    <hyperlink ref="F123" r:id="rId122"/>
+    <hyperlink ref="F124" r:id="rId123"/>
+    <hyperlink ref="F125" r:id="rId124"/>
+    <hyperlink ref="F126" r:id="rId125"/>
+    <hyperlink ref="F127" r:id="rId126"/>
+    <hyperlink ref="F128" r:id="rId127"/>
+    <hyperlink ref="F129" r:id="rId128"/>
+    <hyperlink ref="F130" r:id="rId129"/>
+    <hyperlink ref="F131" r:id="rId130"/>
+    <hyperlink ref="F132" r:id="rId131"/>
+    <hyperlink ref="F133" r:id="rId132"/>
+    <hyperlink ref="F134" r:id="rId133"/>
+    <hyperlink ref="F135" r:id="rId134"/>
+    <hyperlink ref="F136" r:id="rId135"/>
+    <hyperlink ref="F137" r:id="rId136"/>
+    <hyperlink ref="F138" r:id="rId137"/>
+    <hyperlink ref="F139" r:id="rId138"/>
+    <hyperlink ref="F140" r:id="rId139"/>
+    <hyperlink ref="F141" r:id="rId140"/>
+    <hyperlink ref="F142" r:id="rId141"/>
+    <hyperlink ref="F143" r:id="rId142"/>
+    <hyperlink ref="F144" r:id="rId143"/>
+    <hyperlink ref="F145" r:id="rId144"/>
+    <hyperlink ref="F146" r:id="rId145"/>
+    <hyperlink ref="F147" r:id="rId146"/>
+    <hyperlink ref="F148" r:id="rId147"/>
+    <hyperlink ref="F149" r:id="rId148"/>
+    <hyperlink ref="F150" r:id="rId149"/>
+    <hyperlink ref="F151" r:id="rId150"/>
+    <hyperlink ref="F152" r:id="rId151"/>
+    <hyperlink ref="F153" r:id="rId152"/>
+    <hyperlink ref="F154" r:id="rId153"/>
+    <hyperlink ref="F155" r:id="rId154"/>
+    <hyperlink ref="F156" r:id="rId155"/>
+    <hyperlink ref="F157" r:id="rId156"/>
+    <hyperlink ref="F158" r:id="rId157"/>
+    <hyperlink ref="F159" r:id="rId158"/>
+    <hyperlink ref="F160" r:id="rId159"/>
+    <hyperlink ref="F161" r:id="rId160"/>
+    <hyperlink ref="F162" r:id="rId161"/>
+    <hyperlink ref="F163" r:id="rId162"/>
+    <hyperlink ref="F164" r:id="rId163"/>
+    <hyperlink ref="F165" r:id="rId164"/>
+    <hyperlink ref="F166" r:id="rId165"/>
+    <hyperlink ref="F167" r:id="rId166"/>
+    <hyperlink ref="F168" r:id="rId167"/>
+    <hyperlink ref="F169" r:id="rId168"/>
+    <hyperlink ref="F170" r:id="rId169"/>
+    <hyperlink ref="F171" r:id="rId170"/>
+    <hyperlink ref="F172" r:id="rId171"/>
+    <hyperlink ref="F173" r:id="rId172"/>
+    <hyperlink ref="F174" r:id="rId173"/>
+    <hyperlink ref="F175" r:id="rId174"/>
+    <hyperlink ref="F176" r:id="rId175"/>
+    <hyperlink ref="F177" r:id="rId176"/>
+    <hyperlink ref="F178" r:id="rId177"/>
+    <hyperlink ref="F179" r:id="rId178"/>
+    <hyperlink ref="F180" r:id="rId179"/>
+    <hyperlink ref="F181" r:id="rId180"/>
+    <hyperlink ref="F182" r:id="rId181"/>
+    <hyperlink ref="F183" r:id="rId182"/>
+    <hyperlink ref="F184" r:id="rId183"/>
+    <hyperlink ref="F185" r:id="rId184"/>
+    <hyperlink ref="F186" r:id="rId185"/>
+    <hyperlink ref="F187" r:id="rId186"/>
+    <hyperlink ref="F188" r:id="rId187"/>
+    <hyperlink ref="F189" r:id="rId188"/>
+    <hyperlink ref="F190" r:id="rId189"/>
+    <hyperlink ref="F191" r:id="rId190"/>
+    <hyperlink ref="F192" r:id="rId191"/>
+    <hyperlink ref="F193" r:id="rId192"/>
+    <hyperlink ref="F194" r:id="rId193"/>
+    <hyperlink ref="F195" r:id="rId194"/>
+    <hyperlink ref="F196" r:id="rId195"/>
+    <hyperlink ref="F197" r:id="rId196"/>
+    <hyperlink ref="F198" r:id="rId197"/>
+    <hyperlink ref="F199" r:id="rId198"/>
+    <hyperlink ref="F200" r:id="rId199"/>
+    <hyperlink ref="F201" r:id="rId200"/>
+    <hyperlink ref="F202" r:id="rId201"/>
+    <hyperlink ref="F203" r:id="rId202"/>
+    <hyperlink ref="F204" r:id="rId203"/>
+    <hyperlink ref="F205" r:id="rId204"/>
+    <hyperlink ref="F206" r:id="rId205"/>
+    <hyperlink ref="F207" r:id="rId206"/>
+    <hyperlink ref="F208" r:id="rId207"/>
+    <hyperlink ref="F209" r:id="rId208"/>
+    <hyperlink ref="F210" r:id="rId209"/>
+    <hyperlink ref="F211" r:id="rId210"/>
+    <hyperlink ref="F212" r:id="rId211"/>
+    <hyperlink ref="F213" r:id="rId212"/>
+    <hyperlink ref="F214" r:id="rId213"/>
+    <hyperlink ref="F215" r:id="rId214"/>
+    <hyperlink ref="F216" r:id="rId215"/>
+    <hyperlink ref="F217" r:id="rId216"/>
+    <hyperlink ref="F218" r:id="rId217"/>
+    <hyperlink ref="F219" r:id="rId218"/>
+    <hyperlink ref="F220" r:id="rId219"/>
+    <hyperlink ref="F221" r:id="rId220"/>
+    <hyperlink ref="F222" r:id="rId221"/>
+    <hyperlink ref="F223" r:id="rId222"/>
+    <hyperlink ref="F224" r:id="rId223"/>
+    <hyperlink ref="F225" r:id="rId224"/>
+    <hyperlink ref="F226" r:id="rId225"/>
+    <hyperlink ref="F227" r:id="rId226"/>
+    <hyperlink ref="F228" r:id="rId227"/>
+    <hyperlink ref="F229" r:id="rId228"/>
+    <hyperlink ref="F230" r:id="rId229"/>
+    <hyperlink ref="F231" r:id="rId230"/>
+    <hyperlink ref="F232" r:id="rId231"/>
+    <hyperlink ref="F233" r:id="rId232"/>
+    <hyperlink ref="F234" r:id="rId233"/>
+    <hyperlink ref="F235" r:id="rId234"/>
+    <hyperlink ref="F236" r:id="rId235"/>
+    <hyperlink ref="F237" r:id="rId236"/>
+    <hyperlink ref="F238" r:id="rId237"/>
+    <hyperlink ref="F239" r:id="rId238"/>
+    <hyperlink ref="F240" r:id="rId239"/>
+    <hyperlink ref="F241" r:id="rId240"/>
+    <hyperlink ref="F242" r:id="rId241"/>
+    <hyperlink ref="F243" r:id="rId242"/>
+    <hyperlink ref="F244" r:id="rId243"/>
+    <hyperlink ref="F245" r:id="rId244"/>
+    <hyperlink ref="F246" r:id="rId245"/>
+    <hyperlink ref="F247" r:id="rId246"/>
+    <hyperlink ref="F248" r:id="rId247"/>
+    <hyperlink ref="F249" r:id="rId248"/>
+    <hyperlink ref="F250" r:id="rId249"/>
+    <hyperlink ref="F251" r:id="rId250"/>
+    <hyperlink ref="F252" r:id="rId251"/>
+    <hyperlink ref="F253" r:id="rId252"/>
+    <hyperlink ref="F254" r:id="rId253"/>
+    <hyperlink ref="F255" r:id="rId254"/>
+    <hyperlink ref="F256" r:id="rId255"/>
+    <hyperlink ref="F257" r:id="rId256"/>
+    <hyperlink ref="F258" r:id="rId257"/>
+    <hyperlink ref="F259" r:id="rId258"/>
+    <hyperlink ref="F260" r:id="rId259"/>
+    <hyperlink ref="F261" r:id="rId260"/>
+    <hyperlink ref="F262" r:id="rId261"/>
+    <hyperlink ref="F263" r:id="rId262"/>
+    <hyperlink ref="F264" r:id="rId263"/>
+    <hyperlink ref="F265" r:id="rId264"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
